--- a/Final_Results/Authors_Count_2020_Paper_Analysis.xlsx
+++ b/Final_Results/Authors_Count_2020_Paper_Analysis.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="824">
   <si>
     <t>Paper Title</t>
   </si>
@@ -2465,13 +2465,31 @@
   </si>
   <si>
     <t>Guihai Chen</t>
+  </si>
+  <si>
+    <t>Female Collaboration</t>
+  </si>
+  <si>
+    <t>Female Collaboration when co-author</t>
+  </si>
+  <si>
+    <t>Female Contribution</t>
+  </si>
+  <si>
+    <t>Female collaboration when lead</t>
+  </si>
+  <si>
+    <t>Male Contribution</t>
+  </si>
+  <si>
+    <t>Female Contribution when lead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2501,8 +2519,34 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Google Sans Mono&quot;"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2527,6 +2571,36 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E5E5"/>
+        <bgColor rgb="FFE5E5E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -2548,7 +2622,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2590,7 +2664,25 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2831,7 +2923,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="63.5"/>
+    <col customWidth="1" hidden="1" min="5" max="5" width="31.63"/>
+    <col hidden="1" min="6" max="8" width="12.63"/>
+    <col customWidth="1" min="9" max="9" width="34.13"/>
+    <col customWidth="1" min="11" max="11" width="19.75"/>
+    <col customWidth="1" min="12" max="12" width="28.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28172,3772 +28268,4023 @@
       <c r="Z372" s="9"/>
     </row>
     <row r="373">
+      <c r="A373" s="15"/>
+      <c r="B373" s="15"/>
       <c r="C373" s="15"/>
       <c r="D373" s="15"/>
       <c r="E373" s="15"/>
       <c r="F373" s="15"/>
+      <c r="G373" s="15">
+        <f t="shared" ref="G373:L373" si="1">sum(G1:G369)</f>
+        <v>386</v>
+      </c>
+      <c r="H373" s="15">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="I373" s="15">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J373" s="15">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K373" s="15">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="L373" s="15">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="M373" s="15"/>
+      <c r="N373" s="15"/>
+      <c r="O373" s="15"/>
+      <c r="P373" s="15"/>
+      <c r="Q373" s="15"/>
+      <c r="R373" s="15"/>
+      <c r="S373" s="15"/>
+      <c r="T373" s="15"/>
+      <c r="U373" s="15"/>
+      <c r="V373" s="15"/>
+      <c r="W373" s="15"/>
+      <c r="X373" s="15"/>
+      <c r="Y373" s="15"/>
+      <c r="Z373" s="15"/>
     </row>
     <row r="374">
-      <c r="C374" s="15"/>
-      <c r="D374" s="15"/>
-      <c r="E374" s="15"/>
-      <c r="F374" s="15"/>
+      <c r="C374" s="16"/>
+      <c r="D374" s="16"/>
+      <c r="E374" s="16"/>
+      <c r="F374" s="16"/>
     </row>
     <row r="375">
-      <c r="C375" s="15"/>
-      <c r="D375" s="15"/>
-      <c r="E375" s="15"/>
-      <c r="F375" s="15"/>
+      <c r="C375" s="16"/>
+      <c r="D375" s="16"/>
+      <c r="E375" s="16"/>
+      <c r="F375" s="16"/>
     </row>
     <row r="376">
-      <c r="C376" s="15"/>
-      <c r="D376" s="15"/>
-      <c r="E376" s="15"/>
-      <c r="F376" s="15"/>
+      <c r="C376" s="16"/>
+      <c r="D376" s="16"/>
+      <c r="E376" s="16"/>
+      <c r="F376" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="I376" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="J376" s="19">
+        <f>sumif(H2:H369, "&gt;0",J2:J369)</f>
+        <v>10</v>
+      </c>
+      <c r="K376" s="19">
+        <f>sumif(H2:H369, "&gt;0",K2:K369)</f>
+        <v>21</v>
+      </c>
+      <c r="L376" s="19">
+        <f>sumif(H1:H369, "&gt;0",L1:L369)</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="377">
-      <c r="C377" s="15"/>
-      <c r="D377" s="15"/>
-      <c r="E377" s="15"/>
-      <c r="F377" s="15"/>
+      <c r="C377" s="16"/>
+      <c r="D377" s="16"/>
+      <c r="E377" s="16"/>
+      <c r="F377" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="I377" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="J377" s="20">
+        <f t="shared" ref="J377:L377" si="2">sumif($I$2:$I$371, "&gt;0",J2:J371)</f>
+        <v>3</v>
+      </c>
+      <c r="K377" s="20">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L377" s="20">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="378">
-      <c r="C378" s="15"/>
-      <c r="D378" s="15"/>
-      <c r="E378" s="15"/>
-      <c r="F378" s="15"/>
+      <c r="C378" s="16"/>
+      <c r="D378" s="16"/>
+      <c r="E378" s="16"/>
+      <c r="F378" s="16"/>
+      <c r="L378" s="21" t="s">
+        <v>820</v>
+      </c>
+      <c r="M378" s="22">
+        <f t="shared" ref="M378:Z378" si="3">SUMIF($D$1:$D$371, "Female", M1:M371)</f>
+        <v>37</v>
+      </c>
+      <c r="N378" s="22">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="O378" s="22">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="P378" s="22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q378" s="22">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="R378" s="22">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="S378" s="22">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T378" s="22">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="U378" s="22">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="V378" s="22">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="W378" s="22">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="X378" s="22">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Y378" s="22">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="Z378" s="22">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="379">
-      <c r="C379" s="15"/>
-      <c r="D379" s="15"/>
-      <c r="E379" s="15"/>
-      <c r="F379" s="15"/>
+      <c r="C379" s="16"/>
+      <c r="D379" s="16"/>
+      <c r="E379" s="16"/>
+      <c r="F379" s="16"/>
+      <c r="L379" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="M379" s="22">
+        <f t="shared" ref="M379:Z379" si="4">SUMIF($D$2:$D$371, "Male", M2:M371)</f>
+        <v>160</v>
+      </c>
+      <c r="N379" s="22">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="O379" s="22">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="P379" s="22">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="Q379" s="22">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="R379" s="22">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="S379" s="22">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="T379" s="22">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="U379" s="22">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="V379" s="22">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="W379" s="22">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="X379" s="22">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="Y379" s="22">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="Z379" s="22">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
     </row>
     <row r="380">
-      <c r="C380" s="15"/>
-      <c r="D380" s="15"/>
-      <c r="E380" s="15"/>
-      <c r="F380" s="15"/>
+      <c r="C380" s="16"/>
+      <c r="D380" s="16"/>
+      <c r="E380" s="16"/>
+      <c r="F380" s="16"/>
+      <c r="L380" s="21" t="s">
+        <v>823</v>
+      </c>
+      <c r="M380" s="22">
+        <f t="shared" ref="M380:Z380" si="5">SUMIFS(M2:M371, $D$2:$D$371, "Female",$I$2:$I$371, "&gt;0")</f>
+        <v>15</v>
+      </c>
+      <c r="N380" s="22">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O380" s="22">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="P380" s="22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q380" s="22">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="R380" s="22">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="S380" s="22">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T380" s="22">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="U380" s="22">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="V380" s="22">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W380" s="22">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="X380" s="22">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="Y380" s="22">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="Z380" s="22">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="381">
-      <c r="C381" s="15"/>
-      <c r="D381" s="15"/>
-      <c r="E381" s="15"/>
-      <c r="F381" s="15"/>
+      <c r="C381" s="16"/>
+      <c r="D381" s="16"/>
+      <c r="E381" s="16"/>
+      <c r="F381" s="16"/>
     </row>
     <row r="382">
-      <c r="C382" s="15"/>
-      <c r="D382" s="15"/>
-      <c r="E382" s="15"/>
-      <c r="F382" s="15"/>
+      <c r="C382" s="16"/>
+      <c r="D382" s="16"/>
+      <c r="E382" s="16"/>
+      <c r="F382" s="16"/>
     </row>
     <row r="383">
-      <c r="C383" s="15"/>
-      <c r="D383" s="15"/>
-      <c r="E383" s="15"/>
-      <c r="F383" s="15"/>
+      <c r="C383" s="16"/>
+      <c r="D383" s="16"/>
+      <c r="E383" s="16"/>
+      <c r="F383" s="16"/>
     </row>
     <row r="384">
-      <c r="C384" s="15"/>
-      <c r="D384" s="15"/>
-      <c r="E384" s="15"/>
-      <c r="F384" s="15"/>
+      <c r="C384" s="16"/>
+      <c r="D384" s="16"/>
+      <c r="E384" s="16"/>
+      <c r="F384" s="16"/>
     </row>
     <row r="385">
-      <c r="C385" s="15"/>
-      <c r="D385" s="15"/>
-      <c r="E385" s="15"/>
-      <c r="F385" s="15"/>
+      <c r="C385" s="16"/>
+      <c r="D385" s="16"/>
+      <c r="E385" s="16"/>
+      <c r="F385" s="16"/>
     </row>
     <row r="386">
-      <c r="C386" s="15"/>
-      <c r="D386" s="15"/>
-      <c r="E386" s="15"/>
-      <c r="F386" s="15"/>
+      <c r="C386" s="16"/>
+      <c r="D386" s="16"/>
+      <c r="E386" s="16"/>
+      <c r="F386" s="16"/>
     </row>
     <row r="387">
-      <c r="C387" s="15"/>
-      <c r="D387" s="15"/>
-      <c r="E387" s="15"/>
-      <c r="F387" s="15"/>
+      <c r="C387" s="16"/>
+      <c r="D387" s="16"/>
+      <c r="E387" s="16"/>
+      <c r="F387" s="16"/>
     </row>
     <row r="388">
-      <c r="C388" s="15"/>
-      <c r="D388" s="15"/>
-      <c r="E388" s="15"/>
-      <c r="F388" s="15"/>
+      <c r="C388" s="16"/>
+      <c r="D388" s="16"/>
+      <c r="E388" s="16"/>
+      <c r="F388" s="16"/>
     </row>
     <row r="389">
-      <c r="C389" s="15"/>
-      <c r="D389" s="15"/>
-      <c r="E389" s="15"/>
-      <c r="F389" s="15"/>
+      <c r="C389" s="16"/>
+      <c r="D389" s="16"/>
+      <c r="E389" s="16"/>
+      <c r="F389" s="16"/>
     </row>
     <row r="390">
-      <c r="C390" s="15"/>
-      <c r="D390" s="15"/>
-      <c r="E390" s="15"/>
-      <c r="F390" s="15"/>
+      <c r="C390" s="16"/>
+      <c r="D390" s="16"/>
+      <c r="E390" s="16"/>
+      <c r="F390" s="16"/>
     </row>
     <row r="391">
-      <c r="C391" s="15"/>
-      <c r="D391" s="15"/>
-      <c r="E391" s="15"/>
-      <c r="F391" s="15"/>
+      <c r="C391" s="16"/>
+      <c r="D391" s="16"/>
+      <c r="E391" s="16"/>
+      <c r="F391" s="16"/>
     </row>
     <row r="392">
-      <c r="C392" s="15"/>
-      <c r="D392" s="15"/>
-      <c r="E392" s="15"/>
-      <c r="F392" s="15"/>
+      <c r="C392" s="16"/>
+      <c r="D392" s="16"/>
+      <c r="E392" s="16"/>
+      <c r="F392" s="16"/>
     </row>
     <row r="393">
-      <c r="C393" s="15"/>
-      <c r="D393" s="15"/>
-      <c r="E393" s="15"/>
-      <c r="F393" s="15"/>
+      <c r="C393" s="16"/>
+      <c r="D393" s="16"/>
+      <c r="E393" s="16"/>
+      <c r="F393" s="16"/>
     </row>
     <row r="394">
-      <c r="C394" s="15"/>
-      <c r="D394" s="15"/>
-      <c r="E394" s="15"/>
-      <c r="F394" s="15"/>
+      <c r="C394" s="16"/>
+      <c r="D394" s="16"/>
+      <c r="E394" s="16"/>
+      <c r="F394" s="16"/>
     </row>
     <row r="395">
-      <c r="C395" s="15"/>
-      <c r="D395" s="15"/>
-      <c r="E395" s="15"/>
-      <c r="F395" s="15"/>
+      <c r="C395" s="16"/>
+      <c r="D395" s="16"/>
+      <c r="E395" s="16"/>
+      <c r="F395" s="16"/>
     </row>
     <row r="396">
-      <c r="C396" s="15"/>
-      <c r="D396" s="15"/>
-      <c r="E396" s="15"/>
-      <c r="F396" s="15"/>
+      <c r="C396" s="16"/>
+      <c r="D396" s="16"/>
+      <c r="E396" s="16"/>
+      <c r="F396" s="16"/>
     </row>
     <row r="397">
-      <c r="C397" s="15"/>
-      <c r="D397" s="15"/>
-      <c r="E397" s="15"/>
-      <c r="F397" s="15"/>
+      <c r="C397" s="16"/>
+      <c r="D397" s="16"/>
+      <c r="E397" s="16"/>
+      <c r="F397" s="16"/>
     </row>
     <row r="398">
-      <c r="C398" s="15"/>
-      <c r="D398" s="15"/>
-      <c r="E398" s="15"/>
-      <c r="F398" s="15"/>
+      <c r="C398" s="16"/>
+      <c r="D398" s="16"/>
+      <c r="E398" s="16"/>
+      <c r="F398" s="16"/>
     </row>
     <row r="399">
-      <c r="C399" s="15"/>
-      <c r="D399" s="15"/>
-      <c r="E399" s="15"/>
-      <c r="F399" s="15"/>
+      <c r="C399" s="16"/>
+      <c r="D399" s="16"/>
+      <c r="E399" s="16"/>
+      <c r="F399" s="16"/>
     </row>
     <row r="400">
-      <c r="C400" s="15"/>
-      <c r="D400" s="15"/>
-      <c r="E400" s="15"/>
-      <c r="F400" s="15"/>
+      <c r="C400" s="16"/>
+      <c r="D400" s="16"/>
+      <c r="E400" s="16"/>
+      <c r="F400" s="16"/>
     </row>
     <row r="401">
-      <c r="C401" s="15"/>
-      <c r="D401" s="15"/>
-      <c r="E401" s="15"/>
-      <c r="F401" s="15"/>
+      <c r="C401" s="16"/>
+      <c r="D401" s="16"/>
+      <c r="E401" s="16"/>
+      <c r="F401" s="16"/>
     </row>
     <row r="402">
-      <c r="C402" s="15"/>
-      <c r="D402" s="15"/>
-      <c r="E402" s="15"/>
-      <c r="F402" s="15"/>
+      <c r="C402" s="16"/>
+      <c r="D402" s="16"/>
+      <c r="E402" s="16"/>
+      <c r="F402" s="16"/>
     </row>
     <row r="403">
-      <c r="C403" s="15"/>
-      <c r="D403" s="15"/>
-      <c r="E403" s="15"/>
-      <c r="F403" s="15"/>
+      <c r="C403" s="16"/>
+      <c r="D403" s="16"/>
+      <c r="E403" s="16"/>
+      <c r="F403" s="16"/>
     </row>
     <row r="404">
-      <c r="C404" s="15"/>
-      <c r="D404" s="15"/>
-      <c r="E404" s="15"/>
-      <c r="F404" s="15"/>
+      <c r="C404" s="16"/>
+      <c r="D404" s="16"/>
+      <c r="E404" s="16"/>
+      <c r="F404" s="16"/>
     </row>
     <row r="405">
-      <c r="C405" s="15"/>
-      <c r="D405" s="15"/>
-      <c r="E405" s="15"/>
-      <c r="F405" s="15"/>
+      <c r="C405" s="16"/>
+      <c r="D405" s="16"/>
+      <c r="E405" s="16"/>
+      <c r="F405" s="16"/>
     </row>
     <row r="406">
-      <c r="C406" s="15"/>
-      <c r="D406" s="15"/>
-      <c r="E406" s="15"/>
-      <c r="F406" s="15"/>
+      <c r="C406" s="16"/>
+      <c r="D406" s="16"/>
+      <c r="E406" s="16"/>
+      <c r="F406" s="16"/>
     </row>
     <row r="407">
-      <c r="C407" s="15"/>
-      <c r="D407" s="15"/>
-      <c r="E407" s="15"/>
-      <c r="F407" s="15"/>
+      <c r="C407" s="16"/>
+      <c r="D407" s="16"/>
+      <c r="E407" s="16"/>
+      <c r="F407" s="16"/>
     </row>
     <row r="408">
-      <c r="C408" s="15"/>
-      <c r="D408" s="15"/>
-      <c r="E408" s="15"/>
-      <c r="F408" s="15"/>
+      <c r="C408" s="16"/>
+      <c r="D408" s="16"/>
+      <c r="E408" s="16"/>
+      <c r="F408" s="16"/>
     </row>
     <row r="409">
-      <c r="C409" s="15"/>
-      <c r="D409" s="15"/>
-      <c r="E409" s="15"/>
-      <c r="F409" s="15"/>
+      <c r="C409" s="16"/>
+      <c r="D409" s="16"/>
+      <c r="E409" s="16"/>
+      <c r="F409" s="16"/>
     </row>
     <row r="410">
-      <c r="C410" s="15"/>
-      <c r="D410" s="15"/>
-      <c r="E410" s="15"/>
-      <c r="F410" s="15"/>
+      <c r="C410" s="16"/>
+      <c r="D410" s="16"/>
+      <c r="E410" s="16"/>
+      <c r="F410" s="16"/>
     </row>
     <row r="411">
-      <c r="C411" s="15"/>
-      <c r="D411" s="15"/>
-      <c r="E411" s="15"/>
-      <c r="F411" s="15"/>
+      <c r="C411" s="16"/>
+      <c r="D411" s="16"/>
+      <c r="E411" s="16"/>
+      <c r="F411" s="16"/>
     </row>
     <row r="412">
-      <c r="C412" s="15"/>
-      <c r="D412" s="15"/>
-      <c r="E412" s="15"/>
-      <c r="F412" s="15"/>
+      <c r="C412" s="16"/>
+      <c r="D412" s="16"/>
+      <c r="E412" s="16"/>
+      <c r="F412" s="16"/>
     </row>
     <row r="413">
-      <c r="C413" s="15"/>
-      <c r="D413" s="15"/>
-      <c r="E413" s="15"/>
-      <c r="F413" s="15"/>
+      <c r="C413" s="16"/>
+      <c r="D413" s="16"/>
+      <c r="E413" s="16"/>
+      <c r="F413" s="16"/>
     </row>
     <row r="414">
-      <c r="C414" s="15"/>
-      <c r="D414" s="15"/>
-      <c r="E414" s="15"/>
-      <c r="F414" s="15"/>
+      <c r="C414" s="16"/>
+      <c r="D414" s="16"/>
+      <c r="E414" s="16"/>
+      <c r="F414" s="16"/>
     </row>
     <row r="415">
-      <c r="C415" s="15"/>
-      <c r="D415" s="15"/>
-      <c r="E415" s="15"/>
-      <c r="F415" s="15"/>
+      <c r="C415" s="16"/>
+      <c r="D415" s="16"/>
+      <c r="E415" s="16"/>
+      <c r="F415" s="16"/>
     </row>
     <row r="416">
-      <c r="C416" s="15"/>
-      <c r="D416" s="15"/>
-      <c r="E416" s="15"/>
-      <c r="F416" s="15"/>
+      <c r="C416" s="16"/>
+      <c r="D416" s="16"/>
+      <c r="E416" s="16"/>
+      <c r="F416" s="16"/>
     </row>
     <row r="417">
-      <c r="C417" s="15"/>
-      <c r="D417" s="15"/>
-      <c r="E417" s="15"/>
-      <c r="F417" s="15"/>
+      <c r="C417" s="16"/>
+      <c r="D417" s="16"/>
+      <c r="E417" s="16"/>
+      <c r="F417" s="16"/>
     </row>
     <row r="418">
-      <c r="C418" s="15"/>
-      <c r="D418" s="15"/>
-      <c r="E418" s="15"/>
-      <c r="F418" s="15"/>
+      <c r="C418" s="16"/>
+      <c r="D418" s="16"/>
+      <c r="E418" s="16"/>
+      <c r="F418" s="16"/>
     </row>
     <row r="419">
-      <c r="C419" s="15"/>
-      <c r="D419" s="15"/>
-      <c r="E419" s="15"/>
-      <c r="F419" s="15"/>
+      <c r="C419" s="16"/>
+      <c r="D419" s="16"/>
+      <c r="E419" s="16"/>
+      <c r="F419" s="16"/>
     </row>
     <row r="420">
-      <c r="C420" s="15"/>
-      <c r="D420" s="15"/>
-      <c r="E420" s="15"/>
-      <c r="F420" s="15"/>
+      <c r="C420" s="16"/>
+      <c r="D420" s="16"/>
+      <c r="E420" s="16"/>
+      <c r="F420" s="16"/>
     </row>
     <row r="421">
-      <c r="C421" s="15"/>
-      <c r="D421" s="15"/>
-      <c r="E421" s="15"/>
-      <c r="F421" s="15"/>
+      <c r="C421" s="16"/>
+      <c r="D421" s="16"/>
+      <c r="E421" s="16"/>
+      <c r="F421" s="16"/>
     </row>
     <row r="422">
-      <c r="C422" s="15"/>
-      <c r="D422" s="15"/>
-      <c r="E422" s="15"/>
-      <c r="F422" s="15"/>
+      <c r="C422" s="16"/>
+      <c r="D422" s="16"/>
+      <c r="E422" s="16"/>
+      <c r="F422" s="16"/>
     </row>
     <row r="423">
-      <c r="C423" s="15"/>
-      <c r="D423" s="15"/>
-      <c r="E423" s="15"/>
-      <c r="F423" s="15"/>
+      <c r="C423" s="16"/>
+      <c r="D423" s="16"/>
+      <c r="E423" s="16"/>
+      <c r="F423" s="16"/>
     </row>
     <row r="424">
-      <c r="C424" s="15"/>
-      <c r="D424" s="15"/>
-      <c r="E424" s="15"/>
-      <c r="F424" s="15"/>
+      <c r="C424" s="16"/>
+      <c r="D424" s="16"/>
+      <c r="E424" s="16"/>
+      <c r="F424" s="16"/>
     </row>
     <row r="425">
-      <c r="C425" s="15"/>
-      <c r="D425" s="15"/>
-      <c r="E425" s="15"/>
-      <c r="F425" s="15"/>
+      <c r="C425" s="16"/>
+      <c r="D425" s="16"/>
+      <c r="E425" s="16"/>
+      <c r="F425" s="16"/>
     </row>
     <row r="426">
-      <c r="C426" s="15"/>
-      <c r="D426" s="15"/>
-      <c r="E426" s="15"/>
-      <c r="F426" s="15"/>
+      <c r="C426" s="16"/>
+      <c r="D426" s="16"/>
+      <c r="E426" s="16"/>
+      <c r="F426" s="16"/>
     </row>
     <row r="427">
-      <c r="C427" s="15"/>
-      <c r="D427" s="15"/>
-      <c r="E427" s="15"/>
-      <c r="F427" s="15"/>
+      <c r="C427" s="16"/>
+      <c r="D427" s="16"/>
+      <c r="E427" s="16"/>
+      <c r="F427" s="16"/>
     </row>
     <row r="428">
-      <c r="C428" s="15"/>
-      <c r="D428" s="15"/>
-      <c r="E428" s="15"/>
-      <c r="F428" s="15"/>
+      <c r="C428" s="16"/>
+      <c r="D428" s="16"/>
+      <c r="E428" s="16"/>
+      <c r="F428" s="16"/>
     </row>
     <row r="429">
-      <c r="C429" s="15"/>
-      <c r="D429" s="15"/>
-      <c r="E429" s="15"/>
-      <c r="F429" s="15"/>
+      <c r="C429" s="16"/>
+      <c r="D429" s="16"/>
+      <c r="E429" s="16"/>
+      <c r="F429" s="16"/>
     </row>
     <row r="430">
-      <c r="C430" s="15"/>
-      <c r="D430" s="15"/>
-      <c r="E430" s="15"/>
-      <c r="F430" s="15"/>
+      <c r="C430" s="16"/>
+      <c r="D430" s="16"/>
+      <c r="E430" s="16"/>
+      <c r="F430" s="16"/>
     </row>
     <row r="431">
-      <c r="C431" s="15"/>
-      <c r="D431" s="15"/>
-      <c r="E431" s="15"/>
-      <c r="F431" s="15"/>
+      <c r="C431" s="16"/>
+      <c r="D431" s="16"/>
+      <c r="E431" s="16"/>
+      <c r="F431" s="16"/>
     </row>
     <row r="432">
-      <c r="C432" s="15"/>
-      <c r="D432" s="15"/>
-      <c r="E432" s="15"/>
-      <c r="F432" s="15"/>
+      <c r="C432" s="16"/>
+      <c r="D432" s="16"/>
+      <c r="E432" s="16"/>
+      <c r="F432" s="16"/>
     </row>
     <row r="433">
-      <c r="C433" s="15"/>
-      <c r="D433" s="15"/>
-      <c r="E433" s="15"/>
-      <c r="F433" s="15"/>
+      <c r="C433" s="16"/>
+      <c r="D433" s="16"/>
+      <c r="E433" s="16"/>
+      <c r="F433" s="16"/>
     </row>
     <row r="434">
-      <c r="C434" s="15"/>
-      <c r="D434" s="15"/>
-      <c r="E434" s="15"/>
-      <c r="F434" s="15"/>
+      <c r="C434" s="16"/>
+      <c r="D434" s="16"/>
+      <c r="E434" s="16"/>
+      <c r="F434" s="16"/>
     </row>
     <row r="435">
-      <c r="C435" s="15"/>
-      <c r="D435" s="15"/>
-      <c r="E435" s="15"/>
-      <c r="F435" s="15"/>
+      <c r="C435" s="16"/>
+      <c r="D435" s="16"/>
+      <c r="E435" s="16"/>
+      <c r="F435" s="16"/>
     </row>
     <row r="436">
-      <c r="C436" s="15"/>
-      <c r="D436" s="15"/>
-      <c r="E436" s="15"/>
-      <c r="F436" s="15"/>
+      <c r="C436" s="16"/>
+      <c r="D436" s="16"/>
+      <c r="E436" s="16"/>
+      <c r="F436" s="16"/>
     </row>
     <row r="437">
-      <c r="C437" s="15"/>
-      <c r="D437" s="15"/>
-      <c r="E437" s="15"/>
-      <c r="F437" s="15"/>
+      <c r="C437" s="16"/>
+      <c r="D437" s="16"/>
+      <c r="E437" s="16"/>
+      <c r="F437" s="16"/>
     </row>
     <row r="438">
-      <c r="C438" s="15"/>
-      <c r="D438" s="15"/>
-      <c r="E438" s="15"/>
-      <c r="F438" s="15"/>
+      <c r="C438" s="16"/>
+      <c r="D438" s="16"/>
+      <c r="E438" s="16"/>
+      <c r="F438" s="16"/>
     </row>
     <row r="439">
-      <c r="C439" s="15"/>
-      <c r="D439" s="15"/>
-      <c r="E439" s="15"/>
-      <c r="F439" s="15"/>
+      <c r="C439" s="16"/>
+      <c r="D439" s="16"/>
+      <c r="E439" s="16"/>
+      <c r="F439" s="16"/>
     </row>
     <row r="440">
-      <c r="C440" s="15"/>
-      <c r="D440" s="15"/>
-      <c r="E440" s="15"/>
-      <c r="F440" s="15"/>
+      <c r="C440" s="16"/>
+      <c r="D440" s="16"/>
+      <c r="E440" s="16"/>
+      <c r="F440" s="16"/>
     </row>
     <row r="441">
-      <c r="C441" s="15"/>
-      <c r="D441" s="15"/>
-      <c r="E441" s="15"/>
-      <c r="F441" s="15"/>
+      <c r="C441" s="16"/>
+      <c r="D441" s="16"/>
+      <c r="E441" s="16"/>
+      <c r="F441" s="16"/>
     </row>
     <row r="442">
-      <c r="C442" s="15"/>
-      <c r="D442" s="15"/>
-      <c r="E442" s="15"/>
-      <c r="F442" s="15"/>
+      <c r="C442" s="16"/>
+      <c r="D442" s="16"/>
+      <c r="E442" s="16"/>
+      <c r="F442" s="16"/>
     </row>
     <row r="443">
-      <c r="C443" s="15"/>
-      <c r="D443" s="15"/>
-      <c r="E443" s="15"/>
-      <c r="F443" s="15"/>
+      <c r="C443" s="16"/>
+      <c r="D443" s="16"/>
+      <c r="E443" s="16"/>
+      <c r="F443" s="16"/>
     </row>
     <row r="444">
-      <c r="C444" s="15"/>
-      <c r="D444" s="15"/>
-      <c r="E444" s="15"/>
-      <c r="F444" s="15"/>
+      <c r="C444" s="16"/>
+      <c r="D444" s="16"/>
+      <c r="E444" s="16"/>
+      <c r="F444" s="16"/>
     </row>
     <row r="445">
-      <c r="C445" s="15"/>
-      <c r="D445" s="15"/>
-      <c r="E445" s="15"/>
-      <c r="F445" s="15"/>
+      <c r="C445" s="16"/>
+      <c r="D445" s="16"/>
+      <c r="E445" s="16"/>
+      <c r="F445" s="16"/>
     </row>
     <row r="446">
-      <c r="C446" s="15"/>
-      <c r="D446" s="15"/>
-      <c r="E446" s="15"/>
-      <c r="F446" s="15"/>
+      <c r="C446" s="16"/>
+      <c r="D446" s="16"/>
+      <c r="E446" s="16"/>
+      <c r="F446" s="16"/>
     </row>
     <row r="447">
-      <c r="C447" s="15"/>
-      <c r="D447" s="15"/>
-      <c r="E447" s="15"/>
-      <c r="F447" s="15"/>
+      <c r="C447" s="16"/>
+      <c r="D447" s="16"/>
+      <c r="E447" s="16"/>
+      <c r="F447" s="16"/>
     </row>
     <row r="448">
-      <c r="C448" s="15"/>
-      <c r="D448" s="15"/>
-      <c r="E448" s="15"/>
-      <c r="F448" s="15"/>
+      <c r="C448" s="16"/>
+      <c r="D448" s="16"/>
+      <c r="E448" s="16"/>
+      <c r="F448" s="16"/>
     </row>
     <row r="449">
-      <c r="C449" s="15"/>
-      <c r="D449" s="15"/>
-      <c r="E449" s="15"/>
-      <c r="F449" s="15"/>
+      <c r="C449" s="16"/>
+      <c r="D449" s="16"/>
+      <c r="E449" s="16"/>
+      <c r="F449" s="16"/>
     </row>
     <row r="450">
-      <c r="C450" s="15"/>
-      <c r="D450" s="15"/>
-      <c r="E450" s="15"/>
-      <c r="F450" s="15"/>
+      <c r="C450" s="16"/>
+      <c r="D450" s="16"/>
+      <c r="E450" s="16"/>
+      <c r="F450" s="16"/>
     </row>
     <row r="451">
-      <c r="C451" s="15"/>
-      <c r="D451" s="15"/>
-      <c r="E451" s="15"/>
-      <c r="F451" s="15"/>
+      <c r="C451" s="16"/>
+      <c r="D451" s="16"/>
+      <c r="E451" s="16"/>
+      <c r="F451" s="16"/>
     </row>
     <row r="452">
-      <c r="C452" s="15"/>
-      <c r="D452" s="15"/>
-      <c r="E452" s="15"/>
-      <c r="F452" s="15"/>
+      <c r="C452" s="16"/>
+      <c r="D452" s="16"/>
+      <c r="E452" s="16"/>
+      <c r="F452" s="16"/>
     </row>
     <row r="453">
-      <c r="C453" s="15"/>
-      <c r="D453" s="15"/>
-      <c r="E453" s="15"/>
-      <c r="F453" s="15"/>
+      <c r="C453" s="16"/>
+      <c r="D453" s="16"/>
+      <c r="E453" s="16"/>
+      <c r="F453" s="16"/>
     </row>
     <row r="454">
-      <c r="C454" s="15"/>
-      <c r="D454" s="15"/>
-      <c r="E454" s="15"/>
-      <c r="F454" s="15"/>
+      <c r="C454" s="16"/>
+      <c r="D454" s="16"/>
+      <c r="E454" s="16"/>
+      <c r="F454" s="16"/>
     </row>
     <row r="455">
-      <c r="C455" s="15"/>
-      <c r="D455" s="15"/>
-      <c r="E455" s="15"/>
-      <c r="F455" s="15"/>
+      <c r="C455" s="16"/>
+      <c r="D455" s="16"/>
+      <c r="E455" s="16"/>
+      <c r="F455" s="16"/>
     </row>
     <row r="456">
-      <c r="C456" s="15"/>
-      <c r="D456" s="15"/>
-      <c r="E456" s="15"/>
-      <c r="F456" s="15"/>
+      <c r="C456" s="16"/>
+      <c r="D456" s="16"/>
+      <c r="E456" s="16"/>
+      <c r="F456" s="16"/>
     </row>
     <row r="457">
-      <c r="C457" s="15"/>
-      <c r="D457" s="15"/>
-      <c r="E457" s="15"/>
-      <c r="F457" s="15"/>
+      <c r="C457" s="16"/>
+      <c r="D457" s="16"/>
+      <c r="E457" s="16"/>
+      <c r="F457" s="16"/>
     </row>
     <row r="458">
-      <c r="C458" s="15"/>
-      <c r="D458" s="15"/>
-      <c r="E458" s="15"/>
-      <c r="F458" s="15"/>
+      <c r="C458" s="16"/>
+      <c r="D458" s="16"/>
+      <c r="E458" s="16"/>
+      <c r="F458" s="16"/>
     </row>
     <row r="459">
-      <c r="C459" s="15"/>
-      <c r="D459" s="15"/>
-      <c r="E459" s="15"/>
-      <c r="F459" s="15"/>
+      <c r="C459" s="16"/>
+      <c r="D459" s="16"/>
+      <c r="E459" s="16"/>
+      <c r="F459" s="16"/>
     </row>
     <row r="460">
-      <c r="C460" s="15"/>
-      <c r="D460" s="15"/>
-      <c r="E460" s="15"/>
-      <c r="F460" s="15"/>
+      <c r="C460" s="16"/>
+      <c r="D460" s="16"/>
+      <c r="E460" s="16"/>
+      <c r="F460" s="16"/>
     </row>
     <row r="461">
-      <c r="C461" s="15"/>
-      <c r="D461" s="15"/>
-      <c r="E461" s="15"/>
-      <c r="F461" s="15"/>
+      <c r="C461" s="16"/>
+      <c r="D461" s="16"/>
+      <c r="E461" s="16"/>
+      <c r="F461" s="16"/>
     </row>
     <row r="462">
-      <c r="C462" s="15"/>
-      <c r="D462" s="15"/>
-      <c r="E462" s="15"/>
-      <c r="F462" s="15"/>
+      <c r="C462" s="16"/>
+      <c r="D462" s="16"/>
+      <c r="E462" s="16"/>
+      <c r="F462" s="16"/>
     </row>
     <row r="463">
-      <c r="C463" s="15"/>
-      <c r="D463" s="15"/>
-      <c r="E463" s="15"/>
-      <c r="F463" s="15"/>
+      <c r="C463" s="16"/>
+      <c r="D463" s="16"/>
+      <c r="E463" s="16"/>
+      <c r="F463" s="16"/>
     </row>
     <row r="464">
-      <c r="C464" s="15"/>
-      <c r="D464" s="15"/>
-      <c r="E464" s="15"/>
-      <c r="F464" s="15"/>
+      <c r="C464" s="16"/>
+      <c r="D464" s="16"/>
+      <c r="E464" s="16"/>
+      <c r="F464" s="16"/>
     </row>
     <row r="465">
-      <c r="C465" s="15"/>
-      <c r="D465" s="15"/>
-      <c r="E465" s="15"/>
-      <c r="F465" s="15"/>
+      <c r="C465" s="16"/>
+      <c r="D465" s="16"/>
+      <c r="E465" s="16"/>
+      <c r="F465" s="16"/>
     </row>
     <row r="466">
-      <c r="C466" s="15"/>
-      <c r="D466" s="15"/>
-      <c r="E466" s="15"/>
-      <c r="F466" s="15"/>
+      <c r="C466" s="16"/>
+      <c r="D466" s="16"/>
+      <c r="E466" s="16"/>
+      <c r="F466" s="16"/>
     </row>
     <row r="467">
-      <c r="C467" s="15"/>
-      <c r="D467" s="15"/>
-      <c r="E467" s="15"/>
-      <c r="F467" s="15"/>
+      <c r="C467" s="16"/>
+      <c r="D467" s="16"/>
+      <c r="E467" s="16"/>
+      <c r="F467" s="16"/>
     </row>
     <row r="468">
-      <c r="C468" s="15"/>
-      <c r="D468" s="15"/>
-      <c r="E468" s="15"/>
-      <c r="F468" s="15"/>
+      <c r="C468" s="16"/>
+      <c r="D468" s="16"/>
+      <c r="E468" s="16"/>
+      <c r="F468" s="16"/>
     </row>
     <row r="469">
-      <c r="C469" s="15"/>
-      <c r="D469" s="15"/>
-      <c r="E469" s="15"/>
-      <c r="F469" s="15"/>
+      <c r="C469" s="16"/>
+      <c r="D469" s="16"/>
+      <c r="E469" s="16"/>
+      <c r="F469" s="16"/>
     </row>
     <row r="470">
-      <c r="C470" s="15"/>
-      <c r="D470" s="15"/>
-      <c r="E470" s="15"/>
-      <c r="F470" s="15"/>
+      <c r="C470" s="16"/>
+      <c r="D470" s="16"/>
+      <c r="E470" s="16"/>
+      <c r="F470" s="16"/>
     </row>
     <row r="471">
-      <c r="C471" s="15"/>
-      <c r="D471" s="15"/>
-      <c r="E471" s="15"/>
-      <c r="F471" s="15"/>
+      <c r="C471" s="16"/>
+      <c r="D471" s="16"/>
+      <c r="E471" s="16"/>
+      <c r="F471" s="16"/>
     </row>
     <row r="472">
-      <c r="C472" s="15"/>
-      <c r="D472" s="15"/>
-      <c r="E472" s="15"/>
-      <c r="F472" s="15"/>
+      <c r="C472" s="16"/>
+      <c r="D472" s="16"/>
+      <c r="E472" s="16"/>
+      <c r="F472" s="16"/>
     </row>
     <row r="473">
-      <c r="C473" s="15"/>
-      <c r="D473" s="15"/>
-      <c r="E473" s="15"/>
-      <c r="F473" s="15"/>
+      <c r="C473" s="16"/>
+      <c r="D473" s="16"/>
+      <c r="E473" s="16"/>
+      <c r="F473" s="16"/>
     </row>
     <row r="474">
-      <c r="C474" s="15"/>
-      <c r="D474" s="15"/>
-      <c r="E474" s="15"/>
-      <c r="F474" s="15"/>
+      <c r="C474" s="16"/>
+      <c r="D474" s="16"/>
+      <c r="E474" s="16"/>
+      <c r="F474" s="16"/>
     </row>
     <row r="475">
-      <c r="C475" s="15"/>
-      <c r="D475" s="15"/>
-      <c r="E475" s="15"/>
-      <c r="F475" s="15"/>
+      <c r="C475" s="16"/>
+      <c r="D475" s="16"/>
+      <c r="E475" s="16"/>
+      <c r="F475" s="16"/>
     </row>
     <row r="476">
-      <c r="C476" s="15"/>
-      <c r="D476" s="15"/>
-      <c r="E476" s="15"/>
-      <c r="F476" s="15"/>
+      <c r="C476" s="16"/>
+      <c r="D476" s="16"/>
+      <c r="E476" s="16"/>
+      <c r="F476" s="16"/>
     </row>
     <row r="477">
-      <c r="C477" s="15"/>
-      <c r="D477" s="15"/>
-      <c r="E477" s="15"/>
-      <c r="F477" s="15"/>
+      <c r="C477" s="16"/>
+      <c r="D477" s="16"/>
+      <c r="E477" s="16"/>
+      <c r="F477" s="16"/>
     </row>
     <row r="478">
-      <c r="C478" s="15"/>
-      <c r="D478" s="15"/>
-      <c r="E478" s="15"/>
-      <c r="F478" s="15"/>
+      <c r="C478" s="16"/>
+      <c r="D478" s="16"/>
+      <c r="E478" s="16"/>
+      <c r="F478" s="16"/>
     </row>
     <row r="479">
-      <c r="C479" s="15"/>
-      <c r="D479" s="15"/>
-      <c r="E479" s="15"/>
-      <c r="F479" s="15"/>
+      <c r="C479" s="16"/>
+      <c r="D479" s="16"/>
+      <c r="E479" s="16"/>
+      <c r="F479" s="16"/>
     </row>
     <row r="480">
-      <c r="C480" s="15"/>
-      <c r="D480" s="15"/>
-      <c r="E480" s="15"/>
-      <c r="F480" s="15"/>
+      <c r="C480" s="16"/>
+      <c r="D480" s="16"/>
+      <c r="E480" s="16"/>
+      <c r="F480" s="16"/>
     </row>
     <row r="481">
-      <c r="C481" s="15"/>
-      <c r="D481" s="15"/>
-      <c r="E481" s="15"/>
-      <c r="F481" s="15"/>
+      <c r="C481" s="16"/>
+      <c r="D481" s="16"/>
+      <c r="E481" s="16"/>
+      <c r="F481" s="16"/>
     </row>
     <row r="482">
-      <c r="C482" s="15"/>
-      <c r="D482" s="15"/>
-      <c r="E482" s="15"/>
-      <c r="F482" s="15"/>
+      <c r="C482" s="16"/>
+      <c r="D482" s="16"/>
+      <c r="E482" s="16"/>
+      <c r="F482" s="16"/>
     </row>
     <row r="483">
-      <c r="C483" s="15"/>
-      <c r="D483" s="15"/>
-      <c r="E483" s="15"/>
-      <c r="F483" s="15"/>
+      <c r="C483" s="16"/>
+      <c r="D483" s="16"/>
+      <c r="E483" s="16"/>
+      <c r="F483" s="16"/>
     </row>
     <row r="484">
-      <c r="C484" s="15"/>
-      <c r="D484" s="15"/>
-      <c r="E484" s="15"/>
-      <c r="F484" s="15"/>
+      <c r="C484" s="16"/>
+      <c r="D484" s="16"/>
+      <c r="E484" s="16"/>
+      <c r="F484" s="16"/>
     </row>
     <row r="485">
-      <c r="C485" s="15"/>
-      <c r="D485" s="15"/>
-      <c r="E485" s="15"/>
-      <c r="F485" s="15"/>
+      <c r="C485" s="16"/>
+      <c r="D485" s="16"/>
+      <c r="E485" s="16"/>
+      <c r="F485" s="16"/>
     </row>
     <row r="486">
-      <c r="C486" s="15"/>
-      <c r="D486" s="15"/>
-      <c r="E486" s="15"/>
-      <c r="F486" s="15"/>
+      <c r="C486" s="16"/>
+      <c r="D486" s="16"/>
+      <c r="E486" s="16"/>
+      <c r="F486" s="16"/>
     </row>
     <row r="487">
-      <c r="C487" s="15"/>
-      <c r="D487" s="15"/>
-      <c r="E487" s="15"/>
-      <c r="F487" s="15"/>
+      <c r="C487" s="16"/>
+      <c r="D487" s="16"/>
+      <c r="E487" s="16"/>
+      <c r="F487" s="16"/>
     </row>
     <row r="488">
-      <c r="C488" s="15"/>
-      <c r="D488" s="15"/>
-      <c r="E488" s="15"/>
-      <c r="F488" s="15"/>
+      <c r="C488" s="16"/>
+      <c r="D488" s="16"/>
+      <c r="E488" s="16"/>
+      <c r="F488" s="16"/>
     </row>
     <row r="489">
-      <c r="C489" s="15"/>
-      <c r="D489" s="15"/>
-      <c r="E489" s="15"/>
-      <c r="F489" s="15"/>
+      <c r="C489" s="16"/>
+      <c r="D489" s="16"/>
+      <c r="E489" s="16"/>
+      <c r="F489" s="16"/>
     </row>
     <row r="490">
-      <c r="C490" s="15"/>
-      <c r="D490" s="15"/>
-      <c r="E490" s="15"/>
-      <c r="F490" s="15"/>
+      <c r="C490" s="16"/>
+      <c r="D490" s="16"/>
+      <c r="E490" s="16"/>
+      <c r="F490" s="16"/>
     </row>
     <row r="491">
-      <c r="C491" s="15"/>
-      <c r="D491" s="15"/>
-      <c r="E491" s="15"/>
-      <c r="F491" s="15"/>
+      <c r="C491" s="16"/>
+      <c r="D491" s="16"/>
+      <c r="E491" s="16"/>
+      <c r="F491" s="16"/>
     </row>
     <row r="492">
-      <c r="C492" s="15"/>
-      <c r="D492" s="15"/>
-      <c r="E492" s="15"/>
-      <c r="F492" s="15"/>
+      <c r="C492" s="16"/>
+      <c r="D492" s="16"/>
+      <c r="E492" s="16"/>
+      <c r="F492" s="16"/>
     </row>
     <row r="493">
-      <c r="C493" s="15"/>
-      <c r="D493" s="15"/>
-      <c r="E493" s="15"/>
-      <c r="F493" s="15"/>
+      <c r="C493" s="16"/>
+      <c r="D493" s="16"/>
+      <c r="E493" s="16"/>
+      <c r="F493" s="16"/>
     </row>
     <row r="494">
-      <c r="C494" s="15"/>
-      <c r="D494" s="15"/>
-      <c r="E494" s="15"/>
-      <c r="F494" s="15"/>
+      <c r="C494" s="16"/>
+      <c r="D494" s="16"/>
+      <c r="E494" s="16"/>
+      <c r="F494" s="16"/>
     </row>
     <row r="495">
-      <c r="C495" s="15"/>
-      <c r="D495" s="15"/>
-      <c r="E495" s="15"/>
-      <c r="F495" s="15"/>
+      <c r="C495" s="16"/>
+      <c r="D495" s="16"/>
+      <c r="E495" s="16"/>
+      <c r="F495" s="16"/>
     </row>
     <row r="496">
-      <c r="C496" s="15"/>
-      <c r="D496" s="15"/>
-      <c r="E496" s="15"/>
-      <c r="F496" s="15"/>
+      <c r="C496" s="16"/>
+      <c r="D496" s="16"/>
+      <c r="E496" s="16"/>
+      <c r="F496" s="16"/>
     </row>
     <row r="497">
-      <c r="C497" s="15"/>
-      <c r="D497" s="15"/>
-      <c r="E497" s="15"/>
-      <c r="F497" s="15"/>
+      <c r="C497" s="16"/>
+      <c r="D497" s="16"/>
+      <c r="E497" s="16"/>
+      <c r="F497" s="16"/>
     </row>
     <row r="498">
-      <c r="C498" s="15"/>
-      <c r="D498" s="15"/>
-      <c r="E498" s="15"/>
-      <c r="F498" s="15"/>
+      <c r="C498" s="16"/>
+      <c r="D498" s="16"/>
+      <c r="E498" s="16"/>
+      <c r="F498" s="16"/>
     </row>
     <row r="499">
-      <c r="C499" s="15"/>
-      <c r="D499" s="15"/>
-      <c r="E499" s="15"/>
-      <c r="F499" s="15"/>
+      <c r="C499" s="16"/>
+      <c r="D499" s="16"/>
+      <c r="E499" s="16"/>
+      <c r="F499" s="16"/>
     </row>
     <row r="500">
-      <c r="C500" s="15"/>
-      <c r="D500" s="15"/>
-      <c r="E500" s="15"/>
-      <c r="F500" s="15"/>
+      <c r="C500" s="16"/>
+      <c r="D500" s="16"/>
+      <c r="E500" s="16"/>
+      <c r="F500" s="16"/>
     </row>
     <row r="501">
-      <c r="C501" s="15"/>
-      <c r="D501" s="15"/>
-      <c r="E501" s="15"/>
-      <c r="F501" s="15"/>
+      <c r="C501" s="16"/>
+      <c r="D501" s="16"/>
+      <c r="E501" s="16"/>
+      <c r="F501" s="16"/>
     </row>
     <row r="502">
-      <c r="C502" s="15"/>
-      <c r="D502" s="15"/>
-      <c r="E502" s="15"/>
-      <c r="F502" s="15"/>
+      <c r="C502" s="16"/>
+      <c r="D502" s="16"/>
+      <c r="E502" s="16"/>
+      <c r="F502" s="16"/>
     </row>
     <row r="503">
-      <c r="C503" s="15"/>
-      <c r="D503" s="15"/>
-      <c r="E503" s="15"/>
-      <c r="F503" s="15"/>
+      <c r="C503" s="16"/>
+      <c r="D503" s="16"/>
+      <c r="E503" s="16"/>
+      <c r="F503" s="16"/>
     </row>
     <row r="504">
-      <c r="C504" s="15"/>
-      <c r="D504" s="15"/>
-      <c r="E504" s="15"/>
-      <c r="F504" s="15"/>
+      <c r="C504" s="16"/>
+      <c r="D504" s="16"/>
+      <c r="E504" s="16"/>
+      <c r="F504" s="16"/>
     </row>
     <row r="505">
-      <c r="C505" s="15"/>
-      <c r="D505" s="15"/>
-      <c r="E505" s="15"/>
-      <c r="F505" s="15"/>
+      <c r="C505" s="16"/>
+      <c r="D505" s="16"/>
+      <c r="E505" s="16"/>
+      <c r="F505" s="16"/>
     </row>
     <row r="506">
-      <c r="C506" s="15"/>
-      <c r="D506" s="15"/>
-      <c r="E506" s="15"/>
-      <c r="F506" s="15"/>
+      <c r="C506" s="16"/>
+      <c r="D506" s="16"/>
+      <c r="E506" s="16"/>
+      <c r="F506" s="16"/>
     </row>
     <row r="507">
-      <c r="C507" s="15"/>
-      <c r="D507" s="15"/>
-      <c r="E507" s="15"/>
-      <c r="F507" s="15"/>
+      <c r="C507" s="16"/>
+      <c r="D507" s="16"/>
+      <c r="E507" s="16"/>
+      <c r="F507" s="16"/>
     </row>
     <row r="508">
-      <c r="C508" s="15"/>
-      <c r="D508" s="15"/>
-      <c r="E508" s="15"/>
-      <c r="F508" s="15"/>
+      <c r="C508" s="16"/>
+      <c r="D508" s="16"/>
+      <c r="E508" s="16"/>
+      <c r="F508" s="16"/>
     </row>
     <row r="509">
-      <c r="C509" s="15"/>
-      <c r="D509" s="15"/>
-      <c r="E509" s="15"/>
-      <c r="F509" s="15"/>
+      <c r="C509" s="16"/>
+      <c r="D509" s="16"/>
+      <c r="E509" s="16"/>
+      <c r="F509" s="16"/>
     </row>
     <row r="510">
-      <c r="C510" s="15"/>
-      <c r="D510" s="15"/>
-      <c r="E510" s="15"/>
-      <c r="F510" s="15"/>
+      <c r="C510" s="16"/>
+      <c r="D510" s="16"/>
+      <c r="E510" s="16"/>
+      <c r="F510" s="16"/>
     </row>
     <row r="511">
-      <c r="C511" s="15"/>
-      <c r="D511" s="15"/>
-      <c r="E511" s="15"/>
-      <c r="F511" s="15"/>
+      <c r="C511" s="16"/>
+      <c r="D511" s="16"/>
+      <c r="E511" s="16"/>
+      <c r="F511" s="16"/>
     </row>
     <row r="512">
-      <c r="C512" s="15"/>
-      <c r="D512" s="15"/>
-      <c r="E512" s="15"/>
-      <c r="F512" s="15"/>
+      <c r="C512" s="16"/>
+      <c r="D512" s="16"/>
+      <c r="E512" s="16"/>
+      <c r="F512" s="16"/>
     </row>
     <row r="513">
-      <c r="C513" s="15"/>
-      <c r="D513" s="15"/>
-      <c r="E513" s="15"/>
-      <c r="F513" s="15"/>
+      <c r="C513" s="16"/>
+      <c r="D513" s="16"/>
+      <c r="E513" s="16"/>
+      <c r="F513" s="16"/>
     </row>
     <row r="514">
-      <c r="C514" s="15"/>
-      <c r="D514" s="15"/>
-      <c r="E514" s="15"/>
-      <c r="F514" s="15"/>
+      <c r="C514" s="16"/>
+      <c r="D514" s="16"/>
+      <c r="E514" s="16"/>
+      <c r="F514" s="16"/>
     </row>
     <row r="515">
-      <c r="C515" s="15"/>
-      <c r="D515" s="15"/>
-      <c r="E515" s="15"/>
-      <c r="F515" s="15"/>
+      <c r="C515" s="16"/>
+      <c r="D515" s="16"/>
+      <c r="E515" s="16"/>
+      <c r="F515" s="16"/>
     </row>
     <row r="516">
-      <c r="C516" s="15"/>
-      <c r="D516" s="15"/>
-      <c r="E516" s="15"/>
-      <c r="F516" s="15"/>
+      <c r="C516" s="16"/>
+      <c r="D516" s="16"/>
+      <c r="E516" s="16"/>
+      <c r="F516" s="16"/>
     </row>
     <row r="517">
-      <c r="C517" s="15"/>
-      <c r="D517" s="15"/>
-      <c r="E517" s="15"/>
-      <c r="F517" s="15"/>
+      <c r="C517" s="16"/>
+      <c r="D517" s="16"/>
+      <c r="E517" s="16"/>
+      <c r="F517" s="16"/>
     </row>
     <row r="518">
-      <c r="C518" s="15"/>
-      <c r="D518" s="15"/>
-      <c r="E518" s="15"/>
-      <c r="F518" s="15"/>
+      <c r="C518" s="16"/>
+      <c r="D518" s="16"/>
+      <c r="E518" s="16"/>
+      <c r="F518" s="16"/>
     </row>
     <row r="519">
-      <c r="C519" s="15"/>
-      <c r="D519" s="15"/>
-      <c r="E519" s="15"/>
-      <c r="F519" s="15"/>
+      <c r="C519" s="16"/>
+      <c r="D519" s="16"/>
+      <c r="E519" s="16"/>
+      <c r="F519" s="16"/>
     </row>
     <row r="520">
-      <c r="C520" s="15"/>
-      <c r="D520" s="15"/>
-      <c r="E520" s="15"/>
-      <c r="F520" s="15"/>
+      <c r="C520" s="16"/>
+      <c r="D520" s="16"/>
+      <c r="E520" s="16"/>
+      <c r="F520" s="16"/>
     </row>
     <row r="521">
-      <c r="C521" s="15"/>
-      <c r="D521" s="15"/>
-      <c r="E521" s="15"/>
-      <c r="F521" s="15"/>
+      <c r="C521" s="16"/>
+      <c r="D521" s="16"/>
+      <c r="E521" s="16"/>
+      <c r="F521" s="16"/>
     </row>
     <row r="522">
-      <c r="C522" s="15"/>
-      <c r="D522" s="15"/>
-      <c r="E522" s="15"/>
-      <c r="F522" s="15"/>
+      <c r="C522" s="16"/>
+      <c r="D522" s="16"/>
+      <c r="E522" s="16"/>
+      <c r="F522" s="16"/>
     </row>
     <row r="523">
-      <c r="C523" s="15"/>
-      <c r="D523" s="15"/>
-      <c r="E523" s="15"/>
-      <c r="F523" s="15"/>
+      <c r="C523" s="16"/>
+      <c r="D523" s="16"/>
+      <c r="E523" s="16"/>
+      <c r="F523" s="16"/>
     </row>
     <row r="524">
-      <c r="C524" s="15"/>
-      <c r="D524" s="15"/>
-      <c r="E524" s="15"/>
-      <c r="F524" s="15"/>
+      <c r="C524" s="16"/>
+      <c r="D524" s="16"/>
+      <c r="E524" s="16"/>
+      <c r="F524" s="16"/>
     </row>
     <row r="525">
-      <c r="C525" s="15"/>
-      <c r="D525" s="15"/>
-      <c r="E525" s="15"/>
-      <c r="F525" s="15"/>
+      <c r="C525" s="16"/>
+      <c r="D525" s="16"/>
+      <c r="E525" s="16"/>
+      <c r="F525" s="16"/>
     </row>
     <row r="526">
-      <c r="C526" s="15"/>
-      <c r="D526" s="15"/>
-      <c r="E526" s="15"/>
-      <c r="F526" s="15"/>
+      <c r="C526" s="16"/>
+      <c r="D526" s="16"/>
+      <c r="E526" s="16"/>
+      <c r="F526" s="16"/>
     </row>
     <row r="527">
-      <c r="C527" s="15"/>
-      <c r="D527" s="15"/>
-      <c r="E527" s="15"/>
-      <c r="F527" s="15"/>
+      <c r="C527" s="16"/>
+      <c r="D527" s="16"/>
+      <c r="E527" s="16"/>
+      <c r="F527" s="16"/>
     </row>
     <row r="528">
-      <c r="C528" s="15"/>
-      <c r="D528" s="15"/>
-      <c r="E528" s="15"/>
-      <c r="F528" s="15"/>
+      <c r="C528" s="16"/>
+      <c r="D528" s="16"/>
+      <c r="E528" s="16"/>
+      <c r="F528" s="16"/>
     </row>
     <row r="529">
-      <c r="C529" s="15"/>
-      <c r="D529" s="15"/>
-      <c r="E529" s="15"/>
-      <c r="F529" s="15"/>
+      <c r="C529" s="16"/>
+      <c r="D529" s="16"/>
+      <c r="E529" s="16"/>
+      <c r="F529" s="16"/>
     </row>
     <row r="530">
-      <c r="C530" s="15"/>
-      <c r="D530" s="15"/>
-      <c r="E530" s="15"/>
-      <c r="F530" s="15"/>
+      <c r="C530" s="16"/>
+      <c r="D530" s="16"/>
+      <c r="E530" s="16"/>
+      <c r="F530" s="16"/>
     </row>
     <row r="531">
-      <c r="C531" s="15"/>
-      <c r="D531" s="15"/>
-      <c r="E531" s="15"/>
-      <c r="F531" s="15"/>
+      <c r="C531" s="16"/>
+      <c r="D531" s="16"/>
+      <c r="E531" s="16"/>
+      <c r="F531" s="16"/>
     </row>
     <row r="532">
-      <c r="C532" s="15"/>
-      <c r="D532" s="15"/>
-      <c r="E532" s="15"/>
-      <c r="F532" s="15"/>
+      <c r="C532" s="16"/>
+      <c r="D532" s="16"/>
+      <c r="E532" s="16"/>
+      <c r="F532" s="16"/>
     </row>
     <row r="533">
-      <c r="C533" s="15"/>
-      <c r="D533" s="15"/>
-      <c r="E533" s="15"/>
-      <c r="F533" s="15"/>
+      <c r="C533" s="16"/>
+      <c r="D533" s="16"/>
+      <c r="E533" s="16"/>
+      <c r="F533" s="16"/>
     </row>
     <row r="534">
-      <c r="C534" s="15"/>
-      <c r="D534" s="15"/>
-      <c r="E534" s="15"/>
-      <c r="F534" s="15"/>
+      <c r="C534" s="16"/>
+      <c r="D534" s="16"/>
+      <c r="E534" s="16"/>
+      <c r="F534" s="16"/>
     </row>
     <row r="535">
-      <c r="C535" s="15"/>
-      <c r="D535" s="15"/>
-      <c r="E535" s="15"/>
-      <c r="F535" s="15"/>
+      <c r="C535" s="16"/>
+      <c r="D535" s="16"/>
+      <c r="E535" s="16"/>
+      <c r="F535" s="16"/>
     </row>
     <row r="536">
-      <c r="C536" s="15"/>
-      <c r="D536" s="15"/>
-      <c r="E536" s="15"/>
-      <c r="F536" s="15"/>
+      <c r="C536" s="16"/>
+      <c r="D536" s="16"/>
+      <c r="E536" s="16"/>
+      <c r="F536" s="16"/>
     </row>
     <row r="537">
-      <c r="C537" s="15"/>
-      <c r="D537" s="15"/>
-      <c r="E537" s="15"/>
-      <c r="F537" s="15"/>
+      <c r="C537" s="16"/>
+      <c r="D537" s="16"/>
+      <c r="E537" s="16"/>
+      <c r="F537" s="16"/>
     </row>
     <row r="538">
-      <c r="C538" s="15"/>
-      <c r="D538" s="15"/>
-      <c r="E538" s="15"/>
-      <c r="F538" s="15"/>
+      <c r="C538" s="16"/>
+      <c r="D538" s="16"/>
+      <c r="E538" s="16"/>
+      <c r="F538" s="16"/>
     </row>
     <row r="539">
-      <c r="C539" s="15"/>
-      <c r="D539" s="15"/>
-      <c r="E539" s="15"/>
-      <c r="F539" s="15"/>
+      <c r="C539" s="16"/>
+      <c r="D539" s="16"/>
+      <c r="E539" s="16"/>
+      <c r="F539" s="16"/>
     </row>
     <row r="540">
-      <c r="C540" s="15"/>
-      <c r="D540" s="15"/>
-      <c r="E540" s="15"/>
-      <c r="F540" s="15"/>
+      <c r="C540" s="16"/>
+      <c r="D540" s="16"/>
+      <c r="E540" s="16"/>
+      <c r="F540" s="16"/>
     </row>
     <row r="541">
-      <c r="C541" s="15"/>
-      <c r="D541" s="15"/>
-      <c r="E541" s="15"/>
-      <c r="F541" s="15"/>
+      <c r="C541" s="16"/>
+      <c r="D541" s="16"/>
+      <c r="E541" s="16"/>
+      <c r="F541" s="16"/>
     </row>
     <row r="542">
-      <c r="C542" s="15"/>
-      <c r="D542" s="15"/>
-      <c r="E542" s="15"/>
-      <c r="F542" s="15"/>
+      <c r="C542" s="16"/>
+      <c r="D542" s="16"/>
+      <c r="E542" s="16"/>
+      <c r="F542" s="16"/>
     </row>
     <row r="543">
-      <c r="C543" s="15"/>
-      <c r="D543" s="15"/>
-      <c r="E543" s="15"/>
-      <c r="F543" s="15"/>
+      <c r="C543" s="16"/>
+      <c r="D543" s="16"/>
+      <c r="E543" s="16"/>
+      <c r="F543" s="16"/>
     </row>
     <row r="544">
-      <c r="C544" s="15"/>
-      <c r="D544" s="15"/>
-      <c r="E544" s="15"/>
-      <c r="F544" s="15"/>
+      <c r="C544" s="16"/>
+      <c r="D544" s="16"/>
+      <c r="E544" s="16"/>
+      <c r="F544" s="16"/>
     </row>
     <row r="545">
-      <c r="C545" s="15"/>
-      <c r="D545" s="15"/>
-      <c r="E545" s="15"/>
-      <c r="F545" s="15"/>
+      <c r="C545" s="16"/>
+      <c r="D545" s="16"/>
+      <c r="E545" s="16"/>
+      <c r="F545" s="16"/>
     </row>
     <row r="546">
-      <c r="C546" s="15"/>
-      <c r="D546" s="15"/>
-      <c r="E546" s="15"/>
-      <c r="F546" s="15"/>
+      <c r="C546" s="16"/>
+      <c r="D546" s="16"/>
+      <c r="E546" s="16"/>
+      <c r="F546" s="16"/>
     </row>
     <row r="547">
-      <c r="C547" s="15"/>
-      <c r="D547" s="15"/>
-      <c r="E547" s="15"/>
-      <c r="F547" s="15"/>
+      <c r="C547" s="16"/>
+      <c r="D547" s="16"/>
+      <c r="E547" s="16"/>
+      <c r="F547" s="16"/>
     </row>
     <row r="548">
-      <c r="C548" s="15"/>
-      <c r="D548" s="15"/>
-      <c r="E548" s="15"/>
-      <c r="F548" s="15"/>
+      <c r="C548" s="16"/>
+      <c r="D548" s="16"/>
+      <c r="E548" s="16"/>
+      <c r="F548" s="16"/>
     </row>
     <row r="549">
-      <c r="C549" s="15"/>
-      <c r="D549" s="15"/>
-      <c r="E549" s="15"/>
-      <c r="F549" s="15"/>
+      <c r="C549" s="16"/>
+      <c r="D549" s="16"/>
+      <c r="E549" s="16"/>
+      <c r="F549" s="16"/>
     </row>
     <row r="550">
-      <c r="C550" s="15"/>
-      <c r="D550" s="15"/>
-      <c r="E550" s="15"/>
-      <c r="F550" s="15"/>
+      <c r="C550" s="16"/>
+      <c r="D550" s="16"/>
+      <c r="E550" s="16"/>
+      <c r="F550" s="16"/>
     </row>
     <row r="551">
-      <c r="C551" s="15"/>
-      <c r="D551" s="15"/>
-      <c r="E551" s="15"/>
-      <c r="F551" s="15"/>
+      <c r="C551" s="16"/>
+      <c r="D551" s="16"/>
+      <c r="E551" s="16"/>
+      <c r="F551" s="16"/>
     </row>
     <row r="552">
-      <c r="C552" s="15"/>
-      <c r="D552" s="15"/>
-      <c r="E552" s="15"/>
-      <c r="F552" s="15"/>
+      <c r="C552" s="16"/>
+      <c r="D552" s="16"/>
+      <c r="E552" s="16"/>
+      <c r="F552" s="16"/>
     </row>
     <row r="553">
-      <c r="C553" s="15"/>
-      <c r="D553" s="15"/>
-      <c r="E553" s="15"/>
-      <c r="F553" s="15"/>
+      <c r="C553" s="16"/>
+      <c r="D553" s="16"/>
+      <c r="E553" s="16"/>
+      <c r="F553" s="16"/>
     </row>
     <row r="554">
-      <c r="C554" s="15"/>
-      <c r="D554" s="15"/>
-      <c r="E554" s="15"/>
-      <c r="F554" s="15"/>
+      <c r="C554" s="16"/>
+      <c r="D554" s="16"/>
+      <c r="E554" s="16"/>
+      <c r="F554" s="16"/>
     </row>
     <row r="555">
-      <c r="C555" s="15"/>
-      <c r="D555" s="15"/>
-      <c r="E555" s="15"/>
-      <c r="F555" s="15"/>
+      <c r="C555" s="16"/>
+      <c r="D555" s="16"/>
+      <c r="E555" s="16"/>
+      <c r="F555" s="16"/>
     </row>
     <row r="556">
-      <c r="C556" s="15"/>
-      <c r="D556" s="15"/>
-      <c r="E556" s="15"/>
-      <c r="F556" s="15"/>
+      <c r="C556" s="16"/>
+      <c r="D556" s="16"/>
+      <c r="E556" s="16"/>
+      <c r="F556" s="16"/>
     </row>
     <row r="557">
-      <c r="C557" s="15"/>
-      <c r="D557" s="15"/>
-      <c r="E557" s="15"/>
-      <c r="F557" s="15"/>
+      <c r="C557" s="16"/>
+      <c r="D557" s="16"/>
+      <c r="E557" s="16"/>
+      <c r="F557" s="16"/>
     </row>
     <row r="558">
-      <c r="C558" s="15"/>
-      <c r="D558" s="15"/>
-      <c r="E558" s="15"/>
-      <c r="F558" s="15"/>
+      <c r="C558" s="16"/>
+      <c r="D558" s="16"/>
+      <c r="E558" s="16"/>
+      <c r="F558" s="16"/>
     </row>
     <row r="559">
-      <c r="C559" s="15"/>
-      <c r="D559" s="15"/>
-      <c r="E559" s="15"/>
-      <c r="F559" s="15"/>
+      <c r="C559" s="16"/>
+      <c r="D559" s="16"/>
+      <c r="E559" s="16"/>
+      <c r="F559" s="16"/>
     </row>
     <row r="560">
-      <c r="C560" s="15"/>
-      <c r="D560" s="15"/>
-      <c r="E560" s="15"/>
-      <c r="F560" s="15"/>
+      <c r="C560" s="16"/>
+      <c r="D560" s="16"/>
+      <c r="E560" s="16"/>
+      <c r="F560" s="16"/>
     </row>
     <row r="561">
-      <c r="C561" s="15"/>
-      <c r="D561" s="15"/>
-      <c r="E561" s="15"/>
-      <c r="F561" s="15"/>
+      <c r="C561" s="16"/>
+      <c r="D561" s="16"/>
+      <c r="E561" s="16"/>
+      <c r="F561" s="16"/>
     </row>
     <row r="562">
-      <c r="C562" s="15"/>
-      <c r="D562" s="15"/>
-      <c r="E562" s="15"/>
-      <c r="F562" s="15"/>
+      <c r="C562" s="16"/>
+      <c r="D562" s="16"/>
+      <c r="E562" s="16"/>
+      <c r="F562" s="16"/>
     </row>
     <row r="563">
-      <c r="C563" s="15"/>
-      <c r="D563" s="15"/>
-      <c r="E563" s="15"/>
-      <c r="F563" s="15"/>
+      <c r="C563" s="16"/>
+      <c r="D563" s="16"/>
+      <c r="E563" s="16"/>
+      <c r="F563" s="16"/>
     </row>
     <row r="564">
-      <c r="C564" s="15"/>
-      <c r="D564" s="15"/>
-      <c r="E564" s="15"/>
-      <c r="F564" s="15"/>
+      <c r="C564" s="16"/>
+      <c r="D564" s="16"/>
+      <c r="E564" s="16"/>
+      <c r="F564" s="16"/>
     </row>
     <row r="565">
-      <c r="C565" s="15"/>
-      <c r="D565" s="15"/>
-      <c r="E565" s="15"/>
-      <c r="F565" s="15"/>
+      <c r="C565" s="16"/>
+      <c r="D565" s="16"/>
+      <c r="E565" s="16"/>
+      <c r="F565" s="16"/>
     </row>
     <row r="566">
-      <c r="C566" s="15"/>
-      <c r="D566" s="15"/>
-      <c r="E566" s="15"/>
-      <c r="F566" s="15"/>
+      <c r="C566" s="16"/>
+      <c r="D566" s="16"/>
+      <c r="E566" s="16"/>
+      <c r="F566" s="16"/>
     </row>
     <row r="567">
-      <c r="C567" s="15"/>
-      <c r="D567" s="15"/>
-      <c r="E567" s="15"/>
-      <c r="F567" s="15"/>
+      <c r="C567" s="16"/>
+      <c r="D567" s="16"/>
+      <c r="E567" s="16"/>
+      <c r="F567" s="16"/>
     </row>
     <row r="568">
-      <c r="C568" s="15"/>
-      <c r="D568" s="15"/>
-      <c r="E568" s="15"/>
-      <c r="F568" s="15"/>
+      <c r="C568" s="16"/>
+      <c r="D568" s="16"/>
+      <c r="E568" s="16"/>
+      <c r="F568" s="16"/>
     </row>
     <row r="569">
-      <c r="C569" s="15"/>
-      <c r="D569" s="15"/>
-      <c r="E569" s="15"/>
-      <c r="F569" s="15"/>
+      <c r="C569" s="16"/>
+      <c r="D569" s="16"/>
+      <c r="E569" s="16"/>
+      <c r="F569" s="16"/>
     </row>
     <row r="570">
-      <c r="C570" s="15"/>
-      <c r="D570" s="15"/>
-      <c r="E570" s="15"/>
-      <c r="F570" s="15"/>
+      <c r="C570" s="16"/>
+      <c r="D570" s="16"/>
+      <c r="E570" s="16"/>
+      <c r="F570" s="16"/>
     </row>
     <row r="571">
-      <c r="C571" s="15"/>
-      <c r="D571" s="15"/>
-      <c r="E571" s="15"/>
-      <c r="F571" s="15"/>
+      <c r="C571" s="16"/>
+      <c r="D571" s="16"/>
+      <c r="E571" s="16"/>
+      <c r="F571" s="16"/>
     </row>
     <row r="572">
-      <c r="C572" s="15"/>
-      <c r="D572" s="15"/>
-      <c r="E572" s="15"/>
-      <c r="F572" s="15"/>
+      <c r="C572" s="16"/>
+      <c r="D572" s="16"/>
+      <c r="E572" s="16"/>
+      <c r="F572" s="16"/>
     </row>
     <row r="573">
-      <c r="C573" s="15"/>
-      <c r="D573" s="15"/>
-      <c r="E573" s="15"/>
-      <c r="F573" s="15"/>
+      <c r="C573" s="16"/>
+      <c r="D573" s="16"/>
+      <c r="E573" s="16"/>
+      <c r="F573" s="16"/>
     </row>
     <row r="574">
-      <c r="C574" s="15"/>
-      <c r="D574" s="15"/>
-      <c r="E574" s="15"/>
-      <c r="F574" s="15"/>
+      <c r="C574" s="16"/>
+      <c r="D574" s="16"/>
+      <c r="E574" s="16"/>
+      <c r="F574" s="16"/>
     </row>
     <row r="575">
-      <c r="C575" s="15"/>
-      <c r="D575" s="15"/>
-      <c r="E575" s="15"/>
-      <c r="F575" s="15"/>
+      <c r="C575" s="16"/>
+      <c r="D575" s="16"/>
+      <c r="E575" s="16"/>
+      <c r="F575" s="16"/>
     </row>
     <row r="576">
-      <c r="C576" s="15"/>
-      <c r="D576" s="15"/>
-      <c r="E576" s="15"/>
-      <c r="F576" s="15"/>
+      <c r="C576" s="16"/>
+      <c r="D576" s="16"/>
+      <c r="E576" s="16"/>
+      <c r="F576" s="16"/>
     </row>
     <row r="577">
-      <c r="C577" s="15"/>
-      <c r="D577" s="15"/>
-      <c r="E577" s="15"/>
-      <c r="F577" s="15"/>
+      <c r="C577" s="16"/>
+      <c r="D577" s="16"/>
+      <c r="E577" s="16"/>
+      <c r="F577" s="16"/>
     </row>
     <row r="578">
-      <c r="C578" s="15"/>
-      <c r="D578" s="15"/>
-      <c r="E578" s="15"/>
-      <c r="F578" s="15"/>
+      <c r="C578" s="16"/>
+      <c r="D578" s="16"/>
+      <c r="E578" s="16"/>
+      <c r="F578" s="16"/>
     </row>
     <row r="579">
-      <c r="C579" s="15"/>
-      <c r="D579" s="15"/>
-      <c r="E579" s="15"/>
-      <c r="F579" s="15"/>
+      <c r="C579" s="16"/>
+      <c r="D579" s="16"/>
+      <c r="E579" s="16"/>
+      <c r="F579" s="16"/>
     </row>
     <row r="580">
-      <c r="C580" s="15"/>
-      <c r="D580" s="15"/>
-      <c r="E580" s="15"/>
-      <c r="F580" s="15"/>
+      <c r="C580" s="16"/>
+      <c r="D580" s="16"/>
+      <c r="E580" s="16"/>
+      <c r="F580" s="16"/>
     </row>
     <row r="581">
-      <c r="C581" s="15"/>
-      <c r="D581" s="15"/>
-      <c r="E581" s="15"/>
-      <c r="F581" s="15"/>
+      <c r="C581" s="16"/>
+      <c r="D581" s="16"/>
+      <c r="E581" s="16"/>
+      <c r="F581" s="16"/>
     </row>
     <row r="582">
-      <c r="C582" s="15"/>
-      <c r="D582" s="15"/>
-      <c r="E582" s="15"/>
-      <c r="F582" s="15"/>
+      <c r="C582" s="16"/>
+      <c r="D582" s="16"/>
+      <c r="E582" s="16"/>
+      <c r="F582" s="16"/>
     </row>
     <row r="583">
-      <c r="C583" s="15"/>
-      <c r="D583" s="15"/>
-      <c r="E583" s="15"/>
-      <c r="F583" s="15"/>
+      <c r="C583" s="16"/>
+      <c r="D583" s="16"/>
+      <c r="E583" s="16"/>
+      <c r="F583" s="16"/>
     </row>
     <row r="584">
-      <c r="C584" s="15"/>
-      <c r="D584" s="15"/>
-      <c r="E584" s="15"/>
-      <c r="F584" s="15"/>
+      <c r="C584" s="16"/>
+      <c r="D584" s="16"/>
+      <c r="E584" s="16"/>
+      <c r="F584" s="16"/>
     </row>
     <row r="585">
-      <c r="C585" s="15"/>
-      <c r="D585" s="15"/>
-      <c r="E585" s="15"/>
-      <c r="F585" s="15"/>
+      <c r="C585" s="16"/>
+      <c r="D585" s="16"/>
+      <c r="E585" s="16"/>
+      <c r="F585" s="16"/>
     </row>
     <row r="586">
-      <c r="C586" s="15"/>
-      <c r="D586" s="15"/>
-      <c r="E586" s="15"/>
-      <c r="F586" s="15"/>
+      <c r="C586" s="16"/>
+      <c r="D586" s="16"/>
+      <c r="E586" s="16"/>
+      <c r="F586" s="16"/>
     </row>
     <row r="587">
-      <c r="C587" s="15"/>
-      <c r="D587" s="15"/>
-      <c r="E587" s="15"/>
-      <c r="F587" s="15"/>
+      <c r="C587" s="16"/>
+      <c r="D587" s="16"/>
+      <c r="E587" s="16"/>
+      <c r="F587" s="16"/>
     </row>
     <row r="588">
-      <c r="C588" s="15"/>
-      <c r="D588" s="15"/>
-      <c r="E588" s="15"/>
-      <c r="F588" s="15"/>
+      <c r="C588" s="16"/>
+      <c r="D588" s="16"/>
+      <c r="E588" s="16"/>
+      <c r="F588" s="16"/>
     </row>
     <row r="589">
-      <c r="C589" s="15"/>
-      <c r="D589" s="15"/>
-      <c r="E589" s="15"/>
-      <c r="F589" s="15"/>
+      <c r="C589" s="16"/>
+      <c r="D589" s="16"/>
+      <c r="E589" s="16"/>
+      <c r="F589" s="16"/>
     </row>
     <row r="590">
-      <c r="C590" s="15"/>
-      <c r="D590" s="15"/>
-      <c r="E590" s="15"/>
-      <c r="F590" s="15"/>
+      <c r="C590" s="16"/>
+      <c r="D590" s="16"/>
+      <c r="E590" s="16"/>
+      <c r="F590" s="16"/>
     </row>
     <row r="591">
-      <c r="C591" s="15"/>
-      <c r="D591" s="15"/>
-      <c r="E591" s="15"/>
-      <c r="F591" s="15"/>
+      <c r="C591" s="16"/>
+      <c r="D591" s="16"/>
+      <c r="E591" s="16"/>
+      <c r="F591" s="16"/>
     </row>
     <row r="592">
-      <c r="C592" s="15"/>
-      <c r="D592" s="15"/>
-      <c r="E592" s="15"/>
-      <c r="F592" s="15"/>
+      <c r="C592" s="16"/>
+      <c r="D592" s="16"/>
+      <c r="E592" s="16"/>
+      <c r="F592" s="16"/>
     </row>
     <row r="593">
-      <c r="C593" s="15"/>
-      <c r="D593" s="15"/>
-      <c r="E593" s="15"/>
-      <c r="F593" s="15"/>
+      <c r="C593" s="16"/>
+      <c r="D593" s="16"/>
+      <c r="E593" s="16"/>
+      <c r="F593" s="16"/>
     </row>
     <row r="594">
-      <c r="C594" s="15"/>
-      <c r="D594" s="15"/>
-      <c r="E594" s="15"/>
-      <c r="F594" s="15"/>
+      <c r="C594" s="16"/>
+      <c r="D594" s="16"/>
+      <c r="E594" s="16"/>
+      <c r="F594" s="16"/>
     </row>
     <row r="595">
-      <c r="C595" s="15"/>
-      <c r="D595" s="15"/>
-      <c r="E595" s="15"/>
-      <c r="F595" s="15"/>
+      <c r="C595" s="16"/>
+      <c r="D595" s="16"/>
+      <c r="E595" s="16"/>
+      <c r="F595" s="16"/>
     </row>
     <row r="596">
-      <c r="C596" s="15"/>
-      <c r="D596" s="15"/>
-      <c r="E596" s="15"/>
-      <c r="F596" s="15"/>
+      <c r="C596" s="16"/>
+      <c r="D596" s="16"/>
+      <c r="E596" s="16"/>
+      <c r="F596" s="16"/>
     </row>
     <row r="597">
-      <c r="C597" s="15"/>
-      <c r="D597" s="15"/>
-      <c r="E597" s="15"/>
-      <c r="F597" s="15"/>
+      <c r="C597" s="16"/>
+      <c r="D597" s="16"/>
+      <c r="E597" s="16"/>
+      <c r="F597" s="16"/>
     </row>
     <row r="598">
-      <c r="C598" s="15"/>
-      <c r="D598" s="15"/>
-      <c r="E598" s="15"/>
-      <c r="F598" s="15"/>
+      <c r="C598" s="16"/>
+      <c r="D598" s="16"/>
+      <c r="E598" s="16"/>
+      <c r="F598" s="16"/>
     </row>
     <row r="599">
-      <c r="C599" s="15"/>
-      <c r="D599" s="15"/>
-      <c r="E599" s="15"/>
-      <c r="F599" s="15"/>
+      <c r="C599" s="16"/>
+      <c r="D599" s="16"/>
+      <c r="E599" s="16"/>
+      <c r="F599" s="16"/>
     </row>
     <row r="600">
-      <c r="C600" s="15"/>
-      <c r="D600" s="15"/>
-      <c r="E600" s="15"/>
-      <c r="F600" s="15"/>
+      <c r="C600" s="16"/>
+      <c r="D600" s="16"/>
+      <c r="E600" s="16"/>
+      <c r="F600" s="16"/>
     </row>
     <row r="601">
-      <c r="C601" s="15"/>
-      <c r="D601" s="15"/>
-      <c r="E601" s="15"/>
-      <c r="F601" s="15"/>
+      <c r="C601" s="16"/>
+      <c r="D601" s="16"/>
+      <c r="E601" s="16"/>
+      <c r="F601" s="16"/>
     </row>
     <row r="602">
-      <c r="C602" s="15"/>
-      <c r="D602" s="15"/>
-      <c r="E602" s="15"/>
-      <c r="F602" s="15"/>
+      <c r="C602" s="16"/>
+      <c r="D602" s="16"/>
+      <c r="E602" s="16"/>
+      <c r="F602" s="16"/>
     </row>
     <row r="603">
-      <c r="C603" s="15"/>
-      <c r="D603" s="15"/>
-      <c r="E603" s="15"/>
-      <c r="F603" s="15"/>
+      <c r="C603" s="16"/>
+      <c r="D603" s="16"/>
+      <c r="E603" s="16"/>
+      <c r="F603" s="16"/>
     </row>
     <row r="604">
-      <c r="C604" s="15"/>
-      <c r="D604" s="15"/>
-      <c r="E604" s="15"/>
-      <c r="F604" s="15"/>
+      <c r="C604" s="16"/>
+      <c r="D604" s="16"/>
+      <c r="E604" s="16"/>
+      <c r="F604" s="16"/>
     </row>
     <row r="605">
-      <c r="C605" s="15"/>
-      <c r="D605" s="15"/>
-      <c r="E605" s="15"/>
-      <c r="F605" s="15"/>
+      <c r="C605" s="16"/>
+      <c r="D605" s="16"/>
+      <c r="E605" s="16"/>
+      <c r="F605" s="16"/>
     </row>
     <row r="606">
-      <c r="C606" s="15"/>
-      <c r="D606" s="15"/>
-      <c r="E606" s="15"/>
-      <c r="F606" s="15"/>
+      <c r="C606" s="16"/>
+      <c r="D606" s="16"/>
+      <c r="E606" s="16"/>
+      <c r="F606" s="16"/>
     </row>
     <row r="607">
-      <c r="C607" s="15"/>
-      <c r="D607" s="15"/>
-      <c r="E607" s="15"/>
-      <c r="F607" s="15"/>
+      <c r="C607" s="16"/>
+      <c r="D607" s="16"/>
+      <c r="E607" s="16"/>
+      <c r="F607" s="16"/>
     </row>
     <row r="608">
-      <c r="C608" s="15"/>
-      <c r="D608" s="15"/>
-      <c r="E608" s="15"/>
-      <c r="F608" s="15"/>
+      <c r="C608" s="16"/>
+      <c r="D608" s="16"/>
+      <c r="E608" s="16"/>
+      <c r="F608" s="16"/>
     </row>
     <row r="609">
-      <c r="C609" s="15"/>
-      <c r="D609" s="15"/>
-      <c r="E609" s="15"/>
-      <c r="F609" s="15"/>
+      <c r="C609" s="16"/>
+      <c r="D609" s="16"/>
+      <c r="E609" s="16"/>
+      <c r="F609" s="16"/>
     </row>
     <row r="610">
-      <c r="C610" s="15"/>
-      <c r="D610" s="15"/>
-      <c r="E610" s="15"/>
-      <c r="F610" s="15"/>
+      <c r="C610" s="16"/>
+      <c r="D610" s="16"/>
+      <c r="E610" s="16"/>
+      <c r="F610" s="16"/>
     </row>
     <row r="611">
-      <c r="C611" s="15"/>
-      <c r="D611" s="15"/>
-      <c r="E611" s="15"/>
-      <c r="F611" s="15"/>
+      <c r="C611" s="16"/>
+      <c r="D611" s="16"/>
+      <c r="E611" s="16"/>
+      <c r="F611" s="16"/>
     </row>
     <row r="612">
-      <c r="C612" s="15"/>
-      <c r="D612" s="15"/>
-      <c r="E612" s="15"/>
-      <c r="F612" s="15"/>
+      <c r="C612" s="16"/>
+      <c r="D612" s="16"/>
+      <c r="E612" s="16"/>
+      <c r="F612" s="16"/>
     </row>
     <row r="613">
-      <c r="C613" s="15"/>
-      <c r="D613" s="15"/>
-      <c r="E613" s="15"/>
-      <c r="F613" s="15"/>
+      <c r="C613" s="16"/>
+      <c r="D613" s="16"/>
+      <c r="E613" s="16"/>
+      <c r="F613" s="16"/>
     </row>
     <row r="614">
-      <c r="C614" s="15"/>
-      <c r="D614" s="15"/>
-      <c r="E614" s="15"/>
-      <c r="F614" s="15"/>
+      <c r="C614" s="16"/>
+      <c r="D614" s="16"/>
+      <c r="E614" s="16"/>
+      <c r="F614" s="16"/>
     </row>
     <row r="615">
-      <c r="C615" s="15"/>
-      <c r="D615" s="15"/>
-      <c r="E615" s="15"/>
-      <c r="F615" s="15"/>
+      <c r="C615" s="16"/>
+      <c r="D615" s="16"/>
+      <c r="E615" s="16"/>
+      <c r="F615" s="16"/>
     </row>
     <row r="616">
-      <c r="C616" s="15"/>
-      <c r="D616" s="15"/>
-      <c r="E616" s="15"/>
-      <c r="F616" s="15"/>
+      <c r="C616" s="16"/>
+      <c r="D616" s="16"/>
+      <c r="E616" s="16"/>
+      <c r="F616" s="16"/>
     </row>
     <row r="617">
-      <c r="C617" s="15"/>
-      <c r="D617" s="15"/>
-      <c r="E617" s="15"/>
-      <c r="F617" s="15"/>
+      <c r="C617" s="16"/>
+      <c r="D617" s="16"/>
+      <c r="E617" s="16"/>
+      <c r="F617" s="16"/>
     </row>
     <row r="618">
-      <c r="C618" s="15"/>
-      <c r="D618" s="15"/>
-      <c r="E618" s="15"/>
-      <c r="F618" s="15"/>
+      <c r="C618" s="16"/>
+      <c r="D618" s="16"/>
+      <c r="E618" s="16"/>
+      <c r="F618" s="16"/>
     </row>
     <row r="619">
-      <c r="C619" s="15"/>
-      <c r="D619" s="15"/>
-      <c r="E619" s="15"/>
-      <c r="F619" s="15"/>
+      <c r="C619" s="16"/>
+      <c r="D619" s="16"/>
+      <c r="E619" s="16"/>
+      <c r="F619" s="16"/>
     </row>
     <row r="620">
-      <c r="C620" s="15"/>
-      <c r="D620" s="15"/>
-      <c r="E620" s="15"/>
-      <c r="F620" s="15"/>
+      <c r="C620" s="16"/>
+      <c r="D620" s="16"/>
+      <c r="E620" s="16"/>
+      <c r="F620" s="16"/>
     </row>
     <row r="621">
-      <c r="C621" s="15"/>
-      <c r="D621" s="15"/>
-      <c r="E621" s="15"/>
-      <c r="F621" s="15"/>
+      <c r="C621" s="16"/>
+      <c r="D621" s="16"/>
+      <c r="E621" s="16"/>
+      <c r="F621" s="16"/>
     </row>
     <row r="622">
-      <c r="C622" s="15"/>
-      <c r="D622" s="15"/>
-      <c r="E622" s="15"/>
-      <c r="F622" s="15"/>
+      <c r="C622" s="16"/>
+      <c r="D622" s="16"/>
+      <c r="E622" s="16"/>
+      <c r="F622" s="16"/>
     </row>
     <row r="623">
-      <c r="C623" s="15"/>
-      <c r="D623" s="15"/>
-      <c r="E623" s="15"/>
-      <c r="F623" s="15"/>
+      <c r="C623" s="16"/>
+      <c r="D623" s="16"/>
+      <c r="E623" s="16"/>
+      <c r="F623" s="16"/>
     </row>
     <row r="624">
-      <c r="C624" s="15"/>
-      <c r="D624" s="15"/>
-      <c r="E624" s="15"/>
-      <c r="F624" s="15"/>
+      <c r="C624" s="16"/>
+      <c r="D624" s="16"/>
+      <c r="E624" s="16"/>
+      <c r="F624" s="16"/>
     </row>
     <row r="625">
-      <c r="C625" s="15"/>
-      <c r="D625" s="15"/>
-      <c r="E625" s="15"/>
-      <c r="F625" s="15"/>
+      <c r="C625" s="16"/>
+      <c r="D625" s="16"/>
+      <c r="E625" s="16"/>
+      <c r="F625" s="16"/>
     </row>
     <row r="626">
-      <c r="C626" s="15"/>
-      <c r="D626" s="15"/>
-      <c r="E626" s="15"/>
-      <c r="F626" s="15"/>
+      <c r="C626" s="16"/>
+      <c r="D626" s="16"/>
+      <c r="E626" s="16"/>
+      <c r="F626" s="16"/>
     </row>
     <row r="627">
-      <c r="C627" s="15"/>
-      <c r="D627" s="15"/>
-      <c r="E627" s="15"/>
-      <c r="F627" s="15"/>
+      <c r="C627" s="16"/>
+      <c r="D627" s="16"/>
+      <c r="E627" s="16"/>
+      <c r="F627" s="16"/>
     </row>
     <row r="628">
-      <c r="C628" s="15"/>
-      <c r="D628" s="15"/>
-      <c r="E628" s="15"/>
-      <c r="F628" s="15"/>
+      <c r="C628" s="16"/>
+      <c r="D628" s="16"/>
+      <c r="E628" s="16"/>
+      <c r="F628" s="16"/>
     </row>
     <row r="629">
-      <c r="C629" s="15"/>
-      <c r="D629" s="15"/>
-      <c r="E629" s="15"/>
-      <c r="F629" s="15"/>
+      <c r="C629" s="16"/>
+      <c r="D629" s="16"/>
+      <c r="E629" s="16"/>
+      <c r="F629" s="16"/>
     </row>
     <row r="630">
-      <c r="C630" s="15"/>
-      <c r="D630" s="15"/>
-      <c r="E630" s="15"/>
-      <c r="F630" s="15"/>
+      <c r="C630" s="16"/>
+      <c r="D630" s="16"/>
+      <c r="E630" s="16"/>
+      <c r="F630" s="16"/>
     </row>
     <row r="631">
-      <c r="C631" s="15"/>
-      <c r="D631" s="15"/>
-      <c r="E631" s="15"/>
-      <c r="F631" s="15"/>
+      <c r="C631" s="16"/>
+      <c r="D631" s="16"/>
+      <c r="E631" s="16"/>
+      <c r="F631" s="16"/>
     </row>
     <row r="632">
-      <c r="C632" s="15"/>
-      <c r="D632" s="15"/>
-      <c r="E632" s="15"/>
-      <c r="F632" s="15"/>
+      <c r="C632" s="16"/>
+      <c r="D632" s="16"/>
+      <c r="E632" s="16"/>
+      <c r="F632" s="16"/>
     </row>
     <row r="633">
-      <c r="C633" s="15"/>
-      <c r="D633" s="15"/>
-      <c r="E633" s="15"/>
-      <c r="F633" s="15"/>
+      <c r="C633" s="16"/>
+      <c r="D633" s="16"/>
+      <c r="E633" s="16"/>
+      <c r="F633" s="16"/>
     </row>
     <row r="634">
-      <c r="C634" s="15"/>
-      <c r="D634" s="15"/>
-      <c r="E634" s="15"/>
-      <c r="F634" s="15"/>
+      <c r="C634" s="16"/>
+      <c r="D634" s="16"/>
+      <c r="E634" s="16"/>
+      <c r="F634" s="16"/>
     </row>
     <row r="635">
-      <c r="C635" s="15"/>
-      <c r="D635" s="15"/>
-      <c r="E635" s="15"/>
-      <c r="F635" s="15"/>
+      <c r="C635" s="16"/>
+      <c r="D635" s="16"/>
+      <c r="E635" s="16"/>
+      <c r="F635" s="16"/>
     </row>
     <row r="636">
-      <c r="C636" s="15"/>
-      <c r="D636" s="15"/>
-      <c r="E636" s="15"/>
-      <c r="F636" s="15"/>
+      <c r="C636" s="16"/>
+      <c r="D636" s="16"/>
+      <c r="E636" s="16"/>
+      <c r="F636" s="16"/>
     </row>
     <row r="637">
-      <c r="C637" s="15"/>
-      <c r="D637" s="15"/>
-      <c r="E637" s="15"/>
-      <c r="F637" s="15"/>
+      <c r="C637" s="16"/>
+      <c r="D637" s="16"/>
+      <c r="E637" s="16"/>
+      <c r="F637" s="16"/>
     </row>
     <row r="638">
-      <c r="C638" s="15"/>
-      <c r="D638" s="15"/>
-      <c r="E638" s="15"/>
-      <c r="F638" s="15"/>
+      <c r="C638" s="16"/>
+      <c r="D638" s="16"/>
+      <c r="E638" s="16"/>
+      <c r="F638" s="16"/>
     </row>
     <row r="639">
-      <c r="C639" s="15"/>
-      <c r="D639" s="15"/>
-      <c r="E639" s="15"/>
-      <c r="F639" s="15"/>
+      <c r="C639" s="16"/>
+      <c r="D639" s="16"/>
+      <c r="E639" s="16"/>
+      <c r="F639" s="16"/>
     </row>
     <row r="640">
-      <c r="C640" s="15"/>
-      <c r="D640" s="15"/>
-      <c r="E640" s="15"/>
-      <c r="F640" s="15"/>
+      <c r="C640" s="16"/>
+      <c r="D640" s="16"/>
+      <c r="E640" s="16"/>
+      <c r="F640" s="16"/>
     </row>
     <row r="641">
-      <c r="C641" s="15"/>
-      <c r="D641" s="15"/>
-      <c r="E641" s="15"/>
-      <c r="F641" s="15"/>
+      <c r="C641" s="16"/>
+      <c r="D641" s="16"/>
+      <c r="E641" s="16"/>
+      <c r="F641" s="16"/>
     </row>
     <row r="642">
-      <c r="C642" s="15"/>
-      <c r="D642" s="15"/>
-      <c r="E642" s="15"/>
-      <c r="F642" s="15"/>
+      <c r="C642" s="16"/>
+      <c r="D642" s="16"/>
+      <c r="E642" s="16"/>
+      <c r="F642" s="16"/>
     </row>
     <row r="643">
-      <c r="C643" s="15"/>
-      <c r="D643" s="15"/>
-      <c r="E643" s="15"/>
-      <c r="F643" s="15"/>
+      <c r="C643" s="16"/>
+      <c r="D643" s="16"/>
+      <c r="E643" s="16"/>
+      <c r="F643" s="16"/>
     </row>
     <row r="644">
-      <c r="C644" s="15"/>
-      <c r="D644" s="15"/>
-      <c r="E644" s="15"/>
-      <c r="F644" s="15"/>
+      <c r="C644" s="16"/>
+      <c r="D644" s="16"/>
+      <c r="E644" s="16"/>
+      <c r="F644" s="16"/>
     </row>
     <row r="645">
-      <c r="C645" s="15"/>
-      <c r="D645" s="15"/>
-      <c r="E645" s="15"/>
-      <c r="F645" s="15"/>
+      <c r="C645" s="16"/>
+      <c r="D645" s="16"/>
+      <c r="E645" s="16"/>
+      <c r="F645" s="16"/>
     </row>
     <row r="646">
-      <c r="C646" s="15"/>
-      <c r="D646" s="15"/>
-      <c r="E646" s="15"/>
-      <c r="F646" s="15"/>
+      <c r="C646" s="16"/>
+      <c r="D646" s="16"/>
+      <c r="E646" s="16"/>
+      <c r="F646" s="16"/>
     </row>
     <row r="647">
-      <c r="C647" s="15"/>
-      <c r="D647" s="15"/>
-      <c r="E647" s="15"/>
-      <c r="F647" s="15"/>
+      <c r="C647" s="16"/>
+      <c r="D647" s="16"/>
+      <c r="E647" s="16"/>
+      <c r="F647" s="16"/>
     </row>
     <row r="648">
-      <c r="C648" s="15"/>
-      <c r="D648" s="15"/>
-      <c r="E648" s="15"/>
-      <c r="F648" s="15"/>
+      <c r="C648" s="16"/>
+      <c r="D648" s="16"/>
+      <c r="E648" s="16"/>
+      <c r="F648" s="16"/>
     </row>
     <row r="649">
-      <c r="C649" s="15"/>
-      <c r="D649" s="15"/>
-      <c r="E649" s="15"/>
-      <c r="F649" s="15"/>
+      <c r="C649" s="16"/>
+      <c r="D649" s="16"/>
+      <c r="E649" s="16"/>
+      <c r="F649" s="16"/>
     </row>
     <row r="650">
-      <c r="C650" s="15"/>
-      <c r="D650" s="15"/>
-      <c r="E650" s="15"/>
-      <c r="F650" s="15"/>
+      <c r="C650" s="16"/>
+      <c r="D650" s="16"/>
+      <c r="E650" s="16"/>
+      <c r="F650" s="16"/>
     </row>
     <row r="651">
-      <c r="C651" s="15"/>
-      <c r="D651" s="15"/>
-      <c r="E651" s="15"/>
-      <c r="F651" s="15"/>
+      <c r="C651" s="16"/>
+      <c r="D651" s="16"/>
+      <c r="E651" s="16"/>
+      <c r="F651" s="16"/>
     </row>
     <row r="652">
-      <c r="C652" s="15"/>
-      <c r="D652" s="15"/>
-      <c r="E652" s="15"/>
-      <c r="F652" s="15"/>
+      <c r="C652" s="16"/>
+      <c r="D652" s="16"/>
+      <c r="E652" s="16"/>
+      <c r="F652" s="16"/>
     </row>
     <row r="653">
-      <c r="C653" s="15"/>
-      <c r="D653" s="15"/>
-      <c r="E653" s="15"/>
-      <c r="F653" s="15"/>
+      <c r="C653" s="16"/>
+      <c r="D653" s="16"/>
+      <c r="E653" s="16"/>
+      <c r="F653" s="16"/>
     </row>
     <row r="654">
-      <c r="C654" s="15"/>
-      <c r="D654" s="15"/>
-      <c r="E654" s="15"/>
-      <c r="F654" s="15"/>
+      <c r="C654" s="16"/>
+      <c r="D654" s="16"/>
+      <c r="E654" s="16"/>
+      <c r="F654" s="16"/>
     </row>
     <row r="655">
-      <c r="C655" s="15"/>
-      <c r="D655" s="15"/>
-      <c r="E655" s="15"/>
-      <c r="F655" s="15"/>
+      <c r="C655" s="16"/>
+      <c r="D655" s="16"/>
+      <c r="E655" s="16"/>
+      <c r="F655" s="16"/>
     </row>
     <row r="656">
-      <c r="C656" s="15"/>
-      <c r="D656" s="15"/>
-      <c r="E656" s="15"/>
-      <c r="F656" s="15"/>
+      <c r="C656" s="16"/>
+      <c r="D656" s="16"/>
+      <c r="E656" s="16"/>
+      <c r="F656" s="16"/>
     </row>
     <row r="657">
-      <c r="C657" s="15"/>
-      <c r="D657" s="15"/>
-      <c r="E657" s="15"/>
-      <c r="F657" s="15"/>
+      <c r="C657" s="16"/>
+      <c r="D657" s="16"/>
+      <c r="E657" s="16"/>
+      <c r="F657" s="16"/>
     </row>
     <row r="658">
-      <c r="C658" s="15"/>
-      <c r="D658" s="15"/>
-      <c r="E658" s="15"/>
-      <c r="F658" s="15"/>
+      <c r="C658" s="16"/>
+      <c r="D658" s="16"/>
+      <c r="E658" s="16"/>
+      <c r="F658" s="16"/>
     </row>
     <row r="659">
-      <c r="C659" s="15"/>
-      <c r="D659" s="15"/>
-      <c r="E659" s="15"/>
-      <c r="F659" s="15"/>
+      <c r="C659" s="16"/>
+      <c r="D659" s="16"/>
+      <c r="E659" s="16"/>
+      <c r="F659" s="16"/>
     </row>
     <row r="660">
-      <c r="C660" s="15"/>
-      <c r="D660" s="15"/>
-      <c r="E660" s="15"/>
-      <c r="F660" s="15"/>
+      <c r="C660" s="16"/>
+      <c r="D660" s="16"/>
+      <c r="E660" s="16"/>
+      <c r="F660" s="16"/>
     </row>
     <row r="661">
-      <c r="C661" s="15"/>
-      <c r="D661" s="15"/>
-      <c r="E661" s="15"/>
-      <c r="F661" s="15"/>
+      <c r="C661" s="16"/>
+      <c r="D661" s="16"/>
+      <c r="E661" s="16"/>
+      <c r="F661" s="16"/>
     </row>
     <row r="662">
-      <c r="C662" s="15"/>
-      <c r="D662" s="15"/>
-      <c r="E662" s="15"/>
-      <c r="F662" s="15"/>
+      <c r="C662" s="16"/>
+      <c r="D662" s="16"/>
+      <c r="E662" s="16"/>
+      <c r="F662" s="16"/>
     </row>
     <row r="663">
-      <c r="C663" s="15"/>
-      <c r="D663" s="15"/>
-      <c r="E663" s="15"/>
-      <c r="F663" s="15"/>
+      <c r="C663" s="16"/>
+      <c r="D663" s="16"/>
+      <c r="E663" s="16"/>
+      <c r="F663" s="16"/>
     </row>
     <row r="664">
-      <c r="C664" s="15"/>
-      <c r="D664" s="15"/>
-      <c r="E664" s="15"/>
-      <c r="F664" s="15"/>
+      <c r="C664" s="16"/>
+      <c r="D664" s="16"/>
+      <c r="E664" s="16"/>
+      <c r="F664" s="16"/>
     </row>
     <row r="665">
-      <c r="C665" s="15"/>
-      <c r="D665" s="15"/>
-      <c r="E665" s="15"/>
-      <c r="F665" s="15"/>
+      <c r="C665" s="16"/>
+      <c r="D665" s="16"/>
+      <c r="E665" s="16"/>
+      <c r="F665" s="16"/>
     </row>
     <row r="666">
-      <c r="C666" s="15"/>
-      <c r="D666" s="15"/>
-      <c r="E666" s="15"/>
-      <c r="F666" s="15"/>
+      <c r="C666" s="16"/>
+      <c r="D666" s="16"/>
+      <c r="E666" s="16"/>
+      <c r="F666" s="16"/>
     </row>
     <row r="667">
-      <c r="C667" s="15"/>
-      <c r="D667" s="15"/>
-      <c r="E667" s="15"/>
-      <c r="F667" s="15"/>
+      <c r="C667" s="16"/>
+      <c r="D667" s="16"/>
+      <c r="E667" s="16"/>
+      <c r="F667" s="16"/>
     </row>
     <row r="668">
-      <c r="C668" s="15"/>
-      <c r="D668" s="15"/>
-      <c r="E668" s="15"/>
-      <c r="F668" s="15"/>
+      <c r="C668" s="16"/>
+      <c r="D668" s="16"/>
+      <c r="E668" s="16"/>
+      <c r="F668" s="16"/>
     </row>
     <row r="669">
-      <c r="C669" s="15"/>
-      <c r="D669" s="15"/>
-      <c r="E669" s="15"/>
-      <c r="F669" s="15"/>
+      <c r="C669" s="16"/>
+      <c r="D669" s="16"/>
+      <c r="E669" s="16"/>
+      <c r="F669" s="16"/>
     </row>
     <row r="670">
-      <c r="C670" s="15"/>
-      <c r="D670" s="15"/>
-      <c r="E670" s="15"/>
-      <c r="F670" s="15"/>
+      <c r="C670" s="16"/>
+      <c r="D670" s="16"/>
+      <c r="E670" s="16"/>
+      <c r="F670" s="16"/>
     </row>
     <row r="671">
-      <c r="C671" s="15"/>
-      <c r="D671" s="15"/>
-      <c r="E671" s="15"/>
-      <c r="F671" s="15"/>
+      <c r="C671" s="16"/>
+      <c r="D671" s="16"/>
+      <c r="E671" s="16"/>
+      <c r="F671" s="16"/>
     </row>
     <row r="672">
-      <c r="C672" s="15"/>
-      <c r="D672" s="15"/>
-      <c r="E672" s="15"/>
-      <c r="F672" s="15"/>
+      <c r="C672" s="16"/>
+      <c r="D672" s="16"/>
+      <c r="E672" s="16"/>
+      <c r="F672" s="16"/>
     </row>
     <row r="673">
-      <c r="C673" s="15"/>
-      <c r="D673" s="15"/>
-      <c r="E673" s="15"/>
-      <c r="F673" s="15"/>
+      <c r="C673" s="16"/>
+      <c r="D673" s="16"/>
+      <c r="E673" s="16"/>
+      <c r="F673" s="16"/>
     </row>
     <row r="674">
-      <c r="C674" s="15"/>
-      <c r="D674" s="15"/>
-      <c r="E674" s="15"/>
-      <c r="F674" s="15"/>
+      <c r="C674" s="16"/>
+      <c r="D674" s="16"/>
+      <c r="E674" s="16"/>
+      <c r="F674" s="16"/>
     </row>
     <row r="675">
-      <c r="C675" s="15"/>
-      <c r="D675" s="15"/>
-      <c r="E675" s="15"/>
-      <c r="F675" s="15"/>
+      <c r="C675" s="16"/>
+      <c r="D675" s="16"/>
+      <c r="E675" s="16"/>
+      <c r="F675" s="16"/>
     </row>
     <row r="676">
-      <c r="C676" s="15"/>
-      <c r="D676" s="15"/>
-      <c r="E676" s="15"/>
-      <c r="F676" s="15"/>
+      <c r="C676" s="16"/>
+      <c r="D676" s="16"/>
+      <c r="E676" s="16"/>
+      <c r="F676" s="16"/>
     </row>
     <row r="677">
-      <c r="C677" s="15"/>
-      <c r="D677" s="15"/>
-      <c r="E677" s="15"/>
-      <c r="F677" s="15"/>
+      <c r="C677" s="16"/>
+      <c r="D677" s="16"/>
+      <c r="E677" s="16"/>
+      <c r="F677" s="16"/>
     </row>
     <row r="678">
-      <c r="C678" s="15"/>
-      <c r="D678" s="15"/>
-      <c r="E678" s="15"/>
-      <c r="F678" s="15"/>
+      <c r="C678" s="16"/>
+      <c r="D678" s="16"/>
+      <c r="E678" s="16"/>
+      <c r="F678" s="16"/>
     </row>
     <row r="679">
-      <c r="C679" s="15"/>
-      <c r="D679" s="15"/>
-      <c r="E679" s="15"/>
-      <c r="F679" s="15"/>
+      <c r="C679" s="16"/>
+      <c r="D679" s="16"/>
+      <c r="E679" s="16"/>
+      <c r="F679" s="16"/>
     </row>
     <row r="680">
-      <c r="C680" s="15"/>
-      <c r="D680" s="15"/>
-      <c r="E680" s="15"/>
-      <c r="F680" s="15"/>
+      <c r="C680" s="16"/>
+      <c r="D680" s="16"/>
+      <c r="E680" s="16"/>
+      <c r="F680" s="16"/>
     </row>
     <row r="681">
-      <c r="C681" s="15"/>
-      <c r="D681" s="15"/>
-      <c r="E681" s="15"/>
-      <c r="F681" s="15"/>
+      <c r="C681" s="16"/>
+      <c r="D681" s="16"/>
+      <c r="E681" s="16"/>
+      <c r="F681" s="16"/>
     </row>
     <row r="682">
-      <c r="C682" s="15"/>
-      <c r="D682" s="15"/>
-      <c r="E682" s="15"/>
-      <c r="F682" s="15"/>
+      <c r="C682" s="16"/>
+      <c r="D682" s="16"/>
+      <c r="E682" s="16"/>
+      <c r="F682" s="16"/>
     </row>
     <row r="683">
-      <c r="C683" s="15"/>
-      <c r="D683" s="15"/>
-      <c r="E683" s="15"/>
-      <c r="F683" s="15"/>
+      <c r="C683" s="16"/>
+      <c r="D683" s="16"/>
+      <c r="E683" s="16"/>
+      <c r="F683" s="16"/>
     </row>
     <row r="684">
-      <c r="C684" s="15"/>
-      <c r="D684" s="15"/>
-      <c r="E684" s="15"/>
-      <c r="F684" s="15"/>
+      <c r="C684" s="16"/>
+      <c r="D684" s="16"/>
+      <c r="E684" s="16"/>
+      <c r="F684" s="16"/>
     </row>
     <row r="685">
-      <c r="C685" s="15"/>
-      <c r="D685" s="15"/>
-      <c r="E685" s="15"/>
-      <c r="F685" s="15"/>
+      <c r="C685" s="16"/>
+      <c r="D685" s="16"/>
+      <c r="E685" s="16"/>
+      <c r="F685" s="16"/>
     </row>
     <row r="686">
-      <c r="C686" s="15"/>
-      <c r="D686" s="15"/>
-      <c r="E686" s="15"/>
-      <c r="F686" s="15"/>
+      <c r="C686" s="16"/>
+      <c r="D686" s="16"/>
+      <c r="E686" s="16"/>
+      <c r="F686" s="16"/>
     </row>
     <row r="687">
-      <c r="C687" s="15"/>
-      <c r="D687" s="15"/>
-      <c r="E687" s="15"/>
-      <c r="F687" s="15"/>
+      <c r="C687" s="16"/>
+      <c r="D687" s="16"/>
+      <c r="E687" s="16"/>
+      <c r="F687" s="16"/>
     </row>
     <row r="688">
-      <c r="C688" s="15"/>
-      <c r="D688" s="15"/>
-      <c r="E688" s="15"/>
-      <c r="F688" s="15"/>
+      <c r="C688" s="16"/>
+      <c r="D688" s="16"/>
+      <c r="E688" s="16"/>
+      <c r="F688" s="16"/>
     </row>
     <row r="689">
-      <c r="C689" s="15"/>
-      <c r="D689" s="15"/>
-      <c r="E689" s="15"/>
-      <c r="F689" s="15"/>
+      <c r="C689" s="16"/>
+      <c r="D689" s="16"/>
+      <c r="E689" s="16"/>
+      <c r="F689" s="16"/>
     </row>
     <row r="690">
-      <c r="C690" s="15"/>
-      <c r="D690" s="15"/>
-      <c r="E690" s="15"/>
-      <c r="F690" s="15"/>
+      <c r="C690" s="16"/>
+      <c r="D690" s="16"/>
+      <c r="E690" s="16"/>
+      <c r="F690" s="16"/>
     </row>
     <row r="691">
-      <c r="C691" s="15"/>
-      <c r="D691" s="15"/>
-      <c r="E691" s="15"/>
-      <c r="F691" s="15"/>
+      <c r="C691" s="16"/>
+      <c r="D691" s="16"/>
+      <c r="E691" s="16"/>
+      <c r="F691" s="16"/>
     </row>
     <row r="692">
-      <c r="C692" s="15"/>
-      <c r="D692" s="15"/>
-      <c r="E692" s="15"/>
-      <c r="F692" s="15"/>
+      <c r="C692" s="16"/>
+      <c r="D692" s="16"/>
+      <c r="E692" s="16"/>
+      <c r="F692" s="16"/>
     </row>
     <row r="693">
-      <c r="C693" s="15"/>
-      <c r="D693" s="15"/>
-      <c r="E693" s="15"/>
-      <c r="F693" s="15"/>
+      <c r="C693" s="16"/>
+      <c r="D693" s="16"/>
+      <c r="E693" s="16"/>
+      <c r="F693" s="16"/>
     </row>
     <row r="694">
-      <c r="C694" s="15"/>
-      <c r="D694" s="15"/>
-      <c r="E694" s="15"/>
-      <c r="F694" s="15"/>
+      <c r="C694" s="16"/>
+      <c r="D694" s="16"/>
+      <c r="E694" s="16"/>
+      <c r="F694" s="16"/>
     </row>
     <row r="695">
-      <c r="C695" s="15"/>
-      <c r="D695" s="15"/>
-      <c r="E695" s="15"/>
-      <c r="F695" s="15"/>
+      <c r="C695" s="16"/>
+      <c r="D695" s="16"/>
+      <c r="E695" s="16"/>
+      <c r="F695" s="16"/>
     </row>
     <row r="696">
-      <c r="C696" s="15"/>
-      <c r="D696" s="15"/>
-      <c r="E696" s="15"/>
-      <c r="F696" s="15"/>
+      <c r="C696" s="16"/>
+      <c r="D696" s="16"/>
+      <c r="E696" s="16"/>
+      <c r="F696" s="16"/>
     </row>
     <row r="697">
-      <c r="C697" s="15"/>
-      <c r="D697" s="15"/>
-      <c r="E697" s="15"/>
-      <c r="F697" s="15"/>
+      <c r="C697" s="16"/>
+      <c r="D697" s="16"/>
+      <c r="E697" s="16"/>
+      <c r="F697" s="16"/>
     </row>
     <row r="698">
-      <c r="C698" s="15"/>
-      <c r="D698" s="15"/>
-      <c r="E698" s="15"/>
-      <c r="F698" s="15"/>
+      <c r="C698" s="16"/>
+      <c r="D698" s="16"/>
+      <c r="E698" s="16"/>
+      <c r="F698" s="16"/>
     </row>
     <row r="699">
-      <c r="C699" s="15"/>
-      <c r="D699" s="15"/>
-      <c r="E699" s="15"/>
-      <c r="F699" s="15"/>
+      <c r="C699" s="16"/>
+      <c r="D699" s="16"/>
+      <c r="E699" s="16"/>
+      <c r="F699" s="16"/>
     </row>
     <row r="700">
-      <c r="C700" s="15"/>
-      <c r="D700" s="15"/>
-      <c r="E700" s="15"/>
-      <c r="F700" s="15"/>
+      <c r="C700" s="16"/>
+      <c r="D700" s="16"/>
+      <c r="E700" s="16"/>
+      <c r="F700" s="16"/>
     </row>
     <row r="701">
-      <c r="C701" s="15"/>
-      <c r="D701" s="15"/>
-      <c r="E701" s="15"/>
-      <c r="F701" s="15"/>
+      <c r="C701" s="16"/>
+      <c r="D701" s="16"/>
+      <c r="E701" s="16"/>
+      <c r="F701" s="16"/>
     </row>
     <row r="702">
-      <c r="C702" s="15"/>
-      <c r="D702" s="15"/>
-      <c r="E702" s="15"/>
-      <c r="F702" s="15"/>
+      <c r="C702" s="16"/>
+      <c r="D702" s="16"/>
+      <c r="E702" s="16"/>
+      <c r="F702" s="16"/>
     </row>
     <row r="703">
-      <c r="C703" s="15"/>
-      <c r="D703" s="15"/>
-      <c r="E703" s="15"/>
-      <c r="F703" s="15"/>
+      <c r="C703" s="16"/>
+      <c r="D703" s="16"/>
+      <c r="E703" s="16"/>
+      <c r="F703" s="16"/>
     </row>
     <row r="704">
-      <c r="C704" s="15"/>
-      <c r="D704" s="15"/>
-      <c r="E704" s="15"/>
-      <c r="F704" s="15"/>
+      <c r="C704" s="16"/>
+      <c r="D704" s="16"/>
+      <c r="E704" s="16"/>
+      <c r="F704" s="16"/>
     </row>
     <row r="705">
-      <c r="C705" s="15"/>
-      <c r="D705" s="15"/>
-      <c r="E705" s="15"/>
-      <c r="F705" s="15"/>
+      <c r="C705" s="16"/>
+      <c r="D705" s="16"/>
+      <c r="E705" s="16"/>
+      <c r="F705" s="16"/>
     </row>
     <row r="706">
-      <c r="C706" s="15"/>
-      <c r="D706" s="15"/>
-      <c r="E706" s="15"/>
-      <c r="F706" s="15"/>
+      <c r="C706" s="16"/>
+      <c r="D706" s="16"/>
+      <c r="E706" s="16"/>
+      <c r="F706" s="16"/>
     </row>
     <row r="707">
-      <c r="C707" s="15"/>
-      <c r="D707" s="15"/>
-      <c r="E707" s="15"/>
-      <c r="F707" s="15"/>
+      <c r="C707" s="16"/>
+      <c r="D707" s="16"/>
+      <c r="E707" s="16"/>
+      <c r="F707" s="16"/>
     </row>
     <row r="708">
-      <c r="C708" s="15"/>
-      <c r="D708" s="15"/>
-      <c r="E708" s="15"/>
-      <c r="F708" s="15"/>
+      <c r="C708" s="16"/>
+      <c r="D708" s="16"/>
+      <c r="E708" s="16"/>
+      <c r="F708" s="16"/>
     </row>
     <row r="709">
-      <c r="C709" s="15"/>
-      <c r="D709" s="15"/>
-      <c r="E709" s="15"/>
-      <c r="F709" s="15"/>
+      <c r="C709" s="16"/>
+      <c r="D709" s="16"/>
+      <c r="E709" s="16"/>
+      <c r="F709" s="16"/>
     </row>
     <row r="710">
-      <c r="C710" s="15"/>
-      <c r="D710" s="15"/>
-      <c r="E710" s="15"/>
-      <c r="F710" s="15"/>
+      <c r="C710" s="16"/>
+      <c r="D710" s="16"/>
+      <c r="E710" s="16"/>
+      <c r="F710" s="16"/>
     </row>
     <row r="711">
-      <c r="C711" s="15"/>
-      <c r="D711" s="15"/>
-      <c r="E711" s="15"/>
-      <c r="F711" s="15"/>
+      <c r="C711" s="16"/>
+      <c r="D711" s="16"/>
+      <c r="E711" s="16"/>
+      <c r="F711" s="16"/>
     </row>
     <row r="712">
-      <c r="C712" s="15"/>
-      <c r="D712" s="15"/>
-      <c r="E712" s="15"/>
-      <c r="F712" s="15"/>
+      <c r="C712" s="16"/>
+      <c r="D712" s="16"/>
+      <c r="E712" s="16"/>
+      <c r="F712" s="16"/>
     </row>
     <row r="713">
-      <c r="C713" s="15"/>
-      <c r="D713" s="15"/>
-      <c r="E713" s="15"/>
-      <c r="F713" s="15"/>
+      <c r="C713" s="16"/>
+      <c r="D713" s="16"/>
+      <c r="E713" s="16"/>
+      <c r="F713" s="16"/>
     </row>
     <row r="714">
-      <c r="C714" s="15"/>
-      <c r="D714" s="15"/>
-      <c r="E714" s="15"/>
-      <c r="F714" s="15"/>
+      <c r="C714" s="16"/>
+      <c r="D714" s="16"/>
+      <c r="E714" s="16"/>
+      <c r="F714" s="16"/>
     </row>
     <row r="715">
-      <c r="C715" s="15"/>
-      <c r="D715" s="15"/>
-      <c r="E715" s="15"/>
-      <c r="F715" s="15"/>
+      <c r="C715" s="16"/>
+      <c r="D715" s="16"/>
+      <c r="E715" s="16"/>
+      <c r="F715" s="16"/>
     </row>
     <row r="716">
-      <c r="C716" s="15"/>
-      <c r="D716" s="15"/>
-      <c r="E716" s="15"/>
-      <c r="F716" s="15"/>
+      <c r="C716" s="16"/>
+      <c r="D716" s="16"/>
+      <c r="E716" s="16"/>
+      <c r="F716" s="16"/>
     </row>
     <row r="717">
-      <c r="C717" s="15"/>
-      <c r="D717" s="15"/>
-      <c r="E717" s="15"/>
-      <c r="F717" s="15"/>
+      <c r="C717" s="16"/>
+      <c r="D717" s="16"/>
+      <c r="E717" s="16"/>
+      <c r="F717" s="16"/>
     </row>
     <row r="718">
-      <c r="C718" s="15"/>
-      <c r="D718" s="15"/>
-      <c r="E718" s="15"/>
-      <c r="F718" s="15"/>
+      <c r="C718" s="16"/>
+      <c r="D718" s="16"/>
+      <c r="E718" s="16"/>
+      <c r="F718" s="16"/>
     </row>
     <row r="719">
-      <c r="C719" s="15"/>
-      <c r="D719" s="15"/>
-      <c r="E719" s="15"/>
-      <c r="F719" s="15"/>
+      <c r="C719" s="16"/>
+      <c r="D719" s="16"/>
+      <c r="E719" s="16"/>
+      <c r="F719" s="16"/>
     </row>
     <row r="720">
-      <c r="C720" s="15"/>
-      <c r="D720" s="15"/>
-      <c r="E720" s="15"/>
-      <c r="F720" s="15"/>
+      <c r="C720" s="16"/>
+      <c r="D720" s="16"/>
+      <c r="E720" s="16"/>
+      <c r="F720" s="16"/>
     </row>
     <row r="721">
-      <c r="C721" s="15"/>
-      <c r="D721" s="15"/>
-      <c r="E721" s="15"/>
-      <c r="F721" s="15"/>
+      <c r="C721" s="16"/>
+      <c r="D721" s="16"/>
+      <c r="E721" s="16"/>
+      <c r="F721" s="16"/>
     </row>
     <row r="722">
-      <c r="C722" s="15"/>
-      <c r="D722" s="15"/>
-      <c r="E722" s="15"/>
-      <c r="F722" s="15"/>
+      <c r="C722" s="16"/>
+      <c r="D722" s="16"/>
+      <c r="E722" s="16"/>
+      <c r="F722" s="16"/>
     </row>
     <row r="723">
-      <c r="C723" s="15"/>
-      <c r="D723" s="15"/>
-      <c r="E723" s="15"/>
-      <c r="F723" s="15"/>
+      <c r="C723" s="16"/>
+      <c r="D723" s="16"/>
+      <c r="E723" s="16"/>
+      <c r="F723" s="16"/>
     </row>
     <row r="724">
-      <c r="C724" s="15"/>
-      <c r="D724" s="15"/>
-      <c r="E724" s="15"/>
-      <c r="F724" s="15"/>
+      <c r="C724" s="16"/>
+      <c r="D724" s="16"/>
+      <c r="E724" s="16"/>
+      <c r="F724" s="16"/>
     </row>
     <row r="725">
-      <c r="C725" s="15"/>
-      <c r="D725" s="15"/>
-      <c r="E725" s="15"/>
-      <c r="F725" s="15"/>
+      <c r="C725" s="16"/>
+      <c r="D725" s="16"/>
+      <c r="E725" s="16"/>
+      <c r="F725" s="16"/>
     </row>
     <row r="726">
-      <c r="C726" s="15"/>
-      <c r="D726" s="15"/>
-      <c r="E726" s="15"/>
-      <c r="F726" s="15"/>
+      <c r="C726" s="16"/>
+      <c r="D726" s="16"/>
+      <c r="E726" s="16"/>
+      <c r="F726" s="16"/>
     </row>
     <row r="727">
-      <c r="C727" s="15"/>
-      <c r="D727" s="15"/>
-      <c r="E727" s="15"/>
-      <c r="F727" s="15"/>
+      <c r="C727" s="16"/>
+      <c r="D727" s="16"/>
+      <c r="E727" s="16"/>
+      <c r="F727" s="16"/>
     </row>
     <row r="728">
-      <c r="C728" s="15"/>
-      <c r="D728" s="15"/>
-      <c r="E728" s="15"/>
-      <c r="F728" s="15"/>
+      <c r="C728" s="16"/>
+      <c r="D728" s="16"/>
+      <c r="E728" s="16"/>
+      <c r="F728" s="16"/>
     </row>
     <row r="729">
-      <c r="C729" s="15"/>
-      <c r="D729" s="15"/>
-      <c r="E729" s="15"/>
-      <c r="F729" s="15"/>
+      <c r="C729" s="16"/>
+      <c r="D729" s="16"/>
+      <c r="E729" s="16"/>
+      <c r="F729" s="16"/>
     </row>
     <row r="730">
-      <c r="C730" s="15"/>
-      <c r="D730" s="15"/>
-      <c r="E730" s="15"/>
-      <c r="F730" s="15"/>
+      <c r="C730" s="16"/>
+      <c r="D730" s="16"/>
+      <c r="E730" s="16"/>
+      <c r="F730" s="16"/>
     </row>
     <row r="731">
-      <c r="C731" s="15"/>
-      <c r="D731" s="15"/>
-      <c r="E731" s="15"/>
-      <c r="F731" s="15"/>
+      <c r="C731" s="16"/>
+      <c r="D731" s="16"/>
+      <c r="E731" s="16"/>
+      <c r="F731" s="16"/>
     </row>
     <row r="732">
-      <c r="C732" s="15"/>
-      <c r="D732" s="15"/>
-      <c r="E732" s="15"/>
-      <c r="F732" s="15"/>
+      <c r="C732" s="16"/>
+      <c r="D732" s="16"/>
+      <c r="E732" s="16"/>
+      <c r="F732" s="16"/>
     </row>
     <row r="733">
-      <c r="C733" s="15"/>
-      <c r="D733" s="15"/>
-      <c r="E733" s="15"/>
-      <c r="F733" s="15"/>
+      <c r="C733" s="16"/>
+      <c r="D733" s="16"/>
+      <c r="E733" s="16"/>
+      <c r="F733" s="16"/>
     </row>
     <row r="734">
-      <c r="C734" s="15"/>
-      <c r="D734" s="15"/>
-      <c r="E734" s="15"/>
-      <c r="F734" s="15"/>
+      <c r="C734" s="16"/>
+      <c r="D734" s="16"/>
+      <c r="E734" s="16"/>
+      <c r="F734" s="16"/>
     </row>
     <row r="735">
-      <c r="C735" s="15"/>
-      <c r="D735" s="15"/>
-      <c r="E735" s="15"/>
-      <c r="F735" s="15"/>
+      <c r="C735" s="16"/>
+      <c r="D735" s="16"/>
+      <c r="E735" s="16"/>
+      <c r="F735" s="16"/>
     </row>
     <row r="736">
-      <c r="C736" s="15"/>
-      <c r="D736" s="15"/>
-      <c r="E736" s="15"/>
-      <c r="F736" s="15"/>
+      <c r="C736" s="16"/>
+      <c r="D736" s="16"/>
+      <c r="E736" s="16"/>
+      <c r="F736" s="16"/>
     </row>
     <row r="737">
-      <c r="C737" s="15"/>
-      <c r="D737" s="15"/>
-      <c r="E737" s="15"/>
-      <c r="F737" s="15"/>
+      <c r="C737" s="16"/>
+      <c r="D737" s="16"/>
+      <c r="E737" s="16"/>
+      <c r="F737" s="16"/>
     </row>
     <row r="738">
-      <c r="C738" s="15"/>
-      <c r="D738" s="15"/>
-      <c r="E738" s="15"/>
-      <c r="F738" s="15"/>
+      <c r="C738" s="16"/>
+      <c r="D738" s="16"/>
+      <c r="E738" s="16"/>
+      <c r="F738" s="16"/>
     </row>
     <row r="739">
-      <c r="C739" s="15"/>
-      <c r="D739" s="15"/>
-      <c r="E739" s="15"/>
-      <c r="F739" s="15"/>
+      <c r="C739" s="16"/>
+      <c r="D739" s="16"/>
+      <c r="E739" s="16"/>
+      <c r="F739" s="16"/>
     </row>
     <row r="740">
-      <c r="C740" s="15"/>
-      <c r="D740" s="15"/>
-      <c r="E740" s="15"/>
-      <c r="F740" s="15"/>
+      <c r="C740" s="16"/>
+      <c r="D740" s="16"/>
+      <c r="E740" s="16"/>
+      <c r="F740" s="16"/>
     </row>
     <row r="741">
-      <c r="C741" s="15"/>
-      <c r="D741" s="15"/>
-      <c r="E741" s="15"/>
-      <c r="F741" s="15"/>
+      <c r="C741" s="16"/>
+      <c r="D741" s="16"/>
+      <c r="E741" s="16"/>
+      <c r="F741" s="16"/>
     </row>
     <row r="742">
-      <c r="C742" s="15"/>
-      <c r="D742" s="15"/>
-      <c r="E742" s="15"/>
-      <c r="F742" s="15"/>
+      <c r="C742" s="16"/>
+      <c r="D742" s="16"/>
+      <c r="E742" s="16"/>
+      <c r="F742" s="16"/>
     </row>
     <row r="743">
-      <c r="C743" s="15"/>
-      <c r="D743" s="15"/>
-      <c r="E743" s="15"/>
-      <c r="F743" s="15"/>
+      <c r="C743" s="16"/>
+      <c r="D743" s="16"/>
+      <c r="E743" s="16"/>
+      <c r="F743" s="16"/>
     </row>
     <row r="744">
-      <c r="C744" s="15"/>
-      <c r="D744" s="15"/>
-      <c r="E744" s="15"/>
-      <c r="F744" s="15"/>
+      <c r="C744" s="16"/>
+      <c r="D744" s="16"/>
+      <c r="E744" s="16"/>
+      <c r="F744" s="16"/>
     </row>
     <row r="745">
-      <c r="C745" s="15"/>
-      <c r="D745" s="15"/>
-      <c r="E745" s="15"/>
-      <c r="F745" s="15"/>
+      <c r="C745" s="16"/>
+      <c r="D745" s="16"/>
+      <c r="E745" s="16"/>
+      <c r="F745" s="16"/>
     </row>
     <row r="746">
-      <c r="C746" s="15"/>
-      <c r="D746" s="15"/>
-      <c r="E746" s="15"/>
-      <c r="F746" s="15"/>
+      <c r="C746" s="16"/>
+      <c r="D746" s="16"/>
+      <c r="E746" s="16"/>
+      <c r="F746" s="16"/>
     </row>
     <row r="747">
-      <c r="C747" s="15"/>
-      <c r="D747" s="15"/>
-      <c r="E747" s="15"/>
-      <c r="F747" s="15"/>
+      <c r="C747" s="16"/>
+      <c r="D747" s="16"/>
+      <c r="E747" s="16"/>
+      <c r="F747" s="16"/>
     </row>
     <row r="748">
-      <c r="C748" s="15"/>
-      <c r="D748" s="15"/>
-      <c r="E748" s="15"/>
-      <c r="F748" s="15"/>
+      <c r="C748" s="16"/>
+      <c r="D748" s="16"/>
+      <c r="E748" s="16"/>
+      <c r="F748" s="16"/>
     </row>
     <row r="749">
-      <c r="C749" s="15"/>
-      <c r="D749" s="15"/>
-      <c r="E749" s="15"/>
-      <c r="F749" s="15"/>
+      <c r="C749" s="16"/>
+      <c r="D749" s="16"/>
+      <c r="E749" s="16"/>
+      <c r="F749" s="16"/>
     </row>
     <row r="750">
-      <c r="C750" s="15"/>
-      <c r="D750" s="15"/>
-      <c r="E750" s="15"/>
-      <c r="F750" s="15"/>
+      <c r="C750" s="16"/>
+      <c r="D750" s="16"/>
+      <c r="E750" s="16"/>
+      <c r="F750" s="16"/>
     </row>
     <row r="751">
-      <c r="C751" s="15"/>
-      <c r="D751" s="15"/>
-      <c r="E751" s="15"/>
-      <c r="F751" s="15"/>
+      <c r="C751" s="16"/>
+      <c r="D751" s="16"/>
+      <c r="E751" s="16"/>
+      <c r="F751" s="16"/>
     </row>
     <row r="752">
-      <c r="C752" s="15"/>
-      <c r="D752" s="15"/>
-      <c r="E752" s="15"/>
-      <c r="F752" s="15"/>
+      <c r="C752" s="16"/>
+      <c r="D752" s="16"/>
+      <c r="E752" s="16"/>
+      <c r="F752" s="16"/>
     </row>
     <row r="753">
-      <c r="C753" s="15"/>
-      <c r="D753" s="15"/>
-      <c r="E753" s="15"/>
-      <c r="F753" s="15"/>
+      <c r="C753" s="16"/>
+      <c r="D753" s="16"/>
+      <c r="E753" s="16"/>
+      <c r="F753" s="16"/>
     </row>
     <row r="754">
-      <c r="C754" s="15"/>
-      <c r="D754" s="15"/>
-      <c r="E754" s="15"/>
-      <c r="F754" s="15"/>
+      <c r="C754" s="16"/>
+      <c r="D754" s="16"/>
+      <c r="E754" s="16"/>
+      <c r="F754" s="16"/>
     </row>
     <row r="755">
-      <c r="C755" s="15"/>
-      <c r="D755" s="15"/>
-      <c r="E755" s="15"/>
-      <c r="F755" s="15"/>
+      <c r="C755" s="16"/>
+      <c r="D755" s="16"/>
+      <c r="E755" s="16"/>
+      <c r="F755" s="16"/>
     </row>
     <row r="756">
-      <c r="C756" s="15"/>
-      <c r="D756" s="15"/>
-      <c r="E756" s="15"/>
-      <c r="F756" s="15"/>
+      <c r="C756" s="16"/>
+      <c r="D756" s="16"/>
+      <c r="E756" s="16"/>
+      <c r="F756" s="16"/>
     </row>
     <row r="757">
-      <c r="C757" s="15"/>
-      <c r="D757" s="15"/>
-      <c r="E757" s="15"/>
-      <c r="F757" s="15"/>
+      <c r="C757" s="16"/>
+      <c r="D757" s="16"/>
+      <c r="E757" s="16"/>
+      <c r="F757" s="16"/>
     </row>
     <row r="758">
-      <c r="C758" s="15"/>
-      <c r="D758" s="15"/>
-      <c r="E758" s="15"/>
-      <c r="F758" s="15"/>
+      <c r="C758" s="16"/>
+      <c r="D758" s="16"/>
+      <c r="E758" s="16"/>
+      <c r="F758" s="16"/>
     </row>
     <row r="759">
-      <c r="C759" s="15"/>
-      <c r="D759" s="15"/>
-      <c r="E759" s="15"/>
-      <c r="F759" s="15"/>
+      <c r="C759" s="16"/>
+      <c r="D759" s="16"/>
+      <c r="E759" s="16"/>
+      <c r="F759" s="16"/>
     </row>
     <row r="760">
-      <c r="C760" s="15"/>
-      <c r="D760" s="15"/>
-      <c r="E760" s="15"/>
-      <c r="F760" s="15"/>
+      <c r="C760" s="16"/>
+      <c r="D760" s="16"/>
+      <c r="E760" s="16"/>
+      <c r="F760" s="16"/>
     </row>
     <row r="761">
-      <c r="C761" s="15"/>
-      <c r="D761" s="15"/>
-      <c r="E761" s="15"/>
-      <c r="F761" s="15"/>
+      <c r="C761" s="16"/>
+      <c r="D761" s="16"/>
+      <c r="E761" s="16"/>
+      <c r="F761" s="16"/>
     </row>
     <row r="762">
-      <c r="C762" s="15"/>
-      <c r="D762" s="15"/>
-      <c r="E762" s="15"/>
-      <c r="F762" s="15"/>
+      <c r="C762" s="16"/>
+      <c r="D762" s="16"/>
+      <c r="E762" s="16"/>
+      <c r="F762" s="16"/>
     </row>
     <row r="763">
-      <c r="C763" s="15"/>
-      <c r="D763" s="15"/>
-      <c r="E763" s="15"/>
-      <c r="F763" s="15"/>
+      <c r="C763" s="16"/>
+      <c r="D763" s="16"/>
+      <c r="E763" s="16"/>
+      <c r="F763" s="16"/>
     </row>
     <row r="764">
-      <c r="C764" s="15"/>
-      <c r="D764" s="15"/>
-      <c r="E764" s="15"/>
-      <c r="F764" s="15"/>
+      <c r="C764" s="16"/>
+      <c r="D764" s="16"/>
+      <c r="E764" s="16"/>
+      <c r="F764" s="16"/>
     </row>
     <row r="765">
-      <c r="C765" s="15"/>
-      <c r="D765" s="15"/>
-      <c r="E765" s="15"/>
-      <c r="F765" s="15"/>
+      <c r="C765" s="16"/>
+      <c r="D765" s="16"/>
+      <c r="E765" s="16"/>
+      <c r="F765" s="16"/>
     </row>
     <row r="766">
-      <c r="C766" s="15"/>
-      <c r="D766" s="15"/>
-      <c r="E766" s="15"/>
-      <c r="F766" s="15"/>
+      <c r="C766" s="16"/>
+      <c r="D766" s="16"/>
+      <c r="E766" s="16"/>
+      <c r="F766" s="16"/>
     </row>
     <row r="767">
-      <c r="C767" s="15"/>
-      <c r="D767" s="15"/>
-      <c r="E767" s="15"/>
-      <c r="F767" s="15"/>
+      <c r="C767" s="16"/>
+      <c r="D767" s="16"/>
+      <c r="E767" s="16"/>
+      <c r="F767" s="16"/>
     </row>
     <row r="768">
-      <c r="C768" s="15"/>
-      <c r="D768" s="15"/>
-      <c r="E768" s="15"/>
-      <c r="F768" s="15"/>
+      <c r="C768" s="16"/>
+      <c r="D768" s="16"/>
+      <c r="E768" s="16"/>
+      <c r="F768" s="16"/>
     </row>
     <row r="769">
-      <c r="C769" s="15"/>
-      <c r="D769" s="15"/>
-      <c r="E769" s="15"/>
-      <c r="F769" s="15"/>
+      <c r="C769" s="16"/>
+      <c r="D769" s="16"/>
+      <c r="E769" s="16"/>
+      <c r="F769" s="16"/>
     </row>
     <row r="770">
-      <c r="C770" s="15"/>
-      <c r="D770" s="15"/>
-      <c r="E770" s="15"/>
-      <c r="F770" s="15"/>
+      <c r="C770" s="16"/>
+      <c r="D770" s="16"/>
+      <c r="E770" s="16"/>
+      <c r="F770" s="16"/>
     </row>
     <row r="771">
-      <c r="C771" s="15"/>
-      <c r="D771" s="15"/>
-      <c r="E771" s="15"/>
-      <c r="F771" s="15"/>
+      <c r="C771" s="16"/>
+      <c r="D771" s="16"/>
+      <c r="E771" s="16"/>
+      <c r="F771" s="16"/>
     </row>
     <row r="772">
-      <c r="C772" s="15"/>
-      <c r="D772" s="15"/>
-      <c r="E772" s="15"/>
-      <c r="F772" s="15"/>
+      <c r="C772" s="16"/>
+      <c r="D772" s="16"/>
+      <c r="E772" s="16"/>
+      <c r="F772" s="16"/>
     </row>
     <row r="773">
-      <c r="C773" s="15"/>
-      <c r="D773" s="15"/>
-      <c r="E773" s="15"/>
-      <c r="F773" s="15"/>
+      <c r="C773" s="16"/>
+      <c r="D773" s="16"/>
+      <c r="E773" s="16"/>
+      <c r="F773" s="16"/>
     </row>
     <row r="774">
-      <c r="C774" s="15"/>
-      <c r="D774" s="15"/>
-      <c r="E774" s="15"/>
-      <c r="F774" s="15"/>
+      <c r="C774" s="16"/>
+      <c r="D774" s="16"/>
+      <c r="E774" s="16"/>
+      <c r="F774" s="16"/>
     </row>
     <row r="775">
-      <c r="C775" s="15"/>
-      <c r="D775" s="15"/>
-      <c r="E775" s="15"/>
-      <c r="F775" s="15"/>
+      <c r="C775" s="16"/>
+      <c r="D775" s="16"/>
+      <c r="E775" s="16"/>
+      <c r="F775" s="16"/>
     </row>
     <row r="776">
-      <c r="C776" s="15"/>
-      <c r="D776" s="15"/>
-      <c r="E776" s="15"/>
-      <c r="F776" s="15"/>
+      <c r="C776" s="16"/>
+      <c r="D776" s="16"/>
+      <c r="E776" s="16"/>
+      <c r="F776" s="16"/>
     </row>
     <row r="777">
-      <c r="C777" s="15"/>
-      <c r="D777" s="15"/>
-      <c r="E777" s="15"/>
-      <c r="F777" s="15"/>
+      <c r="C777" s="16"/>
+      <c r="D777" s="16"/>
+      <c r="E777" s="16"/>
+      <c r="F777" s="16"/>
     </row>
     <row r="778">
-      <c r="C778" s="15"/>
-      <c r="D778" s="15"/>
-      <c r="E778" s="15"/>
-      <c r="F778" s="15"/>
+      <c r="C778" s="16"/>
+      <c r="D778" s="16"/>
+      <c r="E778" s="16"/>
+      <c r="F778" s="16"/>
     </row>
     <row r="779">
-      <c r="C779" s="15"/>
-      <c r="D779" s="15"/>
-      <c r="E779" s="15"/>
-      <c r="F779" s="15"/>
+      <c r="C779" s="16"/>
+      <c r="D779" s="16"/>
+      <c r="E779" s="16"/>
+      <c r="F779" s="16"/>
     </row>
     <row r="780">
-      <c r="C780" s="15"/>
-      <c r="D780" s="15"/>
-      <c r="E780" s="15"/>
-      <c r="F780" s="15"/>
+      <c r="C780" s="16"/>
+      <c r="D780" s="16"/>
+      <c r="E780" s="16"/>
+      <c r="F780" s="16"/>
     </row>
     <row r="781">
-      <c r="C781" s="15"/>
-      <c r="D781" s="15"/>
-      <c r="E781" s="15"/>
-      <c r="F781" s="15"/>
+      <c r="C781" s="16"/>
+      <c r="D781" s="16"/>
+      <c r="E781" s="16"/>
+      <c r="F781" s="16"/>
     </row>
     <row r="782">
-      <c r="C782" s="15"/>
-      <c r="D782" s="15"/>
-      <c r="E782" s="15"/>
-      <c r="F782" s="15"/>
+      <c r="C782" s="16"/>
+      <c r="D782" s="16"/>
+      <c r="E782" s="16"/>
+      <c r="F782" s="16"/>
     </row>
     <row r="783">
-      <c r="C783" s="15"/>
-      <c r="D783" s="15"/>
-      <c r="E783" s="15"/>
-      <c r="F783" s="15"/>
+      <c r="C783" s="16"/>
+      <c r="D783" s="16"/>
+      <c r="E783" s="16"/>
+      <c r="F783" s="16"/>
     </row>
     <row r="784">
-      <c r="C784" s="15"/>
-      <c r="D784" s="15"/>
-      <c r="E784" s="15"/>
-      <c r="F784" s="15"/>
+      <c r="C784" s="16"/>
+      <c r="D784" s="16"/>
+      <c r="E784" s="16"/>
+      <c r="F784" s="16"/>
     </row>
     <row r="785">
-      <c r="C785" s="15"/>
-      <c r="D785" s="15"/>
-      <c r="E785" s="15"/>
-      <c r="F785" s="15"/>
+      <c r="C785" s="16"/>
+      <c r="D785" s="16"/>
+      <c r="E785" s="16"/>
+      <c r="F785" s="16"/>
     </row>
     <row r="786">
-      <c r="C786" s="15"/>
-      <c r="D786" s="15"/>
-      <c r="E786" s="15"/>
-      <c r="F786" s="15"/>
+      <c r="C786" s="16"/>
+      <c r="D786" s="16"/>
+      <c r="E786" s="16"/>
+      <c r="F786" s="16"/>
     </row>
     <row r="787">
-      <c r="C787" s="15"/>
-      <c r="D787" s="15"/>
-      <c r="E787" s="15"/>
-      <c r="F787" s="15"/>
+      <c r="C787" s="16"/>
+      <c r="D787" s="16"/>
+      <c r="E787" s="16"/>
+      <c r="F787" s="16"/>
     </row>
     <row r="788">
-      <c r="C788" s="15"/>
-      <c r="D788" s="15"/>
-      <c r="E788" s="15"/>
-      <c r="F788" s="15"/>
+      <c r="C788" s="16"/>
+      <c r="D788" s="16"/>
+      <c r="E788" s="16"/>
+      <c r="F788" s="16"/>
     </row>
     <row r="789">
-      <c r="C789" s="15"/>
-      <c r="D789" s="15"/>
-      <c r="E789" s="15"/>
-      <c r="F789" s="15"/>
+      <c r="C789" s="16"/>
+      <c r="D789" s="16"/>
+      <c r="E789" s="16"/>
+      <c r="F789" s="16"/>
     </row>
     <row r="790">
-      <c r="C790" s="15"/>
-      <c r="D790" s="15"/>
-      <c r="E790" s="15"/>
-      <c r="F790" s="15"/>
+      <c r="C790" s="16"/>
+      <c r="D790" s="16"/>
+      <c r="E790" s="16"/>
+      <c r="F790" s="16"/>
     </row>
     <row r="791">
-      <c r="C791" s="15"/>
-      <c r="D791" s="15"/>
-      <c r="E791" s="15"/>
-      <c r="F791" s="15"/>
+      <c r="C791" s="16"/>
+      <c r="D791" s="16"/>
+      <c r="E791" s="16"/>
+      <c r="F791" s="16"/>
     </row>
     <row r="792">
-      <c r="C792" s="15"/>
-      <c r="D792" s="15"/>
-      <c r="E792" s="15"/>
-      <c r="F792" s="15"/>
+      <c r="C792" s="16"/>
+      <c r="D792" s="16"/>
+      <c r="E792" s="16"/>
+      <c r="F792" s="16"/>
     </row>
     <row r="793">
-      <c r="C793" s="15"/>
-      <c r="D793" s="15"/>
-      <c r="E793" s="15"/>
-      <c r="F793" s="15"/>
+      <c r="C793" s="16"/>
+      <c r="D793" s="16"/>
+      <c r="E793" s="16"/>
+      <c r="F793" s="16"/>
     </row>
     <row r="794">
-      <c r="C794" s="15"/>
-      <c r="D794" s="15"/>
-      <c r="E794" s="15"/>
-      <c r="F794" s="15"/>
+      <c r="C794" s="16"/>
+      <c r="D794" s="16"/>
+      <c r="E794" s="16"/>
+      <c r="F794" s="16"/>
     </row>
     <row r="795">
-      <c r="C795" s="15"/>
-      <c r="D795" s="15"/>
-      <c r="E795" s="15"/>
-      <c r="F795" s="15"/>
+      <c r="C795" s="16"/>
+      <c r="D795" s="16"/>
+      <c r="E795" s="16"/>
+      <c r="F795" s="16"/>
     </row>
     <row r="796">
-      <c r="C796" s="15"/>
-      <c r="D796" s="15"/>
-      <c r="E796" s="15"/>
-      <c r="F796" s="15"/>
+      <c r="C796" s="16"/>
+      <c r="D796" s="16"/>
+      <c r="E796" s="16"/>
+      <c r="F796" s="16"/>
     </row>
     <row r="797">
-      <c r="C797" s="15"/>
-      <c r="D797" s="15"/>
-      <c r="E797" s="15"/>
-      <c r="F797" s="15"/>
+      <c r="C797" s="16"/>
+      <c r="D797" s="16"/>
+      <c r="E797" s="16"/>
+      <c r="F797" s="16"/>
     </row>
     <row r="798">
-      <c r="C798" s="15"/>
-      <c r="D798" s="15"/>
-      <c r="E798" s="15"/>
-      <c r="F798" s="15"/>
+      <c r="C798" s="16"/>
+      <c r="D798" s="16"/>
+      <c r="E798" s="16"/>
+      <c r="F798" s="16"/>
     </row>
     <row r="799">
-      <c r="C799" s="15"/>
-      <c r="D799" s="15"/>
-      <c r="E799" s="15"/>
-      <c r="F799" s="15"/>
+      <c r="C799" s="16"/>
+      <c r="D799" s="16"/>
+      <c r="E799" s="16"/>
+      <c r="F799" s="16"/>
     </row>
     <row r="800">
-      <c r="C800" s="15"/>
-      <c r="D800" s="15"/>
-      <c r="E800" s="15"/>
-      <c r="F800" s="15"/>
+      <c r="C800" s="16"/>
+      <c r="D800" s="16"/>
+      <c r="E800" s="16"/>
+      <c r="F800" s="16"/>
     </row>
     <row r="801">
-      <c r="C801" s="15"/>
-      <c r="D801" s="15"/>
-      <c r="E801" s="15"/>
-      <c r="F801" s="15"/>
+      <c r="C801" s="16"/>
+      <c r="D801" s="16"/>
+      <c r="E801" s="16"/>
+      <c r="F801" s="16"/>
     </row>
     <row r="802">
-      <c r="C802" s="15"/>
-      <c r="D802" s="15"/>
-      <c r="E802" s="15"/>
-      <c r="F802" s="15"/>
+      <c r="C802" s="16"/>
+      <c r="D802" s="16"/>
+      <c r="E802" s="16"/>
+      <c r="F802" s="16"/>
     </row>
     <row r="803">
-      <c r="C803" s="15"/>
-      <c r="D803" s="15"/>
-      <c r="E803" s="15"/>
-      <c r="F803" s="15"/>
+      <c r="C803" s="16"/>
+      <c r="D803" s="16"/>
+      <c r="E803" s="16"/>
+      <c r="F803" s="16"/>
     </row>
     <row r="804">
-      <c r="C804" s="15"/>
-      <c r="D804" s="15"/>
-      <c r="E804" s="15"/>
-      <c r="F804" s="15"/>
+      <c r="C804" s="16"/>
+      <c r="D804" s="16"/>
+      <c r="E804" s="16"/>
+      <c r="F804" s="16"/>
     </row>
     <row r="805">
-      <c r="C805" s="15"/>
-      <c r="D805" s="15"/>
-      <c r="E805" s="15"/>
-      <c r="F805" s="15"/>
+      <c r="C805" s="16"/>
+      <c r="D805" s="16"/>
+      <c r="E805" s="16"/>
+      <c r="F805" s="16"/>
     </row>
     <row r="806">
-      <c r="C806" s="15"/>
-      <c r="D806" s="15"/>
-      <c r="E806" s="15"/>
-      <c r="F806" s="15"/>
+      <c r="C806" s="16"/>
+      <c r="D806" s="16"/>
+      <c r="E806" s="16"/>
+      <c r="F806" s="16"/>
     </row>
     <row r="807">
-      <c r="C807" s="15"/>
-      <c r="D807" s="15"/>
-      <c r="E807" s="15"/>
-      <c r="F807" s="15"/>
+      <c r="C807" s="16"/>
+      <c r="D807" s="16"/>
+      <c r="E807" s="16"/>
+      <c r="F807" s="16"/>
     </row>
     <row r="808">
-      <c r="C808" s="15"/>
-      <c r="D808" s="15"/>
-      <c r="E808" s="15"/>
-      <c r="F808" s="15"/>
+      <c r="C808" s="16"/>
+      <c r="D808" s="16"/>
+      <c r="E808" s="16"/>
+      <c r="F808" s="16"/>
     </row>
     <row r="809">
-      <c r="C809" s="15"/>
-      <c r="D809" s="15"/>
-      <c r="E809" s="15"/>
-      <c r="F809" s="15"/>
+      <c r="C809" s="16"/>
+      <c r="D809" s="16"/>
+      <c r="E809" s="16"/>
+      <c r="F809" s="16"/>
     </row>
     <row r="810">
-      <c r="C810" s="15"/>
-      <c r="D810" s="15"/>
-      <c r="E810" s="15"/>
-      <c r="F810" s="15"/>
+      <c r="C810" s="16"/>
+      <c r="D810" s="16"/>
+      <c r="E810" s="16"/>
+      <c r="F810" s="16"/>
     </row>
     <row r="811">
-      <c r="C811" s="15"/>
-      <c r="D811" s="15"/>
-      <c r="E811" s="15"/>
-      <c r="F811" s="15"/>
+      <c r="C811" s="16"/>
+      <c r="D811" s="16"/>
+      <c r="E811" s="16"/>
+      <c r="F811" s="16"/>
     </row>
     <row r="812">
-      <c r="C812" s="15"/>
-      <c r="D812" s="15"/>
-      <c r="E812" s="15"/>
-      <c r="F812" s="15"/>
+      <c r="C812" s="16"/>
+      <c r="D812" s="16"/>
+      <c r="E812" s="16"/>
+      <c r="F812" s="16"/>
     </row>
     <row r="813">
-      <c r="C813" s="15"/>
-      <c r="D813" s="15"/>
-      <c r="E813" s="15"/>
-      <c r="F813" s="15"/>
+      <c r="C813" s="16"/>
+      <c r="D813" s="16"/>
+      <c r="E813" s="16"/>
+      <c r="F813" s="16"/>
     </row>
     <row r="814">
-      <c r="C814" s="15"/>
-      <c r="D814" s="15"/>
-      <c r="E814" s="15"/>
-      <c r="F814" s="15"/>
+      <c r="C814" s="16"/>
+      <c r="D814" s="16"/>
+      <c r="E814" s="16"/>
+      <c r="F814" s="16"/>
     </row>
     <row r="815">
-      <c r="C815" s="15"/>
-      <c r="D815" s="15"/>
-      <c r="E815" s="15"/>
-      <c r="F815" s="15"/>
+      <c r="C815" s="16"/>
+      <c r="D815" s="16"/>
+      <c r="E815" s="16"/>
+      <c r="F815" s="16"/>
     </row>
     <row r="816">
-      <c r="C816" s="15"/>
-      <c r="D816" s="15"/>
-      <c r="E816" s="15"/>
-      <c r="F816" s="15"/>
+      <c r="C816" s="16"/>
+      <c r="D816" s="16"/>
+      <c r="E816" s="16"/>
+      <c r="F816" s="16"/>
     </row>
     <row r="817">
-      <c r="C817" s="15"/>
-      <c r="D817" s="15"/>
-      <c r="E817" s="15"/>
-      <c r="F817" s="15"/>
+      <c r="C817" s="16"/>
+      <c r="D817" s="16"/>
+      <c r="E817" s="16"/>
+      <c r="F817" s="16"/>
     </row>
     <row r="818">
-      <c r="C818" s="15"/>
-      <c r="D818" s="15"/>
-      <c r="E818" s="15"/>
-      <c r="F818" s="15"/>
+      <c r="C818" s="16"/>
+      <c r="D818" s="16"/>
+      <c r="E818" s="16"/>
+      <c r="F818" s="16"/>
     </row>
     <row r="819">
-      <c r="C819" s="15"/>
-      <c r="D819" s="15"/>
-      <c r="E819" s="15"/>
-      <c r="F819" s="15"/>
+      <c r="C819" s="16"/>
+      <c r="D819" s="16"/>
+      <c r="E819" s="16"/>
+      <c r="F819" s="16"/>
     </row>
     <row r="820">
-      <c r="C820" s="15"/>
-      <c r="D820" s="15"/>
-      <c r="E820" s="15"/>
-      <c r="F820" s="15"/>
+      <c r="C820" s="16"/>
+      <c r="D820" s="16"/>
+      <c r="E820" s="16"/>
+      <c r="F820" s="16"/>
     </row>
     <row r="821">
-      <c r="C821" s="15"/>
-      <c r="D821" s="15"/>
-      <c r="E821" s="15"/>
-      <c r="F821" s="15"/>
+      <c r="C821" s="16"/>
+      <c r="D821" s="16"/>
+      <c r="E821" s="16"/>
+      <c r="F821" s="16"/>
     </row>
     <row r="822">
-      <c r="C822" s="15"/>
-      <c r="D822" s="15"/>
-      <c r="E822" s="15"/>
-      <c r="F822" s="15"/>
+      <c r="C822" s="16"/>
+      <c r="D822" s="16"/>
+      <c r="E822" s="16"/>
+      <c r="F822" s="16"/>
     </row>
     <row r="823">
-      <c r="C823" s="15"/>
-      <c r="D823" s="15"/>
-      <c r="E823" s="15"/>
-      <c r="F823" s="15"/>
+      <c r="C823" s="16"/>
+      <c r="D823" s="16"/>
+      <c r="E823" s="16"/>
+      <c r="F823" s="16"/>
     </row>
     <row r="824">
-      <c r="C824" s="15"/>
-      <c r="D824" s="15"/>
-      <c r="E824" s="15"/>
-      <c r="F824" s="15"/>
+      <c r="C824" s="16"/>
+      <c r="D824" s="16"/>
+      <c r="E824" s="16"/>
+      <c r="F824" s="16"/>
     </row>
     <row r="825">
-      <c r="C825" s="15"/>
-      <c r="D825" s="15"/>
-      <c r="E825" s="15"/>
-      <c r="F825" s="15"/>
+      <c r="C825" s="16"/>
+      <c r="D825" s="16"/>
+      <c r="E825" s="16"/>
+      <c r="F825" s="16"/>
     </row>
     <row r="826">
-      <c r="C826" s="15"/>
-      <c r="D826" s="15"/>
-      <c r="E826" s="15"/>
-      <c r="F826" s="15"/>
+      <c r="C826" s="16"/>
+      <c r="D826" s="16"/>
+      <c r="E826" s="16"/>
+      <c r="F826" s="16"/>
     </row>
     <row r="827">
-      <c r="C827" s="15"/>
-      <c r="D827" s="15"/>
-      <c r="E827" s="15"/>
-      <c r="F827" s="15"/>
+      <c r="C827" s="16"/>
+      <c r="D827" s="16"/>
+      <c r="E827" s="16"/>
+      <c r="F827" s="16"/>
     </row>
     <row r="828">
-      <c r="C828" s="15"/>
-      <c r="D828" s="15"/>
-      <c r="E828" s="15"/>
-      <c r="F828" s="15"/>
+      <c r="C828" s="16"/>
+      <c r="D828" s="16"/>
+      <c r="E828" s="16"/>
+      <c r="F828" s="16"/>
     </row>
     <row r="829">
-      <c r="C829" s="15"/>
-      <c r="D829" s="15"/>
-      <c r="E829" s="15"/>
-      <c r="F829" s="15"/>
+      <c r="C829" s="16"/>
+      <c r="D829" s="16"/>
+      <c r="E829" s="16"/>
+      <c r="F829" s="16"/>
     </row>
     <row r="830">
-      <c r="C830" s="15"/>
-      <c r="D830" s="15"/>
-      <c r="E830" s="15"/>
-      <c r="F830" s="15"/>
+      <c r="C830" s="16"/>
+      <c r="D830" s="16"/>
+      <c r="E830" s="16"/>
+      <c r="F830" s="16"/>
     </row>
     <row r="831">
-      <c r="C831" s="15"/>
-      <c r="D831" s="15"/>
-      <c r="E831" s="15"/>
-      <c r="F831" s="15"/>
+      <c r="C831" s="16"/>
+      <c r="D831" s="16"/>
+      <c r="E831" s="16"/>
+      <c r="F831" s="16"/>
     </row>
     <row r="832">
-      <c r="C832" s="15"/>
-      <c r="D832" s="15"/>
-      <c r="E832" s="15"/>
-      <c r="F832" s="15"/>
+      <c r="C832" s="16"/>
+      <c r="D832" s="16"/>
+      <c r="E832" s="16"/>
+      <c r="F832" s="16"/>
     </row>
     <row r="833">
-      <c r="C833" s="15"/>
-      <c r="D833" s="15"/>
-      <c r="E833" s="15"/>
-      <c r="F833" s="15"/>
+      <c r="C833" s="16"/>
+      <c r="D833" s="16"/>
+      <c r="E833" s="16"/>
+      <c r="F833" s="16"/>
     </row>
     <row r="834">
-      <c r="C834" s="15"/>
-      <c r="D834" s="15"/>
-      <c r="E834" s="15"/>
-      <c r="F834" s="15"/>
+      <c r="C834" s="16"/>
+      <c r="D834" s="16"/>
+      <c r="E834" s="16"/>
+      <c r="F834" s="16"/>
     </row>
     <row r="835">
-      <c r="C835" s="15"/>
-      <c r="D835" s="15"/>
-      <c r="E835" s="15"/>
-      <c r="F835" s="15"/>
+      <c r="C835" s="16"/>
+      <c r="D835" s="16"/>
+      <c r="E835" s="16"/>
+      <c r="F835" s="16"/>
     </row>
     <row r="836">
-      <c r="C836" s="15"/>
-      <c r="D836" s="15"/>
-      <c r="E836" s="15"/>
-      <c r="F836" s="15"/>
+      <c r="C836" s="16"/>
+      <c r="D836" s="16"/>
+      <c r="E836" s="16"/>
+      <c r="F836" s="16"/>
     </row>
     <row r="837">
-      <c r="C837" s="15"/>
-      <c r="D837" s="15"/>
-      <c r="E837" s="15"/>
-      <c r="F837" s="15"/>
+      <c r="C837" s="16"/>
+      <c r="D837" s="16"/>
+      <c r="E837" s="16"/>
+      <c r="F837" s="16"/>
     </row>
     <row r="838">
-      <c r="C838" s="15"/>
-      <c r="D838" s="15"/>
-      <c r="E838" s="15"/>
-      <c r="F838" s="15"/>
+      <c r="C838" s="16"/>
+      <c r="D838" s="16"/>
+      <c r="E838" s="16"/>
+      <c r="F838" s="16"/>
     </row>
     <row r="839">
-      <c r="C839" s="15"/>
-      <c r="D839" s="15"/>
-      <c r="E839" s="15"/>
-      <c r="F839" s="15"/>
+      <c r="C839" s="16"/>
+      <c r="D839" s="16"/>
+      <c r="E839" s="16"/>
+      <c r="F839" s="16"/>
     </row>
     <row r="840">
-      <c r="C840" s="15"/>
-      <c r="D840" s="15"/>
-      <c r="E840" s="15"/>
-      <c r="F840" s="15"/>
+      <c r="C840" s="16"/>
+      <c r="D840" s="16"/>
+      <c r="E840" s="16"/>
+      <c r="F840" s="16"/>
     </row>
     <row r="841">
-      <c r="C841" s="15"/>
-      <c r="D841" s="15"/>
-      <c r="E841" s="15"/>
-      <c r="F841" s="15"/>
+      <c r="C841" s="16"/>
+      <c r="D841" s="16"/>
+      <c r="E841" s="16"/>
+      <c r="F841" s="16"/>
     </row>
     <row r="842">
-      <c r="C842" s="15"/>
-      <c r="D842" s="15"/>
-      <c r="E842" s="15"/>
-      <c r="F842" s="15"/>
+      <c r="C842" s="16"/>
+      <c r="D842" s="16"/>
+      <c r="E842" s="16"/>
+      <c r="F842" s="16"/>
     </row>
     <row r="843">
-      <c r="C843" s="15"/>
-      <c r="D843" s="15"/>
-      <c r="E843" s="15"/>
-      <c r="F843" s="15"/>
+      <c r="C843" s="16"/>
+      <c r="D843" s="16"/>
+      <c r="E843" s="16"/>
+      <c r="F843" s="16"/>
     </row>
     <row r="844">
-      <c r="C844" s="15"/>
-      <c r="D844" s="15"/>
-      <c r="E844" s="15"/>
-      <c r="F844" s="15"/>
+      <c r="C844" s="16"/>
+      <c r="D844" s="16"/>
+      <c r="E844" s="16"/>
+      <c r="F844" s="16"/>
     </row>
     <row r="845">
-      <c r="C845" s="15"/>
-      <c r="D845" s="15"/>
-      <c r="E845" s="15"/>
-      <c r="F845" s="15"/>
+      <c r="C845" s="16"/>
+      <c r="D845" s="16"/>
+      <c r="E845" s="16"/>
+      <c r="F845" s="16"/>
     </row>
     <row r="846">
-      <c r="C846" s="15"/>
-      <c r="D846" s="15"/>
-      <c r="E846" s="15"/>
-      <c r="F846" s="15"/>
+      <c r="C846" s="16"/>
+      <c r="D846" s="16"/>
+      <c r="E846" s="16"/>
+      <c r="F846" s="16"/>
     </row>
     <row r="847">
-      <c r="C847" s="15"/>
-      <c r="D847" s="15"/>
-      <c r="E847" s="15"/>
-      <c r="F847" s="15"/>
+      <c r="C847" s="16"/>
+      <c r="D847" s="16"/>
+      <c r="E847" s="16"/>
+      <c r="F847" s="16"/>
     </row>
     <row r="848">
-      <c r="C848" s="15"/>
-      <c r="D848" s="15"/>
-      <c r="E848" s="15"/>
-      <c r="F848" s="15"/>
+      <c r="C848" s="16"/>
+      <c r="D848" s="16"/>
+      <c r="E848" s="16"/>
+      <c r="F848" s="16"/>
     </row>
     <row r="849">
-      <c r="C849" s="15"/>
-      <c r="D849" s="15"/>
-      <c r="E849" s="15"/>
-      <c r="F849" s="15"/>
+      <c r="C849" s="16"/>
+      <c r="D849" s="16"/>
+      <c r="E849" s="16"/>
+      <c r="F849" s="16"/>
     </row>
     <row r="850">
-      <c r="C850" s="15"/>
-      <c r="D850" s="15"/>
-      <c r="E850" s="15"/>
-      <c r="F850" s="15"/>
+      <c r="C850" s="16"/>
+      <c r="D850" s="16"/>
+      <c r="E850" s="16"/>
+      <c r="F850" s="16"/>
     </row>
     <row r="851">
-      <c r="C851" s="15"/>
-      <c r="D851" s="15"/>
-      <c r="E851" s="15"/>
-      <c r="F851" s="15"/>
+      <c r="C851" s="16"/>
+      <c r="D851" s="16"/>
+      <c r="E851" s="16"/>
+      <c r="F851" s="16"/>
     </row>
     <row r="852">
-      <c r="C852" s="15"/>
-      <c r="D852" s="15"/>
-      <c r="E852" s="15"/>
-      <c r="F852" s="15"/>
+      <c r="C852" s="16"/>
+      <c r="D852" s="16"/>
+      <c r="E852" s="16"/>
+      <c r="F852" s="16"/>
     </row>
     <row r="853">
-      <c r="C853" s="15"/>
-      <c r="D853" s="15"/>
-      <c r="E853" s="15"/>
-      <c r="F853" s="15"/>
+      <c r="C853" s="16"/>
+      <c r="D853" s="16"/>
+      <c r="E853" s="16"/>
+      <c r="F853" s="16"/>
     </row>
     <row r="854">
-      <c r="C854" s="15"/>
-      <c r="D854" s="15"/>
-      <c r="E854" s="15"/>
-      <c r="F854" s="15"/>
+      <c r="C854" s="16"/>
+      <c r="D854" s="16"/>
+      <c r="E854" s="16"/>
+      <c r="F854" s="16"/>
     </row>
     <row r="855">
-      <c r="C855" s="15"/>
-      <c r="D855" s="15"/>
-      <c r="E855" s="15"/>
-      <c r="F855" s="15"/>
+      <c r="C855" s="16"/>
+      <c r="D855" s="16"/>
+      <c r="E855" s="16"/>
+      <c r="F855" s="16"/>
     </row>
     <row r="856">
-      <c r="C856" s="15"/>
-      <c r="D856" s="15"/>
-      <c r="E856" s="15"/>
-      <c r="F856" s="15"/>
+      <c r="C856" s="16"/>
+      <c r="D856" s="16"/>
+      <c r="E856" s="16"/>
+      <c r="F856" s="16"/>
     </row>
     <row r="857">
-      <c r="C857" s="15"/>
-      <c r="D857" s="15"/>
-      <c r="E857" s="15"/>
-      <c r="F857" s="15"/>
+      <c r="C857" s="16"/>
+      <c r="D857" s="16"/>
+      <c r="E857" s="16"/>
+      <c r="F857" s="16"/>
     </row>
     <row r="858">
-      <c r="C858" s="15"/>
-      <c r="D858" s="15"/>
-      <c r="E858" s="15"/>
-      <c r="F858" s="15"/>
+      <c r="C858" s="16"/>
+      <c r="D858" s="16"/>
+      <c r="E858" s="16"/>
+      <c r="F858" s="16"/>
     </row>
     <row r="859">
-      <c r="C859" s="15"/>
-      <c r="D859" s="15"/>
-      <c r="E859" s="15"/>
-      <c r="F859" s="15"/>
+      <c r="C859" s="16"/>
+      <c r="D859" s="16"/>
+      <c r="E859" s="16"/>
+      <c r="F859" s="16"/>
     </row>
     <row r="860">
-      <c r="C860" s="15"/>
-      <c r="D860" s="15"/>
-      <c r="E860" s="15"/>
-      <c r="F860" s="15"/>
+      <c r="C860" s="16"/>
+      <c r="D860" s="16"/>
+      <c r="E860" s="16"/>
+      <c r="F860" s="16"/>
     </row>
     <row r="861">
-      <c r="C861" s="15"/>
-      <c r="D861" s="15"/>
-      <c r="E861" s="15"/>
-      <c r="F861" s="15"/>
+      <c r="C861" s="16"/>
+      <c r="D861" s="16"/>
+      <c r="E861" s="16"/>
+      <c r="F861" s="16"/>
     </row>
     <row r="862">
-      <c r="C862" s="15"/>
-      <c r="D862" s="15"/>
-      <c r="E862" s="15"/>
-      <c r="F862" s="15"/>
+      <c r="C862" s="16"/>
+      <c r="D862" s="16"/>
+      <c r="E862" s="16"/>
+      <c r="F862" s="16"/>
     </row>
     <row r="863">
-      <c r="C863" s="15"/>
-      <c r="D863" s="15"/>
-      <c r="E863" s="15"/>
-      <c r="F863" s="15"/>
+      <c r="C863" s="16"/>
+      <c r="D863" s="16"/>
+      <c r="E863" s="16"/>
+      <c r="F863" s="16"/>
     </row>
     <row r="864">
-      <c r="C864" s="15"/>
-      <c r="D864" s="15"/>
-      <c r="E864" s="15"/>
-      <c r="F864" s="15"/>
+      <c r="C864" s="16"/>
+      <c r="D864" s="16"/>
+      <c r="E864" s="16"/>
+      <c r="F864" s="16"/>
     </row>
     <row r="865">
-      <c r="C865" s="15"/>
-      <c r="D865" s="15"/>
-      <c r="E865" s="15"/>
-      <c r="F865" s="15"/>
+      <c r="C865" s="16"/>
+      <c r="D865" s="16"/>
+      <c r="E865" s="16"/>
+      <c r="F865" s="16"/>
     </row>
     <row r="866">
-      <c r="C866" s="15"/>
-      <c r="D866" s="15"/>
-      <c r="E866" s="15"/>
-      <c r="F866" s="15"/>
+      <c r="C866" s="16"/>
+      <c r="D866" s="16"/>
+      <c r="E866" s="16"/>
+      <c r="F866" s="16"/>
     </row>
     <row r="867">
-      <c r="C867" s="15"/>
-      <c r="D867" s="15"/>
-      <c r="E867" s="15"/>
-      <c r="F867" s="15"/>
+      <c r="C867" s="16"/>
+      <c r="D867" s="16"/>
+      <c r="E867" s="16"/>
+      <c r="F867" s="16"/>
     </row>
     <row r="868">
-      <c r="C868" s="15"/>
-      <c r="D868" s="15"/>
-      <c r="E868" s="15"/>
-      <c r="F868" s="15"/>
+      <c r="C868" s="16"/>
+      <c r="D868" s="16"/>
+      <c r="E868" s="16"/>
+      <c r="F868" s="16"/>
     </row>
     <row r="869">
-      <c r="C869" s="15"/>
-      <c r="D869" s="15"/>
-      <c r="E869" s="15"/>
-      <c r="F869" s="15"/>
+      <c r="C869" s="16"/>
+      <c r="D869" s="16"/>
+      <c r="E869" s="16"/>
+      <c r="F869" s="16"/>
     </row>
     <row r="870">
-      <c r="C870" s="15"/>
-      <c r="D870" s="15"/>
-      <c r="E870" s="15"/>
-      <c r="F870" s="15"/>
+      <c r="C870" s="16"/>
+      <c r="D870" s="16"/>
+      <c r="E870" s="16"/>
+      <c r="F870" s="16"/>
     </row>
     <row r="871">
-      <c r="C871" s="15"/>
-      <c r="D871" s="15"/>
-      <c r="E871" s="15"/>
-      <c r="F871" s="15"/>
+      <c r="C871" s="16"/>
+      <c r="D871" s="16"/>
+      <c r="E871" s="16"/>
+      <c r="F871" s="16"/>
     </row>
     <row r="872">
-      <c r="C872" s="15"/>
-      <c r="D872" s="15"/>
-      <c r="E872" s="15"/>
-      <c r="F872" s="15"/>
+      <c r="C872" s="16"/>
+      <c r="D872" s="16"/>
+      <c r="E872" s="16"/>
+      <c r="F872" s="16"/>
     </row>
     <row r="873">
-      <c r="C873" s="15"/>
-      <c r="D873" s="15"/>
-      <c r="E873" s="15"/>
-      <c r="F873" s="15"/>
+      <c r="C873" s="16"/>
+      <c r="D873" s="16"/>
+      <c r="E873" s="16"/>
+      <c r="F873" s="16"/>
     </row>
     <row r="874">
-      <c r="C874" s="15"/>
-      <c r="D874" s="15"/>
-      <c r="E874" s="15"/>
-      <c r="F874" s="15"/>
+      <c r="C874" s="16"/>
+      <c r="D874" s="16"/>
+      <c r="E874" s="16"/>
+      <c r="F874" s="16"/>
     </row>
     <row r="875">
-      <c r="C875" s="15"/>
-      <c r="D875" s="15"/>
-      <c r="E875" s="15"/>
-      <c r="F875" s="15"/>
+      <c r="C875" s="16"/>
+      <c r="D875" s="16"/>
+      <c r="E875" s="16"/>
+      <c r="F875" s="16"/>
     </row>
     <row r="876">
-      <c r="C876" s="15"/>
-      <c r="D876" s="15"/>
-      <c r="E876" s="15"/>
-      <c r="F876" s="15"/>
+      <c r="C876" s="16"/>
+      <c r="D876" s="16"/>
+      <c r="E876" s="16"/>
+      <c r="F876" s="16"/>
     </row>
     <row r="877">
-      <c r="C877" s="15"/>
-      <c r="D877" s="15"/>
-      <c r="E877" s="15"/>
-      <c r="F877" s="15"/>
+      <c r="C877" s="16"/>
+      <c r="D877" s="16"/>
+      <c r="E877" s="16"/>
+      <c r="F877" s="16"/>
     </row>
     <row r="878">
-      <c r="C878" s="15"/>
-      <c r="D878" s="15"/>
-      <c r="E878" s="15"/>
-      <c r="F878" s="15"/>
+      <c r="C878" s="16"/>
+      <c r="D878" s="16"/>
+      <c r="E878" s="16"/>
+      <c r="F878" s="16"/>
     </row>
     <row r="879">
-      <c r="C879" s="15"/>
-      <c r="D879" s="15"/>
-      <c r="E879" s="15"/>
-      <c r="F879" s="15"/>
+      <c r="C879" s="16"/>
+      <c r="D879" s="16"/>
+      <c r="E879" s="16"/>
+      <c r="F879" s="16"/>
     </row>
     <row r="880">
-      <c r="C880" s="15"/>
-      <c r="D880" s="15"/>
-      <c r="E880" s="15"/>
-      <c r="F880" s="15"/>
+      <c r="C880" s="16"/>
+      <c r="D880" s="16"/>
+      <c r="E880" s="16"/>
+      <c r="F880" s="16"/>
     </row>
     <row r="881">
-      <c r="C881" s="15"/>
-      <c r="D881" s="15"/>
-      <c r="E881" s="15"/>
-      <c r="F881" s="15"/>
+      <c r="C881" s="16"/>
+      <c r="D881" s="16"/>
+      <c r="E881" s="16"/>
+      <c r="F881" s="16"/>
     </row>
     <row r="882">
-      <c r="C882" s="15"/>
-      <c r="D882" s="15"/>
-      <c r="E882" s="15"/>
-      <c r="F882" s="15"/>
+      <c r="C882" s="16"/>
+      <c r="D882" s="16"/>
+      <c r="E882" s="16"/>
+      <c r="F882" s="16"/>
     </row>
     <row r="883">
-      <c r="C883" s="15"/>
-      <c r="D883" s="15"/>
-      <c r="E883" s="15"/>
-      <c r="F883" s="15"/>
+      <c r="C883" s="16"/>
+      <c r="D883" s="16"/>
+      <c r="E883" s="16"/>
+      <c r="F883" s="16"/>
     </row>
     <row r="884">
-      <c r="C884" s="15"/>
-      <c r="D884" s="15"/>
-      <c r="E884" s="15"/>
-      <c r="F884" s="15"/>
+      <c r="C884" s="16"/>
+      <c r="D884" s="16"/>
+      <c r="E884" s="16"/>
+      <c r="F884" s="16"/>
     </row>
     <row r="885">
-      <c r="C885" s="15"/>
-      <c r="D885" s="15"/>
-      <c r="E885" s="15"/>
-      <c r="F885" s="15"/>
+      <c r="C885" s="16"/>
+      <c r="D885" s="16"/>
+      <c r="E885" s="16"/>
+      <c r="F885" s="16"/>
     </row>
     <row r="886">
-      <c r="C886" s="15"/>
-      <c r="D886" s="15"/>
-      <c r="E886" s="15"/>
-      <c r="F886" s="15"/>
+      <c r="C886" s="16"/>
+      <c r="D886" s="16"/>
+      <c r="E886" s="16"/>
+      <c r="F886" s="16"/>
     </row>
     <row r="887">
-      <c r="C887" s="15"/>
-      <c r="D887" s="15"/>
-      <c r="E887" s="15"/>
-      <c r="F887" s="15"/>
+      <c r="C887" s="16"/>
+      <c r="D887" s="16"/>
+      <c r="E887" s="16"/>
+      <c r="F887" s="16"/>
     </row>
     <row r="888">
-      <c r="C888" s="15"/>
-      <c r="D888" s="15"/>
-      <c r="E888" s="15"/>
-      <c r="F888" s="15"/>
+      <c r="C888" s="16"/>
+      <c r="D888" s="16"/>
+      <c r="E888" s="16"/>
+      <c r="F888" s="16"/>
     </row>
     <row r="889">
-      <c r="C889" s="15"/>
-      <c r="D889" s="15"/>
-      <c r="E889" s="15"/>
-      <c r="F889" s="15"/>
+      <c r="C889" s="16"/>
+      <c r="D889" s="16"/>
+      <c r="E889" s="16"/>
+      <c r="F889" s="16"/>
     </row>
     <row r="890">
-      <c r="C890" s="15"/>
-      <c r="D890" s="15"/>
-      <c r="E890" s="15"/>
-      <c r="F890" s="15"/>
+      <c r="C890" s="16"/>
+      <c r="D890" s="16"/>
+      <c r="E890" s="16"/>
+      <c r="F890" s="16"/>
     </row>
     <row r="891">
-      <c r="C891" s="15"/>
-      <c r="D891" s="15"/>
-      <c r="E891" s="15"/>
-      <c r="F891" s="15"/>
+      <c r="C891" s="16"/>
+      <c r="D891" s="16"/>
+      <c r="E891" s="16"/>
+      <c r="F891" s="16"/>
     </row>
     <row r="892">
-      <c r="C892" s="15"/>
-      <c r="D892" s="15"/>
-      <c r="E892" s="15"/>
-      <c r="F892" s="15"/>
+      <c r="C892" s="16"/>
+      <c r="D892" s="16"/>
+      <c r="E892" s="16"/>
+      <c r="F892" s="16"/>
     </row>
     <row r="893">
-      <c r="C893" s="15"/>
-      <c r="D893" s="15"/>
-      <c r="E893" s="15"/>
-      <c r="F893" s="15"/>
+      <c r="C893" s="16"/>
+      <c r="D893" s="16"/>
+      <c r="E893" s="16"/>
+      <c r="F893" s="16"/>
     </row>
     <row r="894">
-      <c r="C894" s="15"/>
-      <c r="D894" s="15"/>
-      <c r="E894" s="15"/>
-      <c r="F894" s="15"/>
+      <c r="C894" s="16"/>
+      <c r="D894" s="16"/>
+      <c r="E894" s="16"/>
+      <c r="F894" s="16"/>
     </row>
     <row r="895">
-      <c r="C895" s="15"/>
-      <c r="D895" s="15"/>
-      <c r="E895" s="15"/>
-      <c r="F895" s="15"/>
+      <c r="C895" s="16"/>
+      <c r="D895" s="16"/>
+      <c r="E895" s="16"/>
+      <c r="F895" s="16"/>
     </row>
     <row r="896">
-      <c r="C896" s="15"/>
-      <c r="D896" s="15"/>
-      <c r="E896" s="15"/>
-      <c r="F896" s="15"/>
+      <c r="C896" s="16"/>
+      <c r="D896" s="16"/>
+      <c r="E896" s="16"/>
+      <c r="F896" s="16"/>
     </row>
     <row r="897">
-      <c r="C897" s="15"/>
-      <c r="D897" s="15"/>
-      <c r="E897" s="15"/>
-      <c r="F897" s="15"/>
+      <c r="C897" s="16"/>
+      <c r="D897" s="16"/>
+      <c r="E897" s="16"/>
+      <c r="F897" s="16"/>
     </row>
     <row r="898">
-      <c r="C898" s="15"/>
-      <c r="D898" s="15"/>
-      <c r="E898" s="15"/>
-      <c r="F898" s="15"/>
+      <c r="C898" s="16"/>
+      <c r="D898" s="16"/>
+      <c r="E898" s="16"/>
+      <c r="F898" s="16"/>
     </row>
     <row r="899">
-      <c r="C899" s="15"/>
-      <c r="D899" s="15"/>
-      <c r="E899" s="15"/>
-      <c r="F899" s="15"/>
+      <c r="C899" s="16"/>
+      <c r="D899" s="16"/>
+      <c r="E899" s="16"/>
+      <c r="F899" s="16"/>
     </row>
     <row r="900">
-      <c r="C900" s="15"/>
-      <c r="D900" s="15"/>
-      <c r="E900" s="15"/>
-      <c r="F900" s="15"/>
+      <c r="C900" s="16"/>
+      <c r="D900" s="16"/>
+      <c r="E900" s="16"/>
+      <c r="F900" s="16"/>
     </row>
     <row r="901">
-      <c r="C901" s="15"/>
-      <c r="D901" s="15"/>
-      <c r="E901" s="15"/>
-      <c r="F901" s="15"/>
+      <c r="C901" s="16"/>
+      <c r="D901" s="16"/>
+      <c r="E901" s="16"/>
+      <c r="F901" s="16"/>
     </row>
     <row r="902">
-      <c r="C902" s="15"/>
-      <c r="D902" s="15"/>
-      <c r="E902" s="15"/>
-      <c r="F902" s="15"/>
+      <c r="C902" s="16"/>
+      <c r="D902" s="16"/>
+      <c r="E902" s="16"/>
+      <c r="F902" s="16"/>
     </row>
     <row r="903">
-      <c r="C903" s="15"/>
-      <c r="D903" s="15"/>
-      <c r="E903" s="15"/>
-      <c r="F903" s="15"/>
+      <c r="C903" s="16"/>
+      <c r="D903" s="16"/>
+      <c r="E903" s="16"/>
+      <c r="F903" s="16"/>
     </row>
     <row r="904">
-      <c r="C904" s="15"/>
-      <c r="D904" s="15"/>
-      <c r="E904" s="15"/>
-      <c r="F904" s="15"/>
+      <c r="C904" s="16"/>
+      <c r="D904" s="16"/>
+      <c r="E904" s="16"/>
+      <c r="F904" s="16"/>
     </row>
     <row r="905">
-      <c r="C905" s="15"/>
-      <c r="D905" s="15"/>
-      <c r="E905" s="15"/>
-      <c r="F905" s="15"/>
+      <c r="C905" s="16"/>
+      <c r="D905" s="16"/>
+      <c r="E905" s="16"/>
+      <c r="F905" s="16"/>
     </row>
     <row r="906">
-      <c r="C906" s="15"/>
-      <c r="D906" s="15"/>
-      <c r="E906" s="15"/>
-      <c r="F906" s="15"/>
+      <c r="C906" s="16"/>
+      <c r="D906" s="16"/>
+      <c r="E906" s="16"/>
+      <c r="F906" s="16"/>
     </row>
     <row r="907">
-      <c r="C907" s="15"/>
-      <c r="D907" s="15"/>
-      <c r="E907" s="15"/>
-      <c r="F907" s="15"/>
+      <c r="C907" s="16"/>
+      <c r="D907" s="16"/>
+      <c r="E907" s="16"/>
+      <c r="F907" s="16"/>
     </row>
     <row r="908">
-      <c r="C908" s="15"/>
-      <c r="D908" s="15"/>
-      <c r="E908" s="15"/>
-      <c r="F908" s="15"/>
+      <c r="C908" s="16"/>
+      <c r="D908" s="16"/>
+      <c r="E908" s="16"/>
+      <c r="F908" s="16"/>
     </row>
     <row r="909">
-      <c r="C909" s="15"/>
-      <c r="D909" s="15"/>
-      <c r="E909" s="15"/>
-      <c r="F909" s="15"/>
+      <c r="C909" s="16"/>
+      <c r="D909" s="16"/>
+      <c r="E909" s="16"/>
+      <c r="F909" s="16"/>
     </row>
     <row r="910">
-      <c r="C910" s="15"/>
-      <c r="D910" s="15"/>
-      <c r="E910" s="15"/>
-      <c r="F910" s="15"/>
+      <c r="C910" s="16"/>
+      <c r="D910" s="16"/>
+      <c r="E910" s="16"/>
+      <c r="F910" s="16"/>
     </row>
     <row r="911">
-      <c r="C911" s="15"/>
-      <c r="D911" s="15"/>
-      <c r="E911" s="15"/>
-      <c r="F911" s="15"/>
+      <c r="C911" s="16"/>
+      <c r="D911" s="16"/>
+      <c r="E911" s="16"/>
+      <c r="F911" s="16"/>
     </row>
     <row r="912">
-      <c r="C912" s="15"/>
-      <c r="D912" s="15"/>
-      <c r="E912" s="15"/>
-      <c r="F912" s="15"/>
+      <c r="C912" s="16"/>
+      <c r="D912" s="16"/>
+      <c r="E912" s="16"/>
+      <c r="F912" s="16"/>
     </row>
     <row r="913">
-      <c r="C913" s="15"/>
-      <c r="D913" s="15"/>
-      <c r="E913" s="15"/>
-      <c r="F913" s="15"/>
+      <c r="C913" s="16"/>
+      <c r="D913" s="16"/>
+      <c r="E913" s="16"/>
+      <c r="F913" s="16"/>
     </row>
     <row r="914">
-      <c r="C914" s="15"/>
-      <c r="D914" s="15"/>
-      <c r="E914" s="15"/>
-      <c r="F914" s="15"/>
+      <c r="C914" s="16"/>
+      <c r="D914" s="16"/>
+      <c r="E914" s="16"/>
+      <c r="F914" s="16"/>
     </row>
     <row r="915">
-      <c r="C915" s="15"/>
-      <c r="D915" s="15"/>
-      <c r="E915" s="15"/>
-      <c r="F915" s="15"/>
+      <c r="C915" s="16"/>
+      <c r="D915" s="16"/>
+      <c r="E915" s="16"/>
+      <c r="F915" s="16"/>
     </row>
     <row r="916">
-      <c r="C916" s="15"/>
-      <c r="D916" s="15"/>
-      <c r="E916" s="15"/>
-      <c r="F916" s="15"/>
+      <c r="C916" s="16"/>
+      <c r="D916" s="16"/>
+      <c r="E916" s="16"/>
+      <c r="F916" s="16"/>
     </row>
     <row r="917">
-      <c r="C917" s="15"/>
-      <c r="D917" s="15"/>
-      <c r="E917" s="15"/>
-      <c r="F917" s="15"/>
+      <c r="C917" s="16"/>
+      <c r="D917" s="16"/>
+      <c r="E917" s="16"/>
+      <c r="F917" s="16"/>
     </row>
     <row r="918">
-      <c r="C918" s="15"/>
-      <c r="D918" s="15"/>
-      <c r="E918" s="15"/>
-      <c r="F918" s="15"/>
+      <c r="C918" s="16"/>
+      <c r="D918" s="16"/>
+      <c r="E918" s="16"/>
+      <c r="F918" s="16"/>
     </row>
     <row r="919">
-      <c r="C919" s="15"/>
-      <c r="D919" s="15"/>
-      <c r="E919" s="15"/>
-      <c r="F919" s="15"/>
+      <c r="C919" s="16"/>
+      <c r="D919" s="16"/>
+      <c r="E919" s="16"/>
+      <c r="F919" s="16"/>
     </row>
     <row r="920">
-      <c r="C920" s="15"/>
-      <c r="D920" s="15"/>
-      <c r="E920" s="15"/>
-      <c r="F920" s="15"/>
+      <c r="C920" s="16"/>
+      <c r="D920" s="16"/>
+      <c r="E920" s="16"/>
+      <c r="F920" s="16"/>
     </row>
     <row r="921">
-      <c r="C921" s="15"/>
-      <c r="D921" s="15"/>
-      <c r="E921" s="15"/>
-      <c r="F921" s="15"/>
+      <c r="C921" s="16"/>
+      <c r="D921" s="16"/>
+      <c r="E921" s="16"/>
+      <c r="F921" s="16"/>
     </row>
     <row r="922">
-      <c r="C922" s="15"/>
-      <c r="D922" s="15"/>
-      <c r="E922" s="15"/>
-      <c r="F922" s="15"/>
+      <c r="C922" s="16"/>
+      <c r="D922" s="16"/>
+      <c r="E922" s="16"/>
+      <c r="F922" s="16"/>
     </row>
     <row r="923">
-      <c r="C923" s="15"/>
-      <c r="D923" s="15"/>
-      <c r="E923" s="15"/>
-      <c r="F923" s="15"/>
+      <c r="C923" s="16"/>
+      <c r="D923" s="16"/>
+      <c r="E923" s="16"/>
+      <c r="F923" s="16"/>
     </row>
     <row r="924">
-      <c r="C924" s="15"/>
-      <c r="D924" s="15"/>
-      <c r="E924" s="15"/>
-      <c r="F924" s="15"/>
+      <c r="C924" s="16"/>
+      <c r="D924" s="16"/>
+      <c r="E924" s="16"/>
+      <c r="F924" s="16"/>
     </row>
     <row r="925">
-      <c r="C925" s="15"/>
-      <c r="D925" s="15"/>
-      <c r="E925" s="15"/>
-      <c r="F925" s="15"/>
+      <c r="C925" s="16"/>
+      <c r="D925" s="16"/>
+      <c r="E925" s="16"/>
+      <c r="F925" s="16"/>
     </row>
     <row r="926">
-      <c r="C926" s="15"/>
-      <c r="D926" s="15"/>
-      <c r="E926" s="15"/>
-      <c r="F926" s="15"/>
+      <c r="C926" s="16"/>
+      <c r="D926" s="16"/>
+      <c r="E926" s="16"/>
+      <c r="F926" s="16"/>
     </row>
     <row r="927">
-      <c r="C927" s="15"/>
-      <c r="D927" s="15"/>
-      <c r="E927" s="15"/>
-      <c r="F927" s="15"/>
+      <c r="C927" s="16"/>
+      <c r="D927" s="16"/>
+      <c r="E927" s="16"/>
+      <c r="F927" s="16"/>
     </row>
     <row r="928">
-      <c r="C928" s="15"/>
-      <c r="D928" s="15"/>
-      <c r="E928" s="15"/>
-      <c r="F928" s="15"/>
+      <c r="C928" s="16"/>
+      <c r="D928" s="16"/>
+      <c r="E928" s="16"/>
+      <c r="F928" s="16"/>
     </row>
     <row r="929">
-      <c r="C929" s="15"/>
-      <c r="D929" s="15"/>
-      <c r="E929" s="15"/>
-      <c r="F929" s="15"/>
+      <c r="C929" s="16"/>
+      <c r="D929" s="16"/>
+      <c r="E929" s="16"/>
+      <c r="F929" s="16"/>
     </row>
     <row r="930">
-      <c r="C930" s="15"/>
-      <c r="D930" s="15"/>
-      <c r="E930" s="15"/>
-      <c r="F930" s="15"/>
+      <c r="C930" s="16"/>
+      <c r="D930" s="16"/>
+      <c r="E930" s="16"/>
+      <c r="F930" s="16"/>
     </row>
     <row r="931">
-      <c r="C931" s="15"/>
-      <c r="D931" s="15"/>
-      <c r="E931" s="15"/>
-      <c r="F931" s="15"/>
+      <c r="C931" s="16"/>
+      <c r="D931" s="16"/>
+      <c r="E931" s="16"/>
+      <c r="F931" s="16"/>
     </row>
     <row r="932">
-      <c r="C932" s="15"/>
-      <c r="D932" s="15"/>
-      <c r="E932" s="15"/>
-      <c r="F932" s="15"/>
+      <c r="C932" s="16"/>
+      <c r="D932" s="16"/>
+      <c r="E932" s="16"/>
+      <c r="F932" s="16"/>
     </row>
     <row r="933">
-      <c r="C933" s="15"/>
-      <c r="D933" s="15"/>
-      <c r="E933" s="15"/>
-      <c r="F933" s="15"/>
+      <c r="C933" s="16"/>
+      <c r="D933" s="16"/>
+      <c r="E933" s="16"/>
+      <c r="F933" s="16"/>
     </row>
     <row r="934">
-      <c r="C934" s="15"/>
-      <c r="D934" s="15"/>
-      <c r="E934" s="15"/>
-      <c r="F934" s="15"/>
+      <c r="C934" s="16"/>
+      <c r="D934" s="16"/>
+      <c r="E934" s="16"/>
+      <c r="F934" s="16"/>
     </row>
     <row r="935">
-      <c r="C935" s="15"/>
-      <c r="D935" s="15"/>
-      <c r="E935" s="15"/>
-      <c r="F935" s="15"/>
+      <c r="C935" s="16"/>
+      <c r="D935" s="16"/>
+      <c r="E935" s="16"/>
+      <c r="F935" s="16"/>
     </row>
     <row r="936">
-      <c r="C936" s="15"/>
-      <c r="D936" s="15"/>
-      <c r="E936" s="15"/>
-      <c r="F936" s="15"/>
+      <c r="C936" s="16"/>
+      <c r="D936" s="16"/>
+      <c r="E936" s="16"/>
+      <c r="F936" s="16"/>
     </row>
     <row r="937">
-      <c r="C937" s="15"/>
-      <c r="D937" s="15"/>
-      <c r="E937" s="15"/>
-      <c r="F937" s="15"/>
+      <c r="C937" s="16"/>
+      <c r="D937" s="16"/>
+      <c r="E937" s="16"/>
+      <c r="F937" s="16"/>
     </row>
     <row r="938">
-      <c r="C938" s="15"/>
-      <c r="D938" s="15"/>
-      <c r="E938" s="15"/>
-      <c r="F938" s="15"/>
+      <c r="C938" s="16"/>
+      <c r="D938" s="16"/>
+      <c r="E938" s="16"/>
+      <c r="F938" s="16"/>
     </row>
     <row r="939">
-      <c r="C939" s="15"/>
-      <c r="D939" s="15"/>
-      <c r="E939" s="15"/>
-      <c r="F939" s="15"/>
+      <c r="C939" s="16"/>
+      <c r="D939" s="16"/>
+      <c r="E939" s="16"/>
+      <c r="F939" s="16"/>
     </row>
     <row r="940">
-      <c r="C940" s="15"/>
-      <c r="D940" s="15"/>
-      <c r="E940" s="15"/>
-      <c r="F940" s="15"/>
+      <c r="C940" s="16"/>
+      <c r="D940" s="16"/>
+      <c r="E940" s="16"/>
+      <c r="F940" s="16"/>
     </row>
     <row r="941">
-      <c r="C941" s="15"/>
-      <c r="D941" s="15"/>
-      <c r="E941" s="15"/>
-      <c r="F941" s="15"/>
+      <c r="C941" s="16"/>
+      <c r="D941" s="16"/>
+      <c r="E941" s="16"/>
+      <c r="F941" s="16"/>
     </row>
     <row r="942">
-      <c r="C942" s="15"/>
-      <c r="D942" s="15"/>
-      <c r="E942" s="15"/>
-      <c r="F942" s="15"/>
+      <c r="C942" s="16"/>
+      <c r="D942" s="16"/>
+      <c r="E942" s="16"/>
+      <c r="F942" s="16"/>
     </row>
     <row r="943">
-      <c r="C943" s="15"/>
-      <c r="D943" s="15"/>
-      <c r="E943" s="15"/>
-      <c r="F943" s="15"/>
+      <c r="C943" s="16"/>
+      <c r="D943" s="16"/>
+      <c r="E943" s="16"/>
+      <c r="F943" s="16"/>
     </row>
     <row r="944">
-      <c r="C944" s="15"/>
-      <c r="D944" s="15"/>
-      <c r="E944" s="15"/>
-      <c r="F944" s="15"/>
+      <c r="C944" s="16"/>
+      <c r="D944" s="16"/>
+      <c r="E944" s="16"/>
+      <c r="F944" s="16"/>
     </row>
     <row r="945">
-      <c r="C945" s="15"/>
-      <c r="D945" s="15"/>
-      <c r="E945" s="15"/>
-      <c r="F945" s="15"/>
+      <c r="C945" s="16"/>
+      <c r="D945" s="16"/>
+      <c r="E945" s="16"/>
+      <c r="F945" s="16"/>
     </row>
     <row r="946">
-      <c r="C946" s="15"/>
-      <c r="D946" s="15"/>
-      <c r="E946" s="15"/>
-      <c r="F946" s="15"/>
+      <c r="C946" s="16"/>
+      <c r="D946" s="16"/>
+      <c r="E946" s="16"/>
+      <c r="F946" s="16"/>
     </row>
     <row r="947">
-      <c r="C947" s="15"/>
-      <c r="D947" s="15"/>
-      <c r="E947" s="15"/>
-      <c r="F947" s="15"/>
+      <c r="C947" s="16"/>
+      <c r="D947" s="16"/>
+      <c r="E947" s="16"/>
+      <c r="F947" s="16"/>
     </row>
     <row r="948">
-      <c r="C948" s="15"/>
-      <c r="D948" s="15"/>
-      <c r="E948" s="15"/>
-      <c r="F948" s="15"/>
+      <c r="C948" s="16"/>
+      <c r="D948" s="16"/>
+      <c r="E948" s="16"/>
+      <c r="F948" s="16"/>
     </row>
     <row r="949">
-      <c r="C949" s="15"/>
-      <c r="D949" s="15"/>
-      <c r="E949" s="15"/>
-      <c r="F949" s="15"/>
+      <c r="C949" s="16"/>
+      <c r="D949" s="16"/>
+      <c r="E949" s="16"/>
+      <c r="F949" s="16"/>
     </row>
     <row r="950">
-      <c r="C950" s="15"/>
-      <c r="D950" s="15"/>
-      <c r="E950" s="15"/>
-      <c r="F950" s="15"/>
+      <c r="C950" s="16"/>
+      <c r="D950" s="16"/>
+      <c r="E950" s="16"/>
+      <c r="F950" s="16"/>
     </row>
     <row r="951">
-      <c r="C951" s="15"/>
-      <c r="D951" s="15"/>
-      <c r="E951" s="15"/>
-      <c r="F951" s="15"/>
+      <c r="C951" s="16"/>
+      <c r="D951" s="16"/>
+      <c r="E951" s="16"/>
+      <c r="F951" s="16"/>
     </row>
     <row r="952">
-      <c r="C952" s="15"/>
-      <c r="D952" s="15"/>
-      <c r="E952" s="15"/>
-      <c r="F952" s="15"/>
+      <c r="C952" s="16"/>
+      <c r="D952" s="16"/>
+      <c r="E952" s="16"/>
+      <c r="F952" s="16"/>
     </row>
     <row r="953">
-      <c r="C953" s="15"/>
-      <c r="D953" s="15"/>
-      <c r="E953" s="15"/>
-      <c r="F953" s="15"/>
+      <c r="C953" s="16"/>
+      <c r="D953" s="16"/>
+      <c r="E953" s="16"/>
+      <c r="F953" s="16"/>
     </row>
     <row r="954">
-      <c r="C954" s="15"/>
-      <c r="D954" s="15"/>
-      <c r="E954" s="15"/>
-      <c r="F954" s="15"/>
+      <c r="C954" s="16"/>
+      <c r="D954" s="16"/>
+      <c r="E954" s="16"/>
+      <c r="F954" s="16"/>
     </row>
     <row r="955">
-      <c r="C955" s="15"/>
-      <c r="D955" s="15"/>
-      <c r="E955" s="15"/>
-      <c r="F955" s="15"/>
+      <c r="C955" s="16"/>
+      <c r="D955" s="16"/>
+      <c r="E955" s="16"/>
+      <c r="F955" s="16"/>
     </row>
     <row r="956">
-      <c r="C956" s="15"/>
-      <c r="D956" s="15"/>
-      <c r="E956" s="15"/>
-      <c r="F956" s="15"/>
+      <c r="C956" s="16"/>
+      <c r="D956" s="16"/>
+      <c r="E956" s="16"/>
+      <c r="F956" s="16"/>
     </row>
     <row r="957">
-      <c r="C957" s="15"/>
-      <c r="D957" s="15"/>
-      <c r="E957" s="15"/>
-      <c r="F957" s="15"/>
+      <c r="C957" s="16"/>
+      <c r="D957" s="16"/>
+      <c r="E957" s="16"/>
+      <c r="F957" s="16"/>
     </row>
     <row r="958">
-      <c r="C958" s="15"/>
-      <c r="D958" s="15"/>
-      <c r="E958" s="15"/>
-      <c r="F958" s="15"/>
+      <c r="C958" s="16"/>
+      <c r="D958" s="16"/>
+      <c r="E958" s="16"/>
+      <c r="F958" s="16"/>
     </row>
     <row r="959">
-      <c r="C959" s="15"/>
-      <c r="D959" s="15"/>
-      <c r="E959" s="15"/>
-      <c r="F959" s="15"/>
+      <c r="C959" s="16"/>
+      <c r="D959" s="16"/>
+      <c r="E959" s="16"/>
+      <c r="F959" s="16"/>
     </row>
     <row r="960">
-      <c r="C960" s="15"/>
-      <c r="D960" s="15"/>
-      <c r="E960" s="15"/>
-      <c r="F960" s="15"/>
+      <c r="C960" s="16"/>
+      <c r="D960" s="16"/>
+      <c r="E960" s="16"/>
+      <c r="F960" s="16"/>
     </row>
     <row r="961">
-      <c r="C961" s="15"/>
-      <c r="D961" s="15"/>
-      <c r="E961" s="15"/>
-      <c r="F961" s="15"/>
+      <c r="C961" s="16"/>
+      <c r="D961" s="16"/>
+      <c r="E961" s="16"/>
+      <c r="F961" s="16"/>
     </row>
     <row r="962">
-      <c r="C962" s="15"/>
-      <c r="D962" s="15"/>
-      <c r="E962" s="15"/>
-      <c r="F962" s="15"/>
+      <c r="C962" s="16"/>
+      <c r="D962" s="16"/>
+      <c r="E962" s="16"/>
+      <c r="F962" s="16"/>
     </row>
     <row r="963">
-      <c r="C963" s="15"/>
-      <c r="D963" s="15"/>
-      <c r="E963" s="15"/>
-      <c r="F963" s="15"/>
+      <c r="C963" s="16"/>
+      <c r="D963" s="16"/>
+      <c r="E963" s="16"/>
+      <c r="F963" s="16"/>
     </row>
     <row r="964">
-      <c r="C964" s="15"/>
-      <c r="D964" s="15"/>
-      <c r="E964" s="15"/>
-      <c r="F964" s="15"/>
+      <c r="C964" s="16"/>
+      <c r="D964" s="16"/>
+      <c r="E964" s="16"/>
+      <c r="F964" s="16"/>
     </row>
     <row r="965">
-      <c r="C965" s="15"/>
-      <c r="D965" s="15"/>
-      <c r="E965" s="15"/>
-      <c r="F965" s="15"/>
+      <c r="C965" s="16"/>
+      <c r="D965" s="16"/>
+      <c r="E965" s="16"/>
+      <c r="F965" s="16"/>
     </row>
     <row r="966">
-      <c r="C966" s="15"/>
-      <c r="D966" s="15"/>
-      <c r="E966" s="15"/>
-      <c r="F966" s="15"/>
+      <c r="C966" s="16"/>
+      <c r="D966" s="16"/>
+      <c r="E966" s="16"/>
+      <c r="F966" s="16"/>
     </row>
     <row r="967">
-      <c r="C967" s="15"/>
-      <c r="D967" s="15"/>
-      <c r="E967" s="15"/>
-      <c r="F967" s="15"/>
+      <c r="C967" s="16"/>
+      <c r="D967" s="16"/>
+      <c r="E967" s="16"/>
+      <c r="F967" s="16"/>
     </row>
     <row r="968">
-      <c r="C968" s="15"/>
-      <c r="D968" s="15"/>
-      <c r="E968" s="15"/>
-      <c r="F968" s="15"/>
+      <c r="C968" s="16"/>
+      <c r="D968" s="16"/>
+      <c r="E968" s="16"/>
+      <c r="F968" s="16"/>
     </row>
     <row r="969">
-      <c r="C969" s="15"/>
-      <c r="D969" s="15"/>
-      <c r="E969" s="15"/>
-      <c r="F969" s="15"/>
+      <c r="C969" s="16"/>
+      <c r="D969" s="16"/>
+      <c r="E969" s="16"/>
+      <c r="F969" s="16"/>
     </row>
     <row r="970">
-      <c r="C970" s="15"/>
-      <c r="D970" s="15"/>
-      <c r="E970" s="15"/>
-      <c r="F970" s="15"/>
+      <c r="C970" s="16"/>
+      <c r="D970" s="16"/>
+      <c r="E970" s="16"/>
+      <c r="F970" s="16"/>
     </row>
     <row r="971">
-      <c r="C971" s="15"/>
-      <c r="D971" s="15"/>
-      <c r="E971" s="15"/>
-      <c r="F971" s="15"/>
+      <c r="C971" s="16"/>
+      <c r="D971" s="16"/>
+      <c r="E971" s="16"/>
+      <c r="F971" s="16"/>
     </row>
     <row r="972">
-      <c r="C972" s="15"/>
-      <c r="D972" s="15"/>
-      <c r="E972" s="15"/>
-      <c r="F972" s="15"/>
+      <c r="C972" s="16"/>
+      <c r="D972" s="16"/>
+      <c r="E972" s="16"/>
+      <c r="F972" s="16"/>
     </row>
     <row r="973">
-      <c r="C973" s="15"/>
-      <c r="D973" s="15"/>
-      <c r="E973" s="15"/>
-      <c r="F973" s="15"/>
+      <c r="C973" s="16"/>
+      <c r="D973" s="16"/>
+      <c r="E973" s="16"/>
+      <c r="F973" s="16"/>
     </row>
     <row r="974">
-      <c r="C974" s="15"/>
-      <c r="D974" s="15"/>
-      <c r="E974" s="15"/>
-      <c r="F974" s="15"/>
+      <c r="C974" s="16"/>
+      <c r="D974" s="16"/>
+      <c r="E974" s="16"/>
+      <c r="F974" s="16"/>
     </row>
     <row r="975">
-      <c r="C975" s="15"/>
-      <c r="D975" s="15"/>
-      <c r="E975" s="15"/>
-      <c r="F975" s="15"/>
+      <c r="C975" s="16"/>
+      <c r="D975" s="16"/>
+      <c r="E975" s="16"/>
+      <c r="F975" s="16"/>
     </row>
     <row r="976">
-      <c r="C976" s="15"/>
-      <c r="D976" s="15"/>
-      <c r="E976" s="15"/>
-      <c r="F976" s="15"/>
+      <c r="C976" s="16"/>
+      <c r="D976" s="16"/>
+      <c r="E976" s="16"/>
+      <c r="F976" s="16"/>
     </row>
     <row r="977">
-      <c r="C977" s="15"/>
-      <c r="D977" s="15"/>
-      <c r="E977" s="15"/>
-      <c r="F977" s="15"/>
+      <c r="C977" s="16"/>
+      <c r="D977" s="16"/>
+      <c r="E977" s="16"/>
+      <c r="F977" s="16"/>
     </row>
     <row r="978">
-      <c r="C978" s="15"/>
-      <c r="D978" s="15"/>
-      <c r="E978" s="15"/>
-      <c r="F978" s="15"/>
+      <c r="C978" s="16"/>
+      <c r="D978" s="16"/>
+      <c r="E978" s="16"/>
+      <c r="F978" s="16"/>
     </row>
     <row r="979">
-      <c r="C979" s="15"/>
-      <c r="D979" s="15"/>
-      <c r="E979" s="15"/>
-      <c r="F979" s="15"/>
+      <c r="C979" s="16"/>
+      <c r="D979" s="16"/>
+      <c r="E979" s="16"/>
+      <c r="F979" s="16"/>
     </row>
     <row r="980">
-      <c r="C980" s="15"/>
-      <c r="D980" s="15"/>
-      <c r="E980" s="15"/>
-      <c r="F980" s="15"/>
+      <c r="C980" s="16"/>
+      <c r="D980" s="16"/>
+      <c r="E980" s="16"/>
+      <c r="F980" s="16"/>
     </row>
     <row r="981">
-      <c r="C981" s="15"/>
-      <c r="D981" s="15"/>
-      <c r="E981" s="15"/>
-      <c r="F981" s="15"/>
+      <c r="C981" s="16"/>
+      <c r="D981" s="16"/>
+      <c r="E981" s="16"/>
+      <c r="F981" s="16"/>
     </row>
     <row r="982">
-      <c r="C982" s="15"/>
-      <c r="D982" s="15"/>
-      <c r="E982" s="15"/>
-      <c r="F982" s="15"/>
+      <c r="C982" s="16"/>
+      <c r="D982" s="16"/>
+      <c r="E982" s="16"/>
+      <c r="F982" s="16"/>
     </row>
     <row r="983">
-      <c r="C983" s="15"/>
-      <c r="D983" s="15"/>
-      <c r="E983" s="15"/>
-      <c r="F983" s="15"/>
+      <c r="C983" s="16"/>
+      <c r="D983" s="16"/>
+      <c r="E983" s="16"/>
+      <c r="F983" s="16"/>
     </row>
     <row r="984">
-      <c r="C984" s="15"/>
-      <c r="D984" s="15"/>
-      <c r="E984" s="15"/>
-      <c r="F984" s="15"/>
+      <c r="C984" s="16"/>
+      <c r="D984" s="16"/>
+      <c r="E984" s="16"/>
+      <c r="F984" s="16"/>
     </row>
     <row r="985">
-      <c r="C985" s="15"/>
-      <c r="D985" s="15"/>
-      <c r="E985" s="15"/>
-      <c r="F985" s="15"/>
+      <c r="C985" s="16"/>
+      <c r="D985" s="16"/>
+      <c r="E985" s="16"/>
+      <c r="F985" s="16"/>
     </row>
     <row r="986">
-      <c r="C986" s="15"/>
-      <c r="D986" s="15"/>
-      <c r="E986" s="15"/>
-      <c r="F986" s="15"/>
+      <c r="C986" s="16"/>
+      <c r="D986" s="16"/>
+      <c r="E986" s="16"/>
+      <c r="F986" s="16"/>
     </row>
     <row r="987">
-      <c r="C987" s="15"/>
-      <c r="D987" s="15"/>
-      <c r="E987" s="15"/>
-      <c r="F987" s="15"/>
+      <c r="C987" s="16"/>
+      <c r="D987" s="16"/>
+      <c r="E987" s="16"/>
+      <c r="F987" s="16"/>
     </row>
     <row r="988">
-      <c r="C988" s="15"/>
-      <c r="D988" s="15"/>
-      <c r="E988" s="15"/>
-      <c r="F988" s="15"/>
+      <c r="C988" s="16"/>
+      <c r="D988" s="16"/>
+      <c r="E988" s="16"/>
+      <c r="F988" s="16"/>
     </row>
     <row r="989">
-      <c r="C989" s="15"/>
-      <c r="D989" s="15"/>
-      <c r="E989" s="15"/>
-      <c r="F989" s="15"/>
+      <c r="C989" s="16"/>
+      <c r="D989" s="16"/>
+      <c r="E989" s="16"/>
+      <c r="F989" s="16"/>
     </row>
     <row r="990">
-      <c r="C990" s="15"/>
-      <c r="D990" s="15"/>
-      <c r="E990" s="15"/>
-      <c r="F990" s="15"/>
+      <c r="C990" s="16"/>
+      <c r="D990" s="16"/>
+      <c r="E990" s="16"/>
+      <c r="F990" s="16"/>
     </row>
     <row r="991">
-      <c r="C991" s="15"/>
-      <c r="D991" s="15"/>
-      <c r="E991" s="15"/>
-      <c r="F991" s="15"/>
+      <c r="C991" s="16"/>
+      <c r="D991" s="16"/>
+      <c r="E991" s="16"/>
+      <c r="F991" s="16"/>
     </row>
     <row r="992">
-      <c r="C992" s="15"/>
-      <c r="D992" s="15"/>
-      <c r="E992" s="15"/>
-      <c r="F992" s="15"/>
+      <c r="C992" s="16"/>
+      <c r="D992" s="16"/>
+      <c r="E992" s="16"/>
+      <c r="F992" s="16"/>
     </row>
     <row r="993">
-      <c r="C993" s="15"/>
-      <c r="D993" s="15"/>
-      <c r="E993" s="15"/>
-      <c r="F993" s="15"/>
+      <c r="C993" s="16"/>
+      <c r="D993" s="16"/>
+      <c r="E993" s="16"/>
+      <c r="F993" s="16"/>
     </row>
     <row r="994">
-      <c r="C994" s="15"/>
-      <c r="D994" s="15"/>
-      <c r="E994" s="15"/>
-      <c r="F994" s="15"/>
+      <c r="C994" s="16"/>
+      <c r="D994" s="16"/>
+      <c r="E994" s="16"/>
+      <c r="F994" s="16"/>
     </row>
     <row r="995">
-      <c r="C995" s="15"/>
-      <c r="D995" s="15"/>
-      <c r="E995" s="15"/>
-      <c r="F995" s="15"/>
+      <c r="C995" s="16"/>
+      <c r="D995" s="16"/>
+      <c r="E995" s="16"/>
+      <c r="F995" s="16"/>
     </row>
     <row r="996">
-      <c r="C996" s="15"/>
-      <c r="D996" s="15"/>
-      <c r="E996" s="15"/>
-      <c r="F996" s="15"/>
+      <c r="C996" s="16"/>
+      <c r="D996" s="16"/>
+      <c r="E996" s="16"/>
+      <c r="F996" s="16"/>
     </row>
     <row r="997">
-      <c r="C997" s="15"/>
-      <c r="D997" s="15"/>
-      <c r="E997" s="15"/>
-      <c r="F997" s="15"/>
+      <c r="C997" s="16"/>
+      <c r="D997" s="16"/>
+      <c r="E997" s="16"/>
+      <c r="F997" s="16"/>
     </row>
     <row r="998">
-      <c r="C998" s="15"/>
-      <c r="D998" s="15"/>
-      <c r="E998" s="15"/>
-      <c r="F998" s="15"/>
+      <c r="C998" s="16"/>
+      <c r="D998" s="16"/>
+      <c r="E998" s="16"/>
+      <c r="F998" s="16"/>
     </row>
     <row r="999">
-      <c r="C999" s="15"/>
-      <c r="D999" s="15"/>
-      <c r="E999" s="15"/>
-      <c r="F999" s="15"/>
+      <c r="C999" s="16"/>
+      <c r="D999" s="16"/>
+      <c r="E999" s="16"/>
+      <c r="F999" s="16"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="15"/>
-      <c r="D1000" s="15"/>
-      <c r="E1000" s="15"/>
-      <c r="F1000" s="15"/>
+      <c r="C1000" s="16"/>
+      <c r="D1000" s="16"/>
+      <c r="E1000" s="16"/>
+      <c r="F1000" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A369 B2:B369 G2:L369">
